--- a/output/Results - sem2 (Extended).xlsx
+++ b/output/Results - sem2 (Extended).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="294">
   <si>
     <t>Rank</t>
   </si>
@@ -115,6 +115,18 @@
     <t>PEIRIS T.S.R.</t>
   </si>
   <si>
+    <t>230539</t>
+  </si>
+  <si>
+    <t>RATHEESHAN A.R.</t>
+  </si>
+  <si>
+    <t>230082</t>
+  </si>
+  <si>
+    <t>BANDARA W.D.A.C.</t>
+  </si>
+  <si>
     <t>230486</t>
   </si>
   <si>
@@ -127,10 +139,22 @@
     <t>DE MEL D.J.</t>
   </si>
   <si>
-    <t>230539</t>
-  </si>
-  <si>
-    <t>RATHEESHAN A.R.</t>
+    <t>230566</t>
+  </si>
+  <si>
+    <t>SAMARASINGHE S.M.R.R.</t>
+  </si>
+  <si>
+    <t>230256</t>
+  </si>
+  <si>
+    <t>ILANKOON I.M.M.K.B.</t>
+  </si>
+  <si>
+    <t>230355</t>
+  </si>
+  <si>
+    <t>KUMARASINGHE M.N.</t>
   </si>
   <si>
     <t>230108</t>
@@ -145,46 +169,238 @@
     <t>JAYAWEERA N.S.</t>
   </si>
   <si>
+    <t>230481</t>
+  </si>
+  <si>
+    <t>PERERA K.W.A.O.V.</t>
+  </si>
+  <si>
+    <t>230352</t>
+  </si>
+  <si>
+    <t>KUMARA K.B.R.</t>
+  </si>
+  <si>
+    <t>230051</t>
+  </si>
+  <si>
+    <t>ARACHCHI A.D.I.D.</t>
+  </si>
+  <si>
+    <t>230186</t>
+  </si>
+  <si>
+    <t>FERNANDO W.H.D.</t>
+  </si>
+  <si>
     <t>230100</t>
   </si>
   <si>
     <t>CHANDRAKUMARA H.A.D.C.</t>
   </si>
   <si>
-    <t>230352</t>
-  </si>
-  <si>
-    <t>KUMARA K.B.R.</t>
-  </si>
-  <si>
-    <t>230566</t>
-  </si>
-  <si>
-    <t>SAMARASINGHE S.M.R.R.</t>
-  </si>
-  <si>
-    <t>230481</t>
-  </si>
-  <si>
-    <t>PERERA K.W.A.O.V.</t>
-  </si>
-  <si>
-    <t>230082</t>
-  </si>
-  <si>
-    <t>BANDARA W.D.A.C.</t>
-  </si>
-  <si>
-    <t>230256</t>
-  </si>
-  <si>
-    <t>ILANKOON I.M.M.K.B.</t>
-  </si>
-  <si>
-    <t>230355</t>
-  </si>
-  <si>
-    <t>KUMARASINGHE M.N.</t>
+    <t>230689</t>
+  </si>
+  <si>
+    <t>WEERAKOON A.H.T.M.</t>
+  </si>
+  <si>
+    <t>230508</t>
+  </si>
+  <si>
+    <t>RAHUL B.</t>
+  </si>
+  <si>
+    <t>230390</t>
+  </si>
+  <si>
+    <t>MALDENIYA P.A.D.G.R.</t>
+  </si>
+  <si>
+    <t>230521</t>
+  </si>
+  <si>
+    <t>RANASINGHE D.P.H.</t>
+  </si>
+  <si>
+    <t>230525</t>
+  </si>
+  <si>
+    <t>RANATHUNGA R.J.K.O.H.</t>
+  </si>
+  <si>
+    <t>230544</t>
+  </si>
+  <si>
+    <t>RATHNAYAKE M.A.G.K.N.</t>
+  </si>
+  <si>
+    <t>230697</t>
+  </si>
+  <si>
+    <t>WEERASINGHE J.A.H.R.</t>
+  </si>
+  <si>
+    <t>230332</t>
+  </si>
+  <si>
+    <t>KEERAWELLA K.P.C.P.</t>
+  </si>
+  <si>
+    <t>230138</t>
+  </si>
+  <si>
+    <t>DHANANJAYA K.T.G.T.N.</t>
+  </si>
+  <si>
+    <t>230468</t>
+  </si>
+  <si>
+    <t>PATHIRANA P.T.S.</t>
+  </si>
+  <si>
+    <t>230038</t>
+  </si>
+  <si>
+    <t>AMARATHUNGE A.M.N.L.</t>
+  </si>
+  <si>
+    <t>230680</t>
+  </si>
+  <si>
+    <t>WANIGASUNDARA W.M.H.</t>
+  </si>
+  <si>
+    <t>230145</t>
+  </si>
+  <si>
+    <t>DILHAN W.A.</t>
+  </si>
+  <si>
+    <t>230258</t>
+  </si>
+  <si>
+    <t>IMADUWAGE O.N.H.</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>230436</t>
+  </si>
+  <si>
+    <t>NETTIKUMARA N.A.H.G.</t>
+  </si>
+  <si>
+    <t>230469</t>
+  </si>
+  <si>
+    <t>PEIRIS E.A.S.S.</t>
+  </si>
+  <si>
+    <t>230536</t>
+  </si>
+  <si>
+    <t>RASANJANA W.P.G.R.A.</t>
+  </si>
+  <si>
+    <t>230659</t>
+  </si>
+  <si>
+    <t>UPEKSHANI T.S.</t>
+  </si>
+  <si>
+    <t>230487</t>
+  </si>
+  <si>
+    <t>PERERA W.A.L.S.</t>
+  </si>
+  <si>
+    <t>230159</t>
+  </si>
+  <si>
+    <t>DISSANAYAKE G.R.G.K.</t>
+  </si>
+  <si>
+    <t>230353</t>
+  </si>
+  <si>
+    <t>KUMARA P.K.M.P.</t>
+  </si>
+  <si>
+    <t>230585</t>
+  </si>
+  <si>
+    <t>SARUKA U.</t>
+  </si>
+  <si>
+    <t>230140</t>
+  </si>
+  <si>
+    <t>DHARMAKEERTHI P.K.G.C.L.</t>
+  </si>
+  <si>
+    <t>230130</t>
+  </si>
+  <si>
+    <t>DESHAN W.U.</t>
+  </si>
+  <si>
+    <t>230502</t>
+  </si>
+  <si>
+    <t>PRIYADARSHANA S.A.D.</t>
+  </si>
+  <si>
+    <t>230613</t>
+  </si>
+  <si>
+    <t>SHEHAN M.N.N.</t>
+  </si>
+  <si>
+    <t>230321</t>
+  </si>
+  <si>
+    <t>KARUNANAYAKE A.H.D.</t>
+  </si>
+  <si>
+    <t>230526</t>
+  </si>
+  <si>
+    <t>RANAWAKA R.A.C.D.</t>
+  </si>
+  <si>
+    <t>230017</t>
+  </si>
+  <si>
+    <t>ADHIKARI A.H.C.S.</t>
+  </si>
+  <si>
+    <t>230155</t>
+  </si>
+  <si>
+    <t>DISSANAYAKA D.M.D.P.</t>
+  </si>
+  <si>
+    <t>230687</t>
+  </si>
+  <si>
+    <t>WEDAMESTRIGE A.N.</t>
+  </si>
+  <si>
+    <t>230492</t>
+  </si>
+  <si>
+    <t>PITIWADUGE D.N.</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>230045</t>
+  </si>
+  <si>
+    <t>ANTHONY C.S.B.</t>
   </si>
   <si>
     <t>230063</t>
@@ -193,193 +409,22 @@
     <t>ATHUKORALA U.R.</t>
   </si>
   <si>
-    <t>230697</t>
-  </si>
-  <si>
-    <t>WEERASINGHE J.A.H.R.</t>
-  </si>
-  <si>
-    <t>230689</t>
-  </si>
-  <si>
-    <t>WEERAKOON A.H.T.M.</t>
-  </si>
-  <si>
-    <t>230390</t>
-  </si>
-  <si>
-    <t>MALDENIYA P.A.D.G.R.</t>
-  </si>
-  <si>
-    <t>230508</t>
-  </si>
-  <si>
-    <t>RAHUL B.</t>
-  </si>
-  <si>
-    <t>230051</t>
-  </si>
-  <si>
-    <t>ARACHCHI A.D.I.D.</t>
-  </si>
-  <si>
-    <t>230138</t>
-  </si>
-  <si>
-    <t>DHANANJAYA K.T.G.T.N.</t>
-  </si>
-  <si>
-    <t>230038</t>
-  </si>
-  <si>
-    <t>AMARATHUNGE A.M.N.L.</t>
-  </si>
-  <si>
-    <t>230186</t>
-  </si>
-  <si>
-    <t>FERNANDO W.H.D.</t>
-  </si>
-  <si>
-    <t>230468</t>
-  </si>
-  <si>
-    <t>PATHIRANA P.T.S.</t>
-  </si>
-  <si>
-    <t>230521</t>
-  </si>
-  <si>
-    <t>RANASINGHE D.P.H.</t>
-  </si>
-  <si>
-    <t>230525</t>
-  </si>
-  <si>
-    <t>RANATHUNGA R.J.K.O.H.</t>
-  </si>
-  <si>
-    <t>230544</t>
-  </si>
-  <si>
-    <t>RATHNAYAKE M.A.G.K.N.</t>
-  </si>
-  <si>
-    <t>230680</t>
-  </si>
-  <si>
-    <t>WANIGASUNDARA W.M.H.</t>
-  </si>
-  <si>
-    <t>230332</t>
-  </si>
-  <si>
-    <t>KEERAWELLA K.P.C.P.</t>
-  </si>
-  <si>
-    <t>230130</t>
-  </si>
-  <si>
-    <t>DESHAN W.U.</t>
-  </si>
-  <si>
-    <t>230145</t>
-  </si>
-  <si>
-    <t>DILHAN W.A.</t>
-  </si>
-  <si>
-    <t>230159</t>
-  </si>
-  <si>
-    <t>DISSANAYAKE G.R.G.K.</t>
-  </si>
-  <si>
-    <t>A-</t>
-  </si>
-  <si>
-    <t>230155</t>
-  </si>
-  <si>
-    <t>DISSANAYAKA D.M.D.P.</t>
-  </si>
-  <si>
-    <t>230258</t>
-  </si>
-  <si>
-    <t>IMADUWAGE O.N.H.</t>
-  </si>
-  <si>
-    <t>230536</t>
-  </si>
-  <si>
-    <t>RASANJANA W.P.G.R.A.</t>
-  </si>
-  <si>
-    <t>230436</t>
-  </si>
-  <si>
-    <t>NETTIKUMARA N.A.H.G.</t>
-  </si>
-  <si>
-    <t>230469</t>
-  </si>
-  <si>
-    <t>PEIRIS E.A.S.S.</t>
-  </si>
-  <si>
-    <t>230487</t>
-  </si>
-  <si>
-    <t>PERERA W.A.L.S.</t>
-  </si>
-  <si>
-    <t>230659</t>
-  </si>
-  <si>
-    <t>UPEKSHANI T.S.</t>
-  </si>
-  <si>
-    <t>230585</t>
-  </si>
-  <si>
-    <t>SARUKA U.</t>
-  </si>
-  <si>
-    <t>230140</t>
-  </si>
-  <si>
-    <t>DHARMAKEERTHI P.K.G.C.L.</t>
-  </si>
-  <si>
-    <t>230353</t>
-  </si>
-  <si>
-    <t>KUMARA P.K.M.P.</t>
-  </si>
-  <si>
-    <t>230502</t>
-  </si>
-  <si>
-    <t>PRIYADARSHANA S.A.D.</t>
-  </si>
-  <si>
-    <t>230613</t>
-  </si>
-  <si>
-    <t>SHEHAN M.N.N.</t>
-  </si>
-  <si>
-    <t>230321</t>
-  </si>
-  <si>
-    <t>KARUNANAYAKE A.H.D.</t>
-  </si>
-  <si>
-    <t>230526</t>
-  </si>
-  <si>
-    <t>RANAWAKA R.A.C.D.</t>
+    <t>230473</t>
+  </si>
+  <si>
+    <t>PERAMUNAGE D.S.</t>
+  </si>
+  <si>
+    <t>230322</t>
+  </si>
+  <si>
+    <t>KARUNARATHNA G.K.T.</t>
+  </si>
+  <si>
+    <t>230417</t>
+  </si>
+  <si>
+    <t>MUNASINGHE A.I.</t>
   </si>
   <si>
     <t>230280</t>
@@ -388,97 +433,133 @@
     <t>JAYASINGHE J.A.P.R.</t>
   </si>
   <si>
-    <t>230017</t>
-  </si>
-  <si>
-    <t>ADHIKARI A.H.C.S.</t>
-  </si>
-  <si>
-    <t>230687</t>
-  </si>
-  <si>
-    <t>WEDAMESTRIGE A.N.</t>
-  </si>
-  <si>
     <t>230495</t>
   </si>
   <si>
     <t>PRABHARSHA H.W.D.</t>
   </si>
   <si>
+    <t>230058</t>
+  </si>
+  <si>
+    <t>AROSHANA H.A.P.</t>
+  </si>
+  <si>
+    <t>230016</t>
+  </si>
+  <si>
+    <t>ABISHEK L.</t>
+  </si>
+  <si>
+    <t>230724</t>
+  </si>
+  <si>
+    <t>WIJESEKARA W.A.G.S.</t>
+  </si>
+  <si>
+    <t>230726</t>
+  </si>
+  <si>
+    <t>WIJESINGHE U.G.S.K.D.</t>
+  </si>
+  <si>
+    <t>230500</t>
+  </si>
+  <si>
+    <t>PRISHMIKA H.W.N.</t>
+  </si>
+  <si>
+    <t>230629</t>
+  </si>
+  <si>
+    <t>TENNAKOON U.G.R.B.</t>
+  </si>
+  <si>
     <t>230211</t>
   </si>
   <si>
     <t>GUNASEKARA K.S.</t>
   </si>
   <si>
-    <t>230492</t>
-  </si>
-  <si>
-    <t>PITIWADUGE D.N.</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>230724</t>
-  </si>
-  <si>
-    <t>WIJESEKARA W.A.G.S.</t>
-  </si>
-  <si>
-    <t>230045</t>
-  </si>
-  <si>
-    <t>ANTHONY C.S.B.</t>
-  </si>
-  <si>
-    <t>230473</t>
-  </si>
-  <si>
-    <t>PERAMUNAGE D.S.</t>
-  </si>
-  <si>
-    <t>230322</t>
-  </si>
-  <si>
-    <t>KARUNARATHNA G.K.T.</t>
-  </si>
-  <si>
-    <t>230417</t>
-  </si>
-  <si>
-    <t>MUNASINGHE A.I.</t>
-  </si>
-  <si>
-    <t>230726</t>
-  </si>
-  <si>
-    <t>WIJESINGHE U.G.S.K.D.</t>
-  </si>
-  <si>
-    <t>230016</t>
-  </si>
-  <si>
-    <t>ABISHEK L.</t>
-  </si>
-  <si>
-    <t>230058</t>
-  </si>
-  <si>
-    <t>AROSHANA H.A.P.</t>
-  </si>
-  <si>
-    <t>230500</t>
-  </si>
-  <si>
-    <t>PRISHMIKA H.W.N.</t>
-  </si>
-  <si>
-    <t>230629</t>
-  </si>
-  <si>
-    <t>TENNAKOON U.G.R.B.</t>
+    <t>230164</t>
+  </si>
+  <si>
+    <t>DISSANAYAKE R.K.T.</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>230212</t>
+  </si>
+  <si>
+    <t>GUNASEKARA L.U.A.</t>
+  </si>
+  <si>
+    <t>230197</t>
+  </si>
+  <si>
+    <t>GARUSINGHE S.B.</t>
+  </si>
+  <si>
+    <t>230727</t>
+  </si>
+  <si>
+    <t>WIJESINGHE W.A.P.W.</t>
+  </si>
+  <si>
+    <t>230507</t>
+  </si>
+  <si>
+    <t>RAHMAN M.F.A.</t>
+  </si>
+  <si>
+    <t>230020</t>
+  </si>
+  <si>
+    <t>AHAMED A.M.S.</t>
+  </si>
+  <si>
+    <t>230527</t>
+  </si>
+  <si>
+    <t>RANAWAKA R.A.G.K.</t>
+  </si>
+  <si>
+    <t>230520</t>
+  </si>
+  <si>
+    <t>RANASINGHE A.G.N.S.</t>
+  </si>
+  <si>
+    <t>230052</t>
+  </si>
+  <si>
+    <t>ARACHCHIGE M. A. D. T. S.</t>
+  </si>
+  <si>
+    <t>230065</t>
+  </si>
+  <si>
+    <t>AYANAJA N.B.G.M.</t>
+  </si>
+  <si>
+    <t>230477</t>
+  </si>
+  <si>
+    <t>PERERA H.A.J.I.</t>
+  </si>
+  <si>
+    <t>230654</t>
+  </si>
+  <si>
+    <t>UMAIR A.</t>
+  </si>
+  <si>
+    <t>230180</t>
+  </si>
+  <si>
+    <t>FERNANDO H.M.D.</t>
   </si>
   <si>
     <t>230147</t>
@@ -487,61 +568,28 @@
     <t>DILHARA D.S.</t>
   </si>
   <si>
-    <t>230020</t>
-  </si>
-  <si>
-    <t>AHAMED A.M.S.</t>
-  </si>
-  <si>
-    <t>230507</t>
-  </si>
-  <si>
-    <t>RAHMAN M.F.A.</t>
-  </si>
-  <si>
-    <t>230727</t>
-  </si>
-  <si>
-    <t>WIJESINGHE W.A.P.W.</t>
-  </si>
-  <si>
-    <t>230052</t>
-  </si>
-  <si>
-    <t>ARACHCHIGE M. A. D. T. S.</t>
-  </si>
-  <si>
-    <t>230164</t>
-  </si>
-  <si>
-    <t>DISSANAYAKE R.K.T.</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>230197</t>
-  </si>
-  <si>
-    <t>GARUSINGHE S.B.</t>
-  </si>
-  <si>
-    <t>230212</t>
-  </si>
-  <si>
-    <t>GUNASEKARA L.U.A.</t>
-  </si>
-  <si>
-    <t>230065</t>
-  </si>
-  <si>
-    <t>AYANAJA N.B.G.M.</t>
-  </si>
-  <si>
-    <t>230527</t>
-  </si>
-  <si>
-    <t>RANAWAKA R.A.G.K.</t>
+    <t>230735</t>
+  </si>
+  <si>
+    <t>WITHANAGE G.D.N.</t>
+  </si>
+  <si>
+    <t>230070</t>
+  </si>
+  <si>
+    <t>BALASOORIYA B.R.B.D.</t>
+  </si>
+  <si>
+    <t>230563</t>
+  </si>
+  <si>
+    <t>SAMARANAYAKA H.D.J.D.</t>
+  </si>
+  <si>
+    <t>230012</t>
+  </si>
+  <si>
+    <t>ABEYWARDHANA T.C.W.</t>
   </si>
   <si>
     <t>230195</t>
@@ -550,64 +598,34 @@
     <t>GAMAGE SK</t>
   </si>
   <si>
-    <t>230012</t>
-  </si>
-  <si>
-    <t>ABEYWARDHANA T.C.W.</t>
-  </si>
-  <si>
-    <t>230520</t>
-  </si>
-  <si>
-    <t>RANASINGHE A.G.N.S.</t>
-  </si>
-  <si>
-    <t>230180</t>
-  </si>
-  <si>
-    <t>FERNANDO H.M.D.</t>
-  </si>
-  <si>
     <t>230229</t>
   </si>
   <si>
     <t>HANSINDU M.M.A.D.</t>
   </si>
   <si>
-    <t>230070</t>
-  </si>
-  <si>
-    <t>BALASOORIYA B.R.B.D.</t>
-  </si>
-  <si>
     <t>230218</t>
   </si>
   <si>
     <t>GUNATHUNGA U.A.</t>
   </si>
   <si>
-    <t>230654</t>
-  </si>
-  <si>
-    <t>UMAIR A.</t>
-  </si>
-  <si>
-    <t>230735</t>
-  </si>
-  <si>
-    <t>WITHANAGE G.D.N.</t>
-  </si>
-  <si>
-    <t>230477</t>
-  </si>
-  <si>
-    <t>PERERA H.A.J.I.</t>
-  </si>
-  <si>
-    <t>230563</t>
-  </si>
-  <si>
-    <t>SAMARANAYAKA H.D.J.D.</t>
+    <t>230261</t>
+  </si>
+  <si>
+    <t>INDUWARA M.L.A.S.</t>
+  </si>
+  <si>
+    <t>230077</t>
+  </si>
+  <si>
+    <t>BANDARA K.M.N.D.</t>
+  </si>
+  <si>
+    <t>230407</t>
+  </si>
+  <si>
+    <t>MEEDENIYA M.M.H.</t>
   </si>
   <si>
     <t>230458</t>
@@ -616,10 +634,16 @@
     <t>PALIHENA H.H.</t>
   </si>
   <si>
-    <t>230261</t>
-  </si>
-  <si>
-    <t>INDUWARA M.L.A.S.</t>
+    <t>230636</t>
+  </si>
+  <si>
+    <t>THARUSHIKA G.K.E.</t>
+  </si>
+  <si>
+    <t>230650</t>
+  </si>
+  <si>
+    <t>UBEYSEKARA V.T.T.</t>
   </si>
   <si>
     <t>230375</t>
@@ -631,10 +655,31 @@
     <t>B-</t>
   </si>
   <si>
-    <t>230077</t>
-  </si>
-  <si>
-    <t>BANDARA K.M.N.D.</t>
+    <t>230175</t>
+  </si>
+  <si>
+    <t>ERANGA W.A.O.</t>
+  </si>
+  <si>
+    <t>230493</t>
+  </si>
+  <si>
+    <t>PIYUMAL N.P.P.</t>
+  </si>
+  <si>
+    <t>I-we</t>
+  </si>
+  <si>
+    <t>230327</t>
+  </si>
+  <si>
+    <t>KAUSHALYA R.G.S.P.</t>
+  </si>
+  <si>
+    <t>230581</t>
+  </si>
+  <si>
+    <t>SANTHOSH S.</t>
   </si>
   <si>
     <t>230395</t>
@@ -643,31 +688,40 @@
     <t>MANATUNGA K.D.</t>
   </si>
   <si>
-    <t>230493</t>
-  </si>
-  <si>
-    <t>PIYUMAL N.P.P.</t>
-  </si>
-  <si>
-    <t>I-we</t>
-  </si>
-  <si>
-    <t>230175</t>
-  </si>
-  <si>
-    <t>ERANGA W.A.O.</t>
-  </si>
-  <si>
-    <t>230636</t>
-  </si>
-  <si>
-    <t>THARUSHIKA G.K.E.</t>
-  </si>
-  <si>
-    <t>230650</t>
-  </si>
-  <si>
-    <t>UBEYSEKARA V.T.T.</t>
+    <t>230248</t>
+  </si>
+  <si>
+    <t>HIMASARA W.V.M.J.</t>
+  </si>
+  <si>
+    <t>230730</t>
+  </si>
+  <si>
+    <t>WIJETHILAKA J.S.</t>
+  </si>
+  <si>
+    <t>230033</t>
+  </si>
+  <si>
+    <t>AMARASINGHE A.A.D.K.</t>
+  </si>
+  <si>
+    <t>230208</t>
+  </si>
+  <si>
+    <t>GUNASEKARA H.M.</t>
+  </si>
+  <si>
+    <t>230268</t>
+  </si>
+  <si>
+    <t>JAYAKODY J.A.C.P.</t>
+  </si>
+  <si>
+    <t>230444</t>
+  </si>
+  <si>
+    <t>NIRMANI W.T.</t>
   </si>
   <si>
     <t>230013</t>
@@ -676,54 +730,6 @@
     <t>ABEYWARNA D.H.</t>
   </si>
   <si>
-    <t>230248</t>
-  </si>
-  <si>
-    <t>HIMASARA W.V.M.J.</t>
-  </si>
-  <si>
-    <t>230407</t>
-  </si>
-  <si>
-    <t>MEEDENIYA M.M.H.</t>
-  </si>
-  <si>
-    <t>230581</t>
-  </si>
-  <si>
-    <t>SANTHOSH S.</t>
-  </si>
-  <si>
-    <t>230327</t>
-  </si>
-  <si>
-    <t>KAUSHALYA R.G.S.P.</t>
-  </si>
-  <si>
-    <t>230033</t>
-  </si>
-  <si>
-    <t>AMARASINGHE A.A.D.K.</t>
-  </si>
-  <si>
-    <t>230444</t>
-  </si>
-  <si>
-    <t>NIRMANI W.T.</t>
-  </si>
-  <si>
-    <t>230268</t>
-  </si>
-  <si>
-    <t>JAYAKODY J.A.C.P.</t>
-  </si>
-  <si>
-    <t>230730</t>
-  </si>
-  <si>
-    <t>WIJETHILAKA J.S.</t>
-  </si>
-  <si>
     <t>230259</t>
   </si>
   <si>
@@ -733,16 +739,28 @@
     <t>C+</t>
   </si>
   <si>
+    <t>230564</t>
+  </si>
+  <si>
+    <t>SAMARASEKARA S.M.R.P.</t>
+  </si>
+  <si>
+    <t>230183</t>
+  </si>
+  <si>
+    <t>FERNANDO LTJ</t>
+  </si>
+  <si>
     <t>230224</t>
   </si>
   <si>
     <t>HAKAM M.R.A.</t>
   </si>
   <si>
-    <t>230208</t>
-  </si>
-  <si>
-    <t>GUNASEKARA H.M.</t>
+    <t>230203</t>
+  </si>
+  <si>
+    <t>GUNARATHNA K.T.M.B.</t>
   </si>
   <si>
     <t>230238</t>
@@ -751,24 +769,6 @@
     <t>HENDENIYA H.M.J.C.</t>
   </si>
   <si>
-    <t>230564</t>
-  </si>
-  <si>
-    <t>SAMARASEKARA S.M.R.P.</t>
-  </si>
-  <si>
-    <t>230183</t>
-  </si>
-  <si>
-    <t>FERNANDO LTJ</t>
-  </si>
-  <si>
-    <t>230203</t>
-  </si>
-  <si>
-    <t>GUNARATHNA K.T.M.B.</t>
-  </si>
-  <si>
     <t>230449</t>
   </si>
   <si>
@@ -787,76 +787,97 @@
     <t>23(20.0%)</t>
   </si>
   <si>
+    <t>21(26.2%)</t>
+  </si>
+  <si>
+    <t>30(26.1%)</t>
+  </si>
+  <si>
+    <t>73(63.5%)</t>
+  </si>
+  <si>
+    <t>75(65.2%)</t>
+  </si>
+  <si>
+    <t>10(8.7%)</t>
+  </si>
+  <si>
+    <t>11(73.3%)</t>
+  </si>
+  <si>
+    <t>76(66.1%)</t>
+  </si>
+  <si>
+    <t>16(13.9%)</t>
+  </si>
+  <si>
+    <t>49(42.6%)</t>
+  </si>
+  <si>
+    <t>25(31.2%)</t>
+  </si>
+  <si>
+    <t>57(49.6%)</t>
+  </si>
+  <si>
+    <t>31(27.0%)</t>
+  </si>
+  <si>
+    <t>37(32.2%)</t>
+  </si>
+  <si>
+    <t>46(40.0%)</t>
+  </si>
+  <si>
+    <t>12(10.4%)</t>
+  </si>
+  <si>
+    <t>1(0.9%)</t>
+  </si>
+  <si>
+    <t>15(18.8%)</t>
+  </si>
+  <si>
+    <t>9(7.8%)</t>
+  </si>
+  <si>
+    <t>3(2.6%)</t>
+  </si>
+  <si>
+    <t>19(16.5%)</t>
+  </si>
+  <si>
+    <t>2(13.3%)</t>
+  </si>
+  <si>
+    <t>7(6.1%)</t>
+  </si>
+  <si>
+    <t>14(12.2%)</t>
+  </si>
+  <si>
+    <t>13(16.2%)</t>
+  </si>
+  <si>
+    <t>2(1.7%)</t>
+  </si>
+  <si>
     <t>0(0.0%)</t>
   </si>
   <si>
-    <t>30(26.1%)</t>
-  </si>
-  <si>
-    <t>73(63.5%)</t>
-  </si>
-  <si>
-    <t>10(8.7%)</t>
-  </si>
-  <si>
-    <t>11(73.3%)</t>
-  </si>
-  <si>
-    <t>76(66.1%)</t>
-  </si>
-  <si>
-    <t>16(13.9%)</t>
-  </si>
-  <si>
-    <t>48(41.7%)</t>
-  </si>
-  <si>
-    <t>57(49.6%)</t>
-  </si>
-  <si>
-    <t>31(27.0%)</t>
-  </si>
-  <si>
-    <t>46(40.0%)</t>
-  </si>
-  <si>
-    <t>12(10.4%)</t>
-  </si>
-  <si>
-    <t>1(0.9%)</t>
-  </si>
-  <si>
-    <t>24(20.9%)</t>
-  </si>
-  <si>
-    <t>9(7.8%)</t>
-  </si>
-  <si>
-    <t>19(16.5%)</t>
-  </si>
-  <si>
-    <t>2(13.3%)</t>
-  </si>
-  <si>
-    <t>7(6.1%)</t>
-  </si>
-  <si>
-    <t>14(12.2%)</t>
-  </si>
-  <si>
-    <t>2(1.7%)</t>
-  </si>
-  <si>
     <t>21(18.3%)</t>
   </si>
   <si>
     <t>5(4.3%)</t>
   </si>
   <si>
+    <t>2(2.5%)</t>
+  </si>
+  <si>
     <t>13(11.3%)</t>
   </si>
   <si>
-    <t>3(2.6%)</t>
+    <t>4(5.0%)</t>
   </si>
   <si>
     <t>C</t>
@@ -1306,7 +1327,7 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -1315,7 +1336,7 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
@@ -1351,10 +1372,10 @@
         <v>259</v>
       </c>
       <c r="Y2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Z2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -1380,7 +1401,7 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -1389,7 +1410,7 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -1404,31 +1425,31 @@
         <v>22</v>
       </c>
       <c r="R3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="S3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="T3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="U3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V3" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="W3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="X3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Y3" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="Z3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -1454,7 +1475,7 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -1463,7 +1484,7 @@
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -1475,34 +1496,34 @@
         <v>3</v>
       </c>
       <c r="Q4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="R4" t="s">
         <v>253</v>
       </c>
       <c r="S4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="T4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="U4" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="V4" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="W4" t="s">
         <v>254</v>
       </c>
       <c r="X4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Y4" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="Z4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -1528,7 +1549,7 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
@@ -1537,7 +1558,7 @@
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
         <v>22</v>
@@ -1549,34 +1570,34 @@
         <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="R5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="S5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="T5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="U5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="V5" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="W5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="X5" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Y5" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Z5" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -1602,7 +1623,7 @@
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -1611,7 +1632,7 @@
         <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -1623,34 +1644,34 @@
         <v>3</v>
       </c>
       <c r="Q6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="R6" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="S6" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="T6" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="U6" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="V6" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="W6" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="X6" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Y6" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Z6" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1676,7 +1697,7 @@
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -1685,7 +1706,7 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -1697,34 +1718,34 @@
         <v>3</v>
       </c>
       <c r="Q7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="R7" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="S7" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="T7" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="U7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="V7" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="W7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="X7" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Y7" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Z7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1759,7 +1780,7 @@
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -1768,37 +1789,37 @@
         <v>4</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="R8" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="S8" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="T8" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="U8" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="V8" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="W8" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="X8" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Y8" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Z8" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1824,7 +1845,7 @@
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
@@ -1833,7 +1854,7 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
         <v>22</v>
@@ -1845,34 +1866,34 @@
         <v>8</v>
       </c>
       <c r="Q9" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="R9" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="S9" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="T9" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="U9" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="V9" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="W9" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="X9" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Y9" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Z9" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1895,19 +1916,19 @@
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
         <v>22</v>
@@ -1919,34 +1940,34 @@
         <v>8</v>
       </c>
       <c r="Q10" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="R10" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="S10" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="T10" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="U10" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="V10" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="W10" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="X10" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Y10" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Z10" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1969,19 +1990,19 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L11" t="s">
         <v>22</v>
@@ -1990,37 +2011,37 @@
         <v>4</v>
       </c>
       <c r="N11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q11" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="R11" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="S11" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="T11" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="U11" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="V11" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="W11" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="X11" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Y11" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Z11" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -2043,19 +2064,19 @@
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
         <v>22</v>
@@ -2064,37 +2085,37 @@
         <v>4</v>
       </c>
       <c r="N12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q12" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="R12" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="S12" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="T12" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="U12" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="V12" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="W12" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="X12" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Y12" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Z12" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -2108,19 +2129,19 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
@@ -2129,7 +2150,7 @@
         <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
         <v>22</v>
@@ -2138,37 +2159,37 @@
         <v>4</v>
       </c>
       <c r="N13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q13" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="R13" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="S13" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="T13" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="U13" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="V13" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="W13" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="X13" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Y13" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Z13" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -2185,64 +2206,64 @@
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M14">
         <v>4</v>
       </c>
       <c r="N14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q14" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="R14" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="S14" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="T14" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="U14" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="V14" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="W14" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="X14" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Y14" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Z14" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -2262,13 +2283,13 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
         <v>17</v>
@@ -2277,7 +2298,7 @@
         <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L15" t="s">
         <v>22</v>
@@ -2286,7 +2307,7 @@
         <v>4</v>
       </c>
       <c r="N15">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -2309,19 +2330,19 @@
         <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
         <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L16" t="s">
         <v>22</v>
@@ -2330,7 +2351,7 @@
         <v>4</v>
       </c>
       <c r="N16">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2344,7 +2365,7 @@
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
@@ -2356,16 +2377,16 @@
         <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
         <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L17" t="s">
         <v>22</v>
@@ -2374,7 +2395,7 @@
         <v>4</v>
       </c>
       <c r="N17">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2388,7 +2409,7 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
@@ -2400,7 +2421,7 @@
         <v>22</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
@@ -2409,16 +2430,16 @@
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M18">
         <v>4</v>
       </c>
       <c r="N18">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2432,7 +2453,7 @@
         <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
@@ -2441,19 +2462,19 @@
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s">
         <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L19" t="s">
         <v>22</v>
@@ -2485,19 +2506,19 @@
         <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I20" t="s">
         <v>17</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L20" t="s">
         <v>22</v>
@@ -2532,16 +2553,16 @@
         <v>22</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L21" t="s">
         <v>22</v>
@@ -2567,7 +2588,7 @@
         <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -2576,7 +2597,7 @@
         <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s">
         <v>22</v>
@@ -2585,7 +2606,7 @@
         <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L22" t="s">
         <v>22</v>
@@ -2614,25 +2635,25 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J23" t="s">
         <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M23">
         <v>4</v>
@@ -2673,7 +2694,7 @@
         <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L24" t="s">
         <v>22</v>
@@ -2682,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="N24">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2702,22 +2723,22 @@
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s">
         <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L25" t="s">
         <v>22</v>
@@ -2726,7 +2747,7 @@
         <v>4</v>
       </c>
       <c r="N25">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2746,22 +2767,22 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L26" t="s">
         <v>22</v>
@@ -2770,7 +2791,7 @@
         <v>4</v>
       </c>
       <c r="N26">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2799,13 +2820,13 @@
         <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L27" t="s">
         <v>22</v>
@@ -2814,7 +2835,7 @@
         <v>4</v>
       </c>
       <c r="N27">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2831,7 +2852,7 @@
         <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -2846,10 +2867,10 @@
         <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L28" t="s">
         <v>22</v>
@@ -2858,7 +2879,7 @@
         <v>4</v>
       </c>
       <c r="N28">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2893,7 +2914,7 @@
         <v>17</v>
       </c>
       <c r="K29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L29" t="s">
         <v>22</v>
@@ -2902,7 +2923,7 @@
         <v>4</v>
       </c>
       <c r="N29">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2937,16 +2958,16 @@
         <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L30" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M30">
         <v>4</v>
       </c>
       <c r="N30">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2960,7 +2981,7 @@
         <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
         <v>22</v>
@@ -2972,16 +2993,16 @@
         <v>22</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I31" t="s">
         <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L31" t="s">
         <v>22</v>
@@ -2990,7 +3011,7 @@
         <v>4</v>
       </c>
       <c r="N31">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3007,7 +3028,7 @@
         <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -3016,16 +3037,16 @@
         <v>22</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I32" t="s">
         <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L32" t="s">
         <v>22</v>
@@ -3034,7 +3055,7 @@
         <v>4</v>
       </c>
       <c r="N32">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3060,7 +3081,7 @@
         <v>22</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I33" t="s">
         <v>22</v>
@@ -3069,7 +3090,7 @@
         <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L33" t="s">
         <v>22</v>
@@ -3078,7 +3099,7 @@
         <v>4</v>
       </c>
       <c r="N33">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3104,7 +3125,7 @@
         <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
         <v>22</v>
@@ -3113,7 +3134,7 @@
         <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L34" t="s">
         <v>22</v>
@@ -3122,7 +3143,7 @@
         <v>4</v>
       </c>
       <c r="N34">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3157,7 +3178,7 @@
         <v>17</v>
       </c>
       <c r="K35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L35" t="s">
         <v>22</v>
@@ -3180,19 +3201,19 @@
         <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
         <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G36" t="s">
         <v>22</v>
       </c>
       <c r="H36" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I36" t="s">
         <v>22</v>
@@ -3201,7 +3222,7 @@
         <v>22</v>
       </c>
       <c r="K36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L36" t="s">
         <v>22</v>
@@ -3215,7 +3236,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>87</v>
@@ -3230,28 +3251,28 @@
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s">
         <v>22</v>
       </c>
       <c r="J37" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L37" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="M37">
-        <v>4</v>
+        <v>3.96</v>
       </c>
       <c r="N37">
         <v>36</v>
@@ -3259,13 +3280,13 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
@@ -3274,28 +3295,28 @@
         <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I38" t="s">
         <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L38" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>3.96</v>
       </c>
       <c r="N38">
         <v>36</v>
@@ -3303,51 +3324,51 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I39" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J39" t="s">
         <v>17</v>
       </c>
       <c r="K39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L39" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="N39">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
         <v>94</v>
@@ -3377,21 +3398,21 @@
         <v>17</v>
       </c>
       <c r="K40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L40" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M40">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="N40">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
         <v>96</v>
@@ -3403,13 +3424,13 @@
         <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H41" t="s">
         <v>16</v>
@@ -3421,21 +3442,21 @@
         <v>17</v>
       </c>
       <c r="K41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L41" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M41">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="N41">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
         <v>98</v>
@@ -3447,39 +3468,39 @@
         <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H42" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J42" t="s">
         <v>17</v>
       </c>
       <c r="K42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L42" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="N42">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
         <v>100</v>
@@ -3488,7 +3509,7 @@
         <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E43" t="s">
         <v>22</v>
@@ -3497,33 +3518,33 @@
         <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J43" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="K43" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
       </c>
       <c r="M43">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="N43">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
         <v>102</v>
@@ -3535,39 +3556,39 @@
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I44" t="s">
         <v>22</v>
       </c>
       <c r="J44" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L44" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="M44">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="N44">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
         <v>104</v>
@@ -3579,7 +3600,7 @@
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -3591,27 +3612,27 @@
         <v>16</v>
       </c>
       <c r="I45" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J45" t="s">
         <v>17</v>
       </c>
       <c r="K45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L45" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="M45">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="N45">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
         <v>106</v>
@@ -3623,31 +3644,31 @@
         <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G46" t="s">
         <v>22</v>
       </c>
       <c r="H46" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J46" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K46" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M46">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="N46">
         <v>45</v>
@@ -3655,7 +3676,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
         <v>108</v>
@@ -3670,28 +3691,28 @@
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G47" t="s">
         <v>22</v>
       </c>
       <c r="H47" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I47" t="s">
         <v>22</v>
       </c>
       <c r="J47" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="N47">
         <v>46</v>
@@ -3699,7 +3720,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>110</v>
@@ -3714,10 +3735,10 @@
         <v>22</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s">
         <v>16</v>
@@ -3726,13 +3747,13 @@
         <v>17</v>
       </c>
       <c r="J48" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L48" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="M48">
         <v>3.95</v>
@@ -3743,7 +3764,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>112</v>
@@ -3761,22 +3782,22 @@
         <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s">
         <v>16</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J49" t="s">
         <v>22</v>
       </c>
       <c r="K49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L49" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="M49">
         <v>3.95</v>
@@ -3787,7 +3808,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
         <v>114</v>
@@ -3805,25 +3826,25 @@
         <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="H50" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I50" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="J50" t="s">
         <v>17</v>
       </c>
       <c r="K50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L50" t="s">
         <v>22</v>
       </c>
       <c r="M50">
-        <v>3.94</v>
+        <v>3.95</v>
       </c>
       <c r="N50">
         <v>49</v>
@@ -3831,7 +3852,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
         <v>116</v>
@@ -3849,33 +3870,33 @@
         <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="H51" t="s">
         <v>16</v>
       </c>
       <c r="I51" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L51" t="s">
         <v>22</v>
       </c>
       <c r="M51">
-        <v>3.94</v>
+        <v>3.95</v>
       </c>
       <c r="N51">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
         <v>118</v>
@@ -3890,28 +3911,28 @@
         <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G52" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I52" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="J52" t="s">
         <v>17</v>
       </c>
       <c r="K52" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L52" t="s">
         <v>22</v>
       </c>
       <c r="M52">
-        <v>3.94</v>
+        <v>3.95</v>
       </c>
       <c r="N52">
         <v>51</v>
@@ -3919,7 +3940,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>120</v>
@@ -3937,33 +3958,33 @@
         <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I53" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="J53" t="s">
         <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L53" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="M53">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="N53">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>122</v>
@@ -3978,36 +3999,36 @@
         <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="H54" t="s">
         <v>16</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J54" t="s">
         <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="M54">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="N54">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>124</v>
@@ -4022,28 +4043,28 @@
         <v>22</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I55" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J55" t="s">
         <v>17</v>
       </c>
       <c r="K55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L55" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="M55">
-        <v>3.94</v>
+        <v>3.92</v>
       </c>
       <c r="N55">
         <v>54</v>
@@ -4051,40 +4072,40 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
         <v>126</v>
       </c>
-      <c r="C56" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" t="s">
-        <v>22</v>
-      </c>
       <c r="F56" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="G56" t="s">
         <v>22</v>
       </c>
       <c r="H56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I56" t="s">
         <v>17</v>
       </c>
       <c r="J56" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L56" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="M56">
         <v>3.92</v>
@@ -4095,19 +4116,19 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D57" t="s">
         <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
@@ -4116,22 +4137,22 @@
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I57" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J57" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L57" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="M57">
-        <v>3.91</v>
+        <v>3.92</v>
       </c>
       <c r="N57">
         <v>56</v>
@@ -4139,43 +4160,43 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C58" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D58" t="s">
         <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I58" t="s">
         <v>22</v>
       </c>
       <c r="J58" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="K58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L58" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M58">
-        <v>3.91</v>
+        <v>3.92</v>
       </c>
       <c r="N58">
         <v>57</v>
@@ -4183,13 +4204,13 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
@@ -4201,33 +4222,33 @@
         <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H59" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I59" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J59" t="s">
         <v>17</v>
       </c>
       <c r="K59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L59" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M59">
-        <v>3.89</v>
+        <v>3.92</v>
       </c>
       <c r="N59">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
         <v>135</v>
@@ -4239,7 +4260,7 @@
         <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
@@ -4248,30 +4269,30 @@
         <v>22</v>
       </c>
       <c r="H60" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I60" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J60" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="K60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L60" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="M60">
-        <v>3.89</v>
+        <v>3.92</v>
       </c>
       <c r="N60">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
         <v>137</v>
@@ -4283,39 +4304,39 @@
         <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I61" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J61" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L61" t="s">
         <v>22</v>
       </c>
       <c r="M61">
-        <v>3.89</v>
+        <v>3.92</v>
       </c>
       <c r="N61">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
         <v>139</v>
@@ -4327,31 +4348,31 @@
         <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
       </c>
       <c r="G62" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="H62" t="s">
         <v>16</v>
       </c>
       <c r="I62" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J62" t="s">
         <v>22</v>
       </c>
       <c r="K62" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L62" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M62">
-        <v>3.89</v>
+        <v>3.92</v>
       </c>
       <c r="N62">
         <v>61</v>
@@ -4359,7 +4380,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
         <v>141</v>
@@ -4380,30 +4401,30 @@
         <v>22</v>
       </c>
       <c r="H63" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I63" t="s">
         <v>22</v>
       </c>
       <c r="J63" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K63" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L63" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M63">
-        <v>3.89</v>
+        <v>3.92</v>
       </c>
       <c r="N63">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>143</v>
@@ -4412,7 +4433,7 @@
         <v>144</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -4421,33 +4442,33 @@
         <v>17</v>
       </c>
       <c r="G64" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I64" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="K64" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L64" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>3.89</v>
+        <v>3.91</v>
       </c>
       <c r="N64">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>145</v>
@@ -4459,39 +4480,39 @@
         <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="H65" t="s">
         <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J65" t="s">
         <v>17</v>
       </c>
       <c r="K65" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L65" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="M65">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
       <c r="N65">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>147</v>
@@ -4500,7 +4521,7 @@
         <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -4509,25 +4530,25 @@
         <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s">
         <v>16</v>
       </c>
       <c r="I66" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="J66" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L66" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="M66">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
       <c r="N66">
         <v>65</v>
@@ -4535,7 +4556,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
         <v>149</v>
@@ -4559,27 +4580,27 @@
         <v>16</v>
       </c>
       <c r="I67" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J67" t="s">
         <v>22</v>
       </c>
       <c r="K67" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L67" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="M67">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
       <c r="N67">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
         <v>151</v>
@@ -4603,27 +4624,27 @@
         <v>16</v>
       </c>
       <c r="I68" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J68" t="s">
         <v>22</v>
       </c>
       <c r="K68" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L68" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M68">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
       <c r="N68">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>153</v>
@@ -4644,30 +4665,30 @@
         <v>22</v>
       </c>
       <c r="H69" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I69" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="J69" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L69" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M69">
         <v>3.89</v>
       </c>
       <c r="N69">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>155</v>
@@ -4679,31 +4700,31 @@
         <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="H70" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I70" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J70" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L70" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="M70">
-        <v>3.89</v>
+        <v>3.88</v>
       </c>
       <c r="N70">
         <v>69</v>
@@ -4711,43 +4732,43 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C71" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D71" t="s">
         <v>16</v>
       </c>
       <c r="E71" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I71" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="J71" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L71" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="M71">
-        <v>3.87</v>
+        <v>3.88</v>
       </c>
       <c r="N71">
         <v>70</v>
@@ -4755,19 +4776,19 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C72" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D72" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
@@ -4776,22 +4797,22 @@
         <v>22</v>
       </c>
       <c r="H72" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I72" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="J72" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L72" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="M72">
-        <v>3.85</v>
+        <v>3.88</v>
       </c>
       <c r="N72">
         <v>71</v>
@@ -4799,13 +4820,13 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D73" t="s">
         <v>22</v>
@@ -4817,7 +4838,7 @@
         <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H73" t="s">
         <v>16</v>
@@ -4829,13 +4850,13 @@
         <v>17</v>
       </c>
       <c r="K73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L73" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M73">
-        <v>3.85</v>
+        <v>3.87</v>
       </c>
       <c r="N73">
         <v>71</v>
@@ -4843,13 +4864,13 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D74" t="s">
         <v>22</v>
@@ -4861,25 +4882,25 @@
         <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="H74" t="s">
         <v>16</v>
       </c>
       <c r="I74" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J74" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K74" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L74" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M74">
-        <v>3.85</v>
+        <v>3.87</v>
       </c>
       <c r="N74">
         <v>73</v>
@@ -4887,13 +4908,13 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D75" t="s">
         <v>16</v>
@@ -4905,33 +4926,33 @@
         <v>17</v>
       </c>
       <c r="G75" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I75" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="J75" t="s">
         <v>17</v>
       </c>
       <c r="K75" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L75" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="M75">
-        <v>3.84</v>
+        <v>3.87</v>
       </c>
       <c r="N75">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>168</v>
@@ -4943,7 +4964,7 @@
         <v>16</v>
       </c>
       <c r="E76" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="F76" t="s">
         <v>17</v>
@@ -4955,19 +4976,19 @@
         <v>16</v>
       </c>
       <c r="I76" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J76" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="K76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L76" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="M76">
-        <v>3.84</v>
+        <v>3.86</v>
       </c>
       <c r="N76">
         <v>75</v>
@@ -4975,7 +4996,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>170</v>
@@ -4987,13 +5008,13 @@
         <v>16</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F77" t="s">
         <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="H77" t="s">
         <v>16</v>
@@ -5002,16 +5023,16 @@
         <v>22</v>
       </c>
       <c r="J77" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="K77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L77" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M77">
-        <v>3.84</v>
+        <v>3.85</v>
       </c>
       <c r="N77">
         <v>76</v>
@@ -5019,7 +5040,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>172</v>
@@ -5028,7 +5049,7 @@
         <v>173</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E78" t="s">
         <v>22</v>
@@ -5037,33 +5058,33 @@
         <v>17</v>
       </c>
       <c r="G78" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I78" t="s">
         <v>22</v>
       </c>
       <c r="J78" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K78" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L78" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="M78">
-        <v>3.84</v>
+        <v>3.85</v>
       </c>
       <c r="N78">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>174</v>
@@ -5084,7 +5105,7 @@
         <v>22</v>
       </c>
       <c r="H79" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I79" t="s">
         <v>22</v>
@@ -5093,21 +5114,21 @@
         <v>17</v>
       </c>
       <c r="K79" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L79" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="M79">
         <v>3.84</v>
       </c>
       <c r="N79">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>176</v>
@@ -5119,39 +5140,39 @@
         <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="H80" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I80" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J80" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="K80" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L80" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="M80">
-        <v>3.84</v>
+        <v>3.83</v>
       </c>
       <c r="N80">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>178</v>
@@ -5166,10 +5187,10 @@
         <v>22</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G81" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="H81" t="s">
         <v>16</v>
@@ -5181,10 +5202,10 @@
         <v>17</v>
       </c>
       <c r="K81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L81" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="M81">
         <v>3.83</v>
@@ -5195,7 +5216,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" t="s">
         <v>180</v>
@@ -5213,33 +5234,33 @@
         <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H82" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I82" t="s">
         <v>22</v>
       </c>
       <c r="J82" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L82" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M82">
         <v>3.83</v>
       </c>
       <c r="N82">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
         <v>182</v>
@@ -5251,16 +5272,16 @@
         <v>16</v>
       </c>
       <c r="E83" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G83" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H83" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
@@ -5269,10 +5290,10 @@
         <v>22</v>
       </c>
       <c r="K83" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L83" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="M83">
         <v>3.83</v>
@@ -5283,7 +5304,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>184</v>
@@ -5301,33 +5322,33 @@
         <v>17</v>
       </c>
       <c r="G84" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="H84" t="s">
         <v>16</v>
       </c>
       <c r="I84" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J84" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L84" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="M84">
-        <v>3.83</v>
+        <v>3.82</v>
       </c>
       <c r="N84">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>186</v>
@@ -5342,13 +5363,13 @@
         <v>22</v>
       </c>
       <c r="F85" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G85" t="s">
         <v>22</v>
       </c>
       <c r="H85" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I85" t="s">
         <v>22</v>
@@ -5357,16 +5378,16 @@
         <v>17</v>
       </c>
       <c r="K85" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L85" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M85">
         <v>3.82</v>
       </c>
       <c r="N85">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -5380,7 +5401,7 @@
         <v>189</v>
       </c>
       <c r="D86" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E86" t="s">
         <v>22</v>
@@ -5389,33 +5410,33 @@
         <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s">
         <v>16</v>
       </c>
       <c r="I86" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="J86" t="s">
         <v>17</v>
       </c>
       <c r="K86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L86" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="M86">
         <v>3.81</v>
       </c>
       <c r="N86">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>190</v>
@@ -5430,13 +5451,13 @@
         <v>22</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="H87" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="I87" t="s">
         <v>22</v>
@@ -5445,13 +5466,13 @@
         <v>17</v>
       </c>
       <c r="K87" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L87" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="M87">
-        <v>3.81</v>
+        <v>3.8</v>
       </c>
       <c r="N87">
         <v>86</v>
@@ -5459,7 +5480,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>192</v>
@@ -5471,34 +5492,34 @@
         <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
       </c>
       <c r="G88" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="H88" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I88" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="J88" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L88" t="s">
         <v>22</v>
       </c>
       <c r="M88">
-        <v>3.79</v>
+        <v>3.8</v>
       </c>
       <c r="N88">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -5515,28 +5536,28 @@
         <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="F89" t="s">
         <v>17</v>
       </c>
       <c r="G89" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="H89" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I89" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J89" t="s">
         <v>22</v>
       </c>
       <c r="K89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L89" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M89">
         <v>3.78</v>
@@ -5547,7 +5568,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>196</v>
@@ -5556,7 +5577,7 @@
         <v>197</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E90" t="s">
         <v>22</v>
@@ -5565,25 +5586,25 @@
         <v>17</v>
       </c>
       <c r="G90" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I90" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J90" t="s">
         <v>17</v>
       </c>
       <c r="K90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L90" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="M90">
-        <v>3.78</v>
+        <v>3.77</v>
       </c>
       <c r="N90">
         <v>89</v>
@@ -5591,7 +5612,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>198</v>
@@ -5603,31 +5624,31 @@
         <v>16</v>
       </c>
       <c r="E91" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F91" t="s">
         <v>17</v>
       </c>
       <c r="G91" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="H91" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I91" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="J91" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K91" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L91" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M91">
-        <v>3.76</v>
+        <v>3.77</v>
       </c>
       <c r="N91">
         <v>90</v>
@@ -5644,19 +5665,19 @@
         <v>201</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="E92" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G92" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="H92" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I92" t="s">
         <v>22</v>
@@ -5665,13 +5686,13 @@
         <v>17</v>
       </c>
       <c r="K92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L92" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="M92">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="N92">
         <v>91</v>
@@ -5679,7 +5700,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>202</v>
@@ -5700,22 +5721,22 @@
         <v>22</v>
       </c>
       <c r="H93" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I93" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J93" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="K93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L93" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="M93">
-        <v>3.73</v>
+        <v>3.75</v>
       </c>
       <c r="N93">
         <v>92</v>
@@ -5723,43 +5744,43 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>204</v>
+      </c>
+      <c r="C94" t="s">
         <v>205</v>
       </c>
-      <c r="C94" t="s">
-        <v>206</v>
-      </c>
       <c r="D94" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G94" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H94" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I94" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J94" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K94" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L94" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="M94">
-        <v>3.73</v>
+        <v>3.74</v>
       </c>
       <c r="N94">
         <v>93</v>
@@ -5767,25 +5788,25 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" t="s">
         <v>207</v>
       </c>
-      <c r="C95" t="s">
-        <v>208</v>
-      </c>
       <c r="D95" t="s">
         <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
       </c>
       <c r="G95" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H95" t="s">
         <v>16</v>
@@ -5794,16 +5815,16 @@
         <v>22</v>
       </c>
       <c r="J95" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L95" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M95">
-        <v>3.69</v>
+        <v>3.74</v>
       </c>
       <c r="N95">
         <v>93</v>
@@ -5811,178 +5832,178 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s">
+        <v>208</v>
+      </c>
+      <c r="C96" t="s">
         <v>209</v>
       </c>
-      <c r="C96" t="s">
-        <v>210</v>
-      </c>
       <c r="D96" t="s">
         <v>16</v>
       </c>
       <c r="E96" t="s">
+        <v>89</v>
+      </c>
+      <c r="F96" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" t="s">
+        <v>126</v>
+      </c>
+      <c r="H96" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" t="s">
+        <v>89</v>
+      </c>
+      <c r="J96" t="s">
+        <v>22</v>
+      </c>
+      <c r="K96" t="s">
+        <v>17</v>
+      </c>
+      <c r="L96" t="s">
+        <v>89</v>
+      </c>
+      <c r="M96">
+        <v>3.74</v>
+      </c>
+      <c r="N96">
         <v>93</v>
-      </c>
-      <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" t="s">
-        <v>134</v>
-      </c>
-      <c r="H96" t="s">
-        <v>16</v>
-      </c>
-      <c r="I96" t="s">
-        <v>93</v>
-      </c>
-      <c r="J96" t="s">
-        <v>17</v>
-      </c>
-      <c r="K96" t="s">
-        <v>16</v>
-      </c>
-      <c r="L96" t="s">
-        <v>211</v>
-      </c>
-      <c r="M96">
-        <v>3.69</v>
-      </c>
-      <c r="N96">
-        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>210</v>
+      </c>
+      <c r="C97" t="s">
+        <v>211</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" t="s">
+        <v>126</v>
+      </c>
+      <c r="I97" t="s">
+        <v>89</v>
+      </c>
+      <c r="J97" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97" t="s">
+        <v>17</v>
+      </c>
+      <c r="L97" t="s">
         <v>212</v>
       </c>
-      <c r="C97" t="s">
-        <v>213</v>
-      </c>
-      <c r="D97" t="s">
-        <v>16</v>
-      </c>
-      <c r="E97" t="s">
-        <v>22</v>
-      </c>
-      <c r="F97" t="s">
-        <v>17</v>
-      </c>
-      <c r="G97" t="s">
-        <v>134</v>
-      </c>
-      <c r="H97" t="s">
-        <v>16</v>
-      </c>
-      <c r="I97" t="s">
+      <c r="M97">
+        <v>3.71</v>
+      </c>
+      <c r="N97">
         <v>93</v>
-      </c>
-      <c r="J97" t="s">
-        <v>93</v>
-      </c>
-      <c r="K97" t="s">
-        <v>16</v>
-      </c>
-      <c r="L97" t="s">
-        <v>93</v>
-      </c>
-      <c r="M97">
-        <v>3.69</v>
-      </c>
-      <c r="N97">
-        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>213</v>
+      </c>
+      <c r="C98" t="s">
         <v>214</v>
       </c>
-      <c r="C98" t="s">
-        <v>215</v>
-      </c>
       <c r="D98" t="s">
         <v>16</v>
       </c>
       <c r="E98" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F98" t="s">
         <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H98" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I98" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J98" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="K98" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="L98" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="M98">
-        <v>3.69</v>
+        <v>3.7</v>
       </c>
       <c r="N98">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" t="s">
         <v>216</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" t="s">
+        <v>89</v>
+      </c>
+      <c r="F99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" t="s">
+        <v>126</v>
+      </c>
+      <c r="H99" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" t="s">
+        <v>89</v>
+      </c>
+      <c r="J99" t="s">
+        <v>17</v>
+      </c>
+      <c r="K99" t="s">
+        <v>89</v>
+      </c>
+      <c r="L99" t="s">
         <v>217</v>
-      </c>
-      <c r="D99" t="s">
-        <v>16</v>
-      </c>
-      <c r="E99" t="s">
-        <v>93</v>
-      </c>
-      <c r="F99" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" t="s">
-        <v>134</v>
-      </c>
-      <c r="H99" t="s">
-        <v>16</v>
-      </c>
-      <c r="I99" t="s">
-        <v>93</v>
-      </c>
-      <c r="J99" t="s">
-        <v>22</v>
-      </c>
-      <c r="K99" t="s">
-        <v>16</v>
-      </c>
-      <c r="L99" t="s">
-        <v>93</v>
       </c>
       <c r="M99">
         <v>3.69</v>
       </c>
       <c r="N99">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -6005,22 +6026,22 @@
         <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="H100" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I100" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="J100" t="s">
         <v>17</v>
       </c>
       <c r="K100" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L100" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="M100">
         <v>3.68</v>
@@ -6031,7 +6052,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>220</v>
@@ -6040,34 +6061,34 @@
         <v>221</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E101" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="F101" t="s">
         <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="H101" t="s">
         <v>16</v>
       </c>
       <c r="I101" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J101" t="s">
         <v>17</v>
       </c>
       <c r="K101" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L101" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="M101">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
       <c r="N101">
         <v>100</v>
@@ -6075,7 +6096,7 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s">
         <v>222</v>
@@ -6087,34 +6108,34 @@
         <v>16</v>
       </c>
       <c r="E102" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F102" t="s">
         <v>17</v>
       </c>
       <c r="G102" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="H102" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I102" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="J102" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="K102" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L102" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="M102">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
       <c r="N102">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -6128,37 +6149,37 @@
         <v>225</v>
       </c>
       <c r="D103" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E103" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="F103" t="s">
         <v>17</v>
       </c>
       <c r="G103" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="H103" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I103" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="J103" t="s">
         <v>17</v>
       </c>
       <c r="K103" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L103" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="M103">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="N103">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -6175,31 +6196,31 @@
         <v>16</v>
       </c>
       <c r="E104" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F104" t="s">
         <v>17</v>
       </c>
       <c r="G104" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="H104" t="s">
         <v>16</v>
       </c>
       <c r="I104" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J104" t="s">
         <v>17</v>
       </c>
       <c r="K104" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L104" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="M104">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
       <c r="N104">
         <v>103</v>
@@ -6207,7 +6228,7 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>228</v>
@@ -6225,25 +6246,25 @@
         <v>22</v>
       </c>
       <c r="G105" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H105" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I105" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J105" t="s">
         <v>22</v>
       </c>
       <c r="K105" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L105" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="M105">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
       <c r="N105">
         <v>104</v>
@@ -6251,7 +6272,7 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>230</v>
@@ -6260,37 +6281,37 @@
         <v>231</v>
       </c>
       <c r="D106" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G106" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="H106" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I106" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J106" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K106" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L106" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M106">
-        <v>3.62</v>
+        <v>3.64</v>
       </c>
       <c r="N106">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -6307,31 +6328,31 @@
         <v>16</v>
       </c>
       <c r="E107" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F107" t="s">
         <v>17</v>
       </c>
       <c r="G107" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H107" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I107" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J107" t="s">
         <v>17</v>
       </c>
       <c r="K107" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L107" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M107">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="N107">
         <v>106</v>
@@ -6339,7 +6360,7 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>234</v>
@@ -6348,34 +6369,34 @@
         <v>235</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="E108" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="F108" t="s">
         <v>17</v>
       </c>
       <c r="G108" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="H108" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I108" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="J108" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K108" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L108" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="M108">
-        <v>3.59</v>
+        <v>3.62</v>
       </c>
       <c r="N108">
         <v>107</v>
@@ -6383,7 +6404,7 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>236</v>
@@ -6392,7 +6413,7 @@
         <v>237</v>
       </c>
       <c r="D109" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E109" t="s">
         <v>22</v>
@@ -6401,25 +6422,25 @@
         <v>17</v>
       </c>
       <c r="G109" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="H109" t="s">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="I109" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J109" t="s">
         <v>17</v>
       </c>
       <c r="K109" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L109" t="s">
-        <v>238</v>
+        <v>89</v>
       </c>
       <c r="M109">
-        <v>3.59</v>
+        <v>3.6</v>
       </c>
       <c r="N109">
         <v>108</v>
@@ -6430,40 +6451,40 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>238</v>
+      </c>
+      <c r="C110" t="s">
         <v>239</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
+        <v>22</v>
+      </c>
+      <c r="E110" t="s">
+        <v>22</v>
+      </c>
+      <c r="F110" t="s">
+        <v>17</v>
+      </c>
+      <c r="G110" t="s">
+        <v>126</v>
+      </c>
+      <c r="H110" t="s">
+        <v>157</v>
+      </c>
+      <c r="I110" t="s">
+        <v>89</v>
+      </c>
+      <c r="J110" t="s">
+        <v>17</v>
+      </c>
+      <c r="K110" t="s">
+        <v>17</v>
+      </c>
+      <c r="L110" t="s">
         <v>240</v>
       </c>
-      <c r="D110" t="s">
-        <v>16</v>
-      </c>
-      <c r="E110" t="s">
-        <v>22</v>
-      </c>
-      <c r="F110" t="s">
-        <v>17</v>
-      </c>
-      <c r="G110" t="s">
-        <v>134</v>
-      </c>
-      <c r="H110" t="s">
-        <v>16</v>
-      </c>
-      <c r="I110" t="s">
-        <v>22</v>
-      </c>
-      <c r="J110" t="s">
-        <v>17</v>
-      </c>
-      <c r="K110" t="s">
-        <v>16</v>
-      </c>
-      <c r="L110" t="s">
-        <v>238</v>
-      </c>
       <c r="M110">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
       <c r="N110">
         <v>109</v>
@@ -6471,7 +6492,7 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
         <v>241</v>
@@ -6486,31 +6507,31 @@
         <v>22</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G111" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="H111" t="s">
         <v>16</v>
       </c>
       <c r="I111" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J111" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="K111" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L111" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="M111">
         <v>3.57</v>
       </c>
       <c r="N111">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -6524,34 +6545,34 @@
         <v>244</v>
       </c>
       <c r="D112" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E112" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="F112" t="s">
         <v>17</v>
       </c>
       <c r="G112" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="H112" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I112" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J112" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K112" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="L112" t="s">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c r="M112">
-        <v>3.51</v>
+        <v>3.54</v>
       </c>
       <c r="N112">
         <v>111</v>
@@ -6559,7 +6580,7 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>245</v>
@@ -6577,28 +6598,28 @@
         <v>17</v>
       </c>
       <c r="G113" t="s">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c r="H113" t="s">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="I113" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="J113" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K113" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L113" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="M113">
-        <v>3.51</v>
+        <v>3.53</v>
       </c>
       <c r="N113">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -6615,31 +6636,31 @@
         <v>16</v>
       </c>
       <c r="E114" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G114" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="H114" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I114" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J114" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K114" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L114" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="M114">
-        <v>3.48</v>
+        <v>3.49</v>
       </c>
       <c r="N114">
         <v>113</v>
@@ -6656,37 +6677,37 @@
         <v>250</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E115" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G115" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H115" t="s">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="I115" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J115" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="K115" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L115" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="M115">
-        <v>3.44</v>
+        <v>3.48</v>
       </c>
       <c r="N115">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6700,34 +6721,34 @@
         <v>252</v>
       </c>
       <c r="D116" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E116" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F116" t="s">
         <v>22</v>
       </c>
       <c r="G116" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H116" t="s">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="I116" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="J116" t="s">
         <v>17</v>
       </c>
       <c r="K116" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L116" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="M116">
-        <v>3.31</v>
+        <v>3.32</v>
       </c>
       <c r="N116">
         <v>115</v>

--- a/output/Results - sem2 (Extended).xlsx
+++ b/output/Results - sem2 (Extended).xlsx
@@ -187,6 +187,12 @@
     <t>ARACHCHI A.D.I.D.</t>
   </si>
   <si>
+    <t>230487</t>
+  </si>
+  <si>
+    <t>PERERA W.A.L.S.</t>
+  </si>
+  <si>
     <t>230186</t>
   </si>
   <si>
@@ -310,12 +316,6 @@
     <t>UPEKSHANI T.S.</t>
   </si>
   <si>
-    <t>230487</t>
-  </si>
-  <si>
-    <t>PERERA W.A.L.S.</t>
-  </si>
-  <si>
     <t>230159</t>
   </si>
   <si>
@@ -805,7 +805,7 @@
     <t>11(73.3%)</t>
   </si>
   <si>
-    <t>76(66.1%)</t>
+    <t>77(67.0%)</t>
   </si>
   <si>
     <t>16(13.9%)</t>
@@ -829,7 +829,7 @@
     <t>46(40.0%)</t>
   </si>
   <si>
-    <t>12(10.4%)</t>
+    <t>11(9.6%)</t>
   </si>
   <si>
     <t>1(0.9%)</t>
@@ -1496,7 +1496,7 @@
         <v>3</v>
       </c>
       <c r="Q4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R4" t="s">
         <v>253</v>
@@ -2597,10 +2597,10 @@
         <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J22" t="s">
         <v>17</v>
@@ -2615,7 +2615,7 @@
         <v>4</v>
       </c>
       <c r="N22">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2635,22 +2635,22 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
         <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L23" t="s">
         <v>22</v>
@@ -2659,7 +2659,7 @@
         <v>4</v>
       </c>
       <c r="N23">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2685,16 +2685,16 @@
         <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L24" t="s">
         <v>22</v>
@@ -2703,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="N24">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2723,7 +2723,7 @@
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
         <v>17</v>
@@ -2735,7 +2735,7 @@
         <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K25" t="s">
         <v>17</v>
@@ -2747,7 +2747,7 @@
         <v>4</v>
       </c>
       <c r="N25">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2767,19 +2767,19 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K26" t="s">
         <v>17</v>
@@ -2791,7 +2791,7 @@
         <v>4</v>
       </c>
       <c r="N26">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2811,16 +2811,16 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G27" t="s">
         <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J27" t="s">
         <v>17</v>
@@ -2835,7 +2835,7 @@
         <v>4</v>
       </c>
       <c r="N27">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2879,7 +2879,7 @@
         <v>4</v>
       </c>
       <c r="N28">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2923,7 +2923,7 @@
         <v>4</v>
       </c>
       <c r="N29">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2958,16 +2958,16 @@
         <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L30" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M30">
         <v>4</v>
       </c>
       <c r="N30">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2981,7 +2981,7 @@
         <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
         <v>22</v>
@@ -2993,25 +2993,25 @@
         <v>22</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" t="s">
         <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L31" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M31">
         <v>4</v>
       </c>
       <c r="N31">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3025,10 +3025,10 @@
         <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -3037,7 +3037,7 @@
         <v>22</v>
       </c>
       <c r="H32" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I32" t="s">
         <v>22</v>
@@ -3055,7 +3055,7 @@
         <v>4</v>
       </c>
       <c r="N32">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3072,7 +3072,7 @@
         <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -3081,16 +3081,16 @@
         <v>22</v>
       </c>
       <c r="H33" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I33" t="s">
         <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L33" t="s">
         <v>22</v>
@@ -3099,7 +3099,7 @@
         <v>4</v>
       </c>
       <c r="N33">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3125,7 +3125,7 @@
         <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I34" t="s">
         <v>22</v>
@@ -3134,7 +3134,7 @@
         <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L34" t="s">
         <v>22</v>
@@ -3143,7 +3143,7 @@
         <v>4</v>
       </c>
       <c r="N34">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3163,13 +3163,13 @@
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G35" t="s">
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I35" t="s">
         <v>22</v>
@@ -3187,7 +3187,7 @@
         <v>4</v>
       </c>
       <c r="N35">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3213,13 +3213,13 @@
         <v>22</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I36" t="s">
         <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K36" t="s">
         <v>17</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
         <v>87</v>
@@ -3251,28 +3251,28 @@
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I37" t="s">
         <v>22</v>
       </c>
       <c r="J37" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K37" t="s">
         <v>17</v>
       </c>
       <c r="L37" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>3.96</v>
+        <v>4</v>
       </c>
       <c r="N37">
         <v>36</v>
@@ -3280,14 +3280,14 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
         <v>90</v>
       </c>
-      <c r="C38" t="s">
-        <v>91</v>
-      </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
@@ -3307,24 +3307,24 @@
         <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K38" t="s">
         <v>17</v>
       </c>
       <c r="L38" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="M38">
         <v>3.96</v>
       </c>
       <c r="N38">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>92</v>
@@ -3336,7 +3336,7 @@
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -3351,24 +3351,24 @@
         <v>22</v>
       </c>
       <c r="J39" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s">
         <v>17</v>
       </c>
       <c r="L39" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M39">
         <v>3.96</v>
       </c>
       <c r="N39">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
         <v>94</v>
@@ -3380,7 +3380,7 @@
         <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -3389,7 +3389,7 @@
         <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I40" t="s">
         <v>22</v>
@@ -3401,18 +3401,18 @@
         <v>17</v>
       </c>
       <c r="L40" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M40">
         <v>3.96</v>
       </c>
       <c r="N40">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
         <v>96</v>
@@ -3424,13 +3424,13 @@
         <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H41" t="s">
         <v>16</v>
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="L41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M41">
         <v>3.96</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
         <v>98</v>
@@ -3468,7 +3468,7 @@
         <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -3477,10 +3477,10 @@
         <v>22</v>
       </c>
       <c r="H42" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I42" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J42" t="s">
         <v>17</v>
@@ -3489,18 +3489,18 @@
         <v>17</v>
       </c>
       <c r="L42" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="M42">
         <v>3.96</v>
       </c>
       <c r="N42">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
         <v>100</v>
@@ -3518,7 +3518,7 @@
         <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s">
         <v>22</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
         <v>102</v>
@@ -3577,7 +3577,7 @@
         <v>17</v>
       </c>
       <c r="L44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M44">
         <v>3.96</v>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
         <v>104</v>
@@ -3621,7 +3621,7 @@
         <v>17</v>
       </c>
       <c r="L45" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M45">
         <v>3.96</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s">
         <v>106</v>
@@ -3665,7 +3665,7 @@
         <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M46">
         <v>3.96</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s">
         <v>108</v>
@@ -3697,7 +3697,7 @@
         <v>22</v>
       </c>
       <c r="H47" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s">
         <v>22</v>
@@ -3738,7 +3738,7 @@
         <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s">
         <v>16</v>
@@ -3782,7 +3782,7 @@
         <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H49" t="s">
         <v>16</v>
@@ -3832,7 +3832,7 @@
         <v>22</v>
       </c>
       <c r="I50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J50" t="s">
         <v>17</v>
@@ -3876,7 +3876,7 @@
         <v>16</v>
       </c>
       <c r="I51" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J51" t="s">
         <v>17</v>
@@ -3914,7 +3914,7 @@
         <v>22</v>
       </c>
       <c r="G52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H52" t="s">
         <v>22</v>
@@ -3961,7 +3961,7 @@
         <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I53" t="s">
         <v>22</v>
@@ -3973,7 +3973,7 @@
         <v>17</v>
       </c>
       <c r="L53" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M53">
         <v>3.93</v>
@@ -3999,7 +3999,7 @@
         <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s">
         <v>22</v>
@@ -4017,7 +4017,7 @@
         <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M54">
         <v>3.93</v>
@@ -4178,7 +4178,7 @@
         <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H58" t="s">
         <v>22</v>
@@ -4193,7 +4193,7 @@
         <v>17</v>
       </c>
       <c r="L58" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M58">
         <v>3.92</v>
@@ -4310,10 +4310,10 @@
         <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H61" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I61" t="s">
         <v>22</v>
@@ -4348,7 +4348,7 @@
         <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -4369,7 +4369,7 @@
         <v>22</v>
       </c>
       <c r="L62" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M62">
         <v>3.92</v>
@@ -4442,13 +4442,13 @@
         <v>17</v>
       </c>
       <c r="G64" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H64" t="s">
         <v>22</v>
       </c>
       <c r="I64" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J64" t="s">
         <v>22</v>
@@ -4530,7 +4530,7 @@
         <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H66" t="s">
         <v>16</v>
@@ -4545,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="L66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M66">
         <v>3.9</v>
@@ -4580,7 +4580,7 @@
         <v>16</v>
       </c>
       <c r="I67" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J67" t="s">
         <v>22</v>
@@ -4589,7 +4589,7 @@
         <v>22</v>
       </c>
       <c r="L67" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M67">
         <v>3.9</v>
@@ -4624,7 +4624,7 @@
         <v>16</v>
       </c>
       <c r="I68" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J68" t="s">
         <v>22</v>
@@ -4633,7 +4633,7 @@
         <v>22</v>
       </c>
       <c r="L68" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M68">
         <v>3.9</v>
@@ -4665,19 +4665,19 @@
         <v>22</v>
       </c>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I69" t="s">
         <v>22</v>
       </c>
       <c r="J69" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K69" t="s">
         <v>17</v>
       </c>
       <c r="L69" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M69">
         <v>3.89</v>
@@ -4759,7 +4759,7 @@
         <v>22</v>
       </c>
       <c r="J71" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s">
         <v>17</v>
@@ -4803,7 +4803,7 @@
         <v>17</v>
       </c>
       <c r="J72" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K72" t="s">
         <v>22</v>
@@ -4838,7 +4838,7 @@
         <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H73" t="s">
         <v>16</v>
@@ -4888,7 +4888,7 @@
         <v>16</v>
       </c>
       <c r="I74" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J74" t="s">
         <v>17</v>
@@ -4926,13 +4926,13 @@
         <v>17</v>
       </c>
       <c r="G75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J75" t="s">
         <v>17</v>
@@ -5014,7 +5014,7 @@
         <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H77" t="s">
         <v>16</v>
@@ -5058,10 +5058,10 @@
         <v>17</v>
       </c>
       <c r="G78" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H78" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I78" t="s">
         <v>22</v>
@@ -5105,7 +5105,7 @@
         <v>22</v>
       </c>
       <c r="H79" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I79" t="s">
         <v>22</v>
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="L81" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M81">
         <v>3.83</v>
@@ -5234,10 +5234,10 @@
         <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H82" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I82" t="s">
         <v>22</v>
@@ -5272,13 +5272,13 @@
         <v>16</v>
       </c>
       <c r="E83" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
       </c>
       <c r="G83" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H83" t="s">
         <v>126</v>
@@ -5328,7 +5328,7 @@
         <v>16</v>
       </c>
       <c r="I84" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J84" t="s">
         <v>17</v>
@@ -5369,7 +5369,7 @@
         <v>22</v>
       </c>
       <c r="H85" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I85" t="s">
         <v>22</v>
@@ -5410,7 +5410,7 @@
         <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H86" t="s">
         <v>16</v>
@@ -5492,13 +5492,13 @@
         <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
       </c>
       <c r="G88" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H88" t="s">
         <v>126</v>
@@ -5507,7 +5507,7 @@
         <v>22</v>
       </c>
       <c r="J88" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K88" t="s">
         <v>22</v>
@@ -5542,7 +5542,7 @@
         <v>17</v>
       </c>
       <c r="G89" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H89" t="s">
         <v>126</v>
@@ -5592,7 +5592,7 @@
         <v>126</v>
       </c>
       <c r="I90" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J90" t="s">
         <v>17</v>
@@ -5633,7 +5633,7 @@
         <v>126</v>
       </c>
       <c r="H91" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I91" t="s">
         <v>22</v>
@@ -5665,19 +5665,19 @@
         <v>201</v>
       </c>
       <c r="D92" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F92" t="s">
         <v>22</v>
       </c>
       <c r="G92" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H92" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I92" t="s">
         <v>22</v>
@@ -5724,7 +5724,7 @@
         <v>22</v>
       </c>
       <c r="I93" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J93" t="s">
         <v>126</v>
@@ -5762,13 +5762,13 @@
         <v>17</v>
       </c>
       <c r="G94" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H94" t="s">
         <v>126</v>
       </c>
       <c r="I94" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J94" t="s">
         <v>22</v>
@@ -5800,7 +5800,7 @@
         <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
@@ -5844,7 +5844,7 @@
         <v>16</v>
       </c>
       <c r="E96" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
@@ -5856,7 +5856,7 @@
         <v>16</v>
       </c>
       <c r="I96" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J96" t="s">
         <v>22</v>
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="L96" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M96">
         <v>3.74</v>
@@ -5900,7 +5900,7 @@
         <v>126</v>
       </c>
       <c r="I97" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J97" t="s">
         <v>17</v>
@@ -5941,19 +5941,19 @@
         <v>126</v>
       </c>
       <c r="H98" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I98" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J98" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K98" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L98" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M98">
         <v>3.7</v>
@@ -5976,7 +5976,7 @@
         <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F99" t="s">
         <v>22</v>
@@ -5988,13 +5988,13 @@
         <v>16</v>
       </c>
       <c r="I99" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J99" t="s">
         <v>17</v>
       </c>
       <c r="K99" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L99" t="s">
         <v>217</v>
@@ -6026,10 +6026,10 @@
         <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H100" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I100" t="s">
         <v>126</v>
@@ -6076,7 +6076,7 @@
         <v>16</v>
       </c>
       <c r="I101" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J101" t="s">
         <v>17</v>
@@ -6108,7 +6108,7 @@
         <v>16</v>
       </c>
       <c r="E102" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F102" t="s">
         <v>17</v>
@@ -6158,7 +6158,7 @@
         <v>17</v>
       </c>
       <c r="G103" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H103" t="s">
         <v>126</v>
@@ -6196,7 +6196,7 @@
         <v>16</v>
       </c>
       <c r="E104" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F104" t="s">
         <v>17</v>
@@ -6246,7 +6246,7 @@
         <v>22</v>
       </c>
       <c r="G105" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H105" t="s">
         <v>126</v>
@@ -6293,13 +6293,13 @@
         <v>157</v>
       </c>
       <c r="H106" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I106" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J106" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K106" t="s">
         <v>22</v>
@@ -6328,7 +6328,7 @@
         <v>16</v>
       </c>
       <c r="E107" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F107" t="s">
         <v>17</v>
@@ -6349,7 +6349,7 @@
         <v>17</v>
       </c>
       <c r="L107" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M107">
         <v>3.62</v>
@@ -6378,7 +6378,7 @@
         <v>17</v>
       </c>
       <c r="G108" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H108" t="s">
         <v>126</v>
@@ -6387,7 +6387,7 @@
         <v>22</v>
       </c>
       <c r="J108" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K108" t="s">
         <v>22</v>
@@ -6428,7 +6428,7 @@
         <v>212</v>
       </c>
       <c r="I109" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J109" t="s">
         <v>17</v>
@@ -6437,7 +6437,7 @@
         <v>17</v>
       </c>
       <c r="L109" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M109">
         <v>3.6</v>
@@ -6472,7 +6472,7 @@
         <v>157</v>
       </c>
       <c r="I110" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J110" t="s">
         <v>17</v>
@@ -6516,7 +6516,7 @@
         <v>16</v>
       </c>
       <c r="I111" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J111" t="s">
         <v>22</v>
@@ -6557,7 +6557,7 @@
         <v>126</v>
       </c>
       <c r="H112" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I112" t="s">
         <v>126</v>
@@ -6566,7 +6566,7 @@
         <v>17</v>
       </c>
       <c r="K112" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L112" t="s">
         <v>126</v>
@@ -6651,7 +6651,7 @@
         <v>126</v>
       </c>
       <c r="J114" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K114" t="s">
         <v>22</v>

--- a/output/Results - sem2 (Extended).xlsx
+++ b/output/Results - sem2 (Extended).xlsx
@@ -139,24 +139,24 @@
     <t>DE MEL D.J.</t>
   </si>
   <si>
+    <t>230256</t>
+  </si>
+  <si>
+    <t>ILANKOON I.M.M.K.B.</t>
+  </si>
+  <si>
+    <t>230355</t>
+  </si>
+  <si>
+    <t>KUMARASINGHE M.N.</t>
+  </si>
+  <si>
     <t>230566</t>
   </si>
   <si>
     <t>SAMARASINGHE S.M.R.R.</t>
   </si>
   <si>
-    <t>230256</t>
-  </si>
-  <si>
-    <t>ILANKOON I.M.M.K.B.</t>
-  </si>
-  <si>
-    <t>230355</t>
-  </si>
-  <si>
-    <t>KUMARASINGHE M.N.</t>
-  </si>
-  <si>
     <t>230108</t>
   </si>
   <si>
@@ -169,18 +169,18 @@
     <t>JAYAWEERA N.S.</t>
   </si>
   <si>
+    <t>230352</t>
+  </si>
+  <si>
+    <t>KUMARA K.B.R.</t>
+  </si>
+  <si>
     <t>230481</t>
   </si>
   <si>
     <t>PERERA K.W.A.O.V.</t>
   </si>
   <si>
-    <t>230352</t>
-  </si>
-  <si>
-    <t>KUMARA K.B.R.</t>
-  </si>
-  <si>
     <t>230051</t>
   </si>
   <si>
@@ -193,6 +193,12 @@
     <t>PERERA W.A.L.S.</t>
   </si>
   <si>
+    <t>230689</t>
+  </si>
+  <si>
+    <t>WEERAKOON A.H.T.M.</t>
+  </si>
+  <si>
     <t>230186</t>
   </si>
   <si>
@@ -205,12 +211,6 @@
     <t>CHANDRAKUMARA H.A.D.C.</t>
   </si>
   <si>
-    <t>230689</t>
-  </si>
-  <si>
-    <t>WEERAKOON A.H.T.M.</t>
-  </si>
-  <si>
     <t>230508</t>
   </si>
   <si>
@@ -247,30 +247,30 @@
     <t>WEERASINGHE J.A.H.R.</t>
   </si>
   <si>
+    <t>230138</t>
+  </si>
+  <si>
+    <t>DHANANJAYA K.T.G.T.N.</t>
+  </si>
+  <si>
+    <t>230468</t>
+  </si>
+  <si>
+    <t>PATHIRANA P.T.S.</t>
+  </si>
+  <si>
+    <t>230038</t>
+  </si>
+  <si>
+    <t>AMARATHUNGE A.M.N.L.</t>
+  </si>
+  <si>
     <t>230332</t>
   </si>
   <si>
     <t>KEERAWELLA K.P.C.P.</t>
   </si>
   <si>
-    <t>230138</t>
-  </si>
-  <si>
-    <t>DHANANJAYA K.T.G.T.N.</t>
-  </si>
-  <si>
-    <t>230468</t>
-  </si>
-  <si>
-    <t>PATHIRANA P.T.S.</t>
-  </si>
-  <si>
-    <t>230038</t>
-  </si>
-  <si>
-    <t>AMARATHUNGE A.M.N.L.</t>
-  </si>
-  <si>
     <t>230680</t>
   </si>
   <si>
@@ -304,6 +304,24 @@
     <t>PEIRIS E.A.S.S.</t>
   </si>
   <si>
+    <t>230353</t>
+  </si>
+  <si>
+    <t>KUMARA P.K.M.P.</t>
+  </si>
+  <si>
+    <t>230140</t>
+  </si>
+  <si>
+    <t>DHARMAKEERTHI P.K.G.C.L.</t>
+  </si>
+  <si>
+    <t>230130</t>
+  </si>
+  <si>
+    <t>DESHAN W.U.</t>
+  </si>
+  <si>
     <t>230536</t>
   </si>
   <si>
@@ -316,34 +334,28 @@
     <t>UPEKSHANI T.S.</t>
   </si>
   <si>
+    <t>230585</t>
+  </si>
+  <si>
+    <t>SARUKA U.</t>
+  </si>
+  <si>
     <t>230159</t>
   </si>
   <si>
     <t>DISSANAYAKE G.R.G.K.</t>
   </si>
   <si>
-    <t>230353</t>
-  </si>
-  <si>
-    <t>KUMARA P.K.M.P.</t>
-  </si>
-  <si>
-    <t>230585</t>
-  </si>
-  <si>
-    <t>SARUKA U.</t>
-  </si>
-  <si>
-    <t>230140</t>
-  </si>
-  <si>
-    <t>DHARMAKEERTHI P.K.G.C.L.</t>
-  </si>
-  <si>
-    <t>230130</t>
-  </si>
-  <si>
-    <t>DESHAN W.U.</t>
+    <t>230321</t>
+  </si>
+  <si>
+    <t>KARUNANAYAKE A.H.D.</t>
+  </si>
+  <si>
+    <t>230017</t>
+  </si>
+  <si>
+    <t>ADHIKARI A.H.C.S.</t>
   </si>
   <si>
     <t>230502</t>
@@ -358,22 +370,16 @@
     <t>SHEHAN M.N.N.</t>
   </si>
   <si>
-    <t>230321</t>
-  </si>
-  <si>
-    <t>KARUNANAYAKE A.H.D.</t>
-  </si>
-  <si>
     <t>230526</t>
   </si>
   <si>
     <t>RANAWAKA R.A.C.D.</t>
   </si>
   <si>
-    <t>230017</t>
-  </si>
-  <si>
-    <t>ADHIKARI A.H.C.S.</t>
+    <t>230687</t>
+  </si>
+  <si>
+    <t>WEDAMESTRIGE A.N.</t>
   </si>
   <si>
     <t>230155</t>
@@ -382,10 +388,10 @@
     <t>DISSANAYAKA D.M.D.P.</t>
   </si>
   <si>
-    <t>230687</t>
-  </si>
-  <si>
-    <t>WEDAMESTRIGE A.N.</t>
+    <t>230495</t>
+  </si>
+  <si>
+    <t>PRABHARSHA H.W.D.</t>
   </si>
   <si>
     <t>230492</t>
@@ -433,12 +439,6 @@
     <t>JAYASINGHE J.A.P.R.</t>
   </si>
   <si>
-    <t>230495</t>
-  </si>
-  <si>
-    <t>PRABHARSHA H.W.D.</t>
-  </si>
-  <si>
     <t>230058</t>
   </si>
   <si>
@@ -550,22 +550,28 @@
     <t>PERERA H.A.J.I.</t>
   </si>
   <si>
+    <t>230180</t>
+  </si>
+  <si>
+    <t>FERNANDO H.M.D.</t>
+  </si>
+  <si>
+    <t>230147</t>
+  </si>
+  <si>
+    <t>DILHARA D.S.</t>
+  </si>
+  <si>
     <t>230654</t>
   </si>
   <si>
     <t>UMAIR A.</t>
   </si>
   <si>
-    <t>230180</t>
-  </si>
-  <si>
-    <t>FERNANDO H.M.D.</t>
-  </si>
-  <si>
-    <t>230147</t>
-  </si>
-  <si>
-    <t>DILHARA D.S.</t>
+    <t>230070</t>
+  </si>
+  <si>
+    <t>BALASOORIYA B.R.B.D.</t>
   </si>
   <si>
     <t>230735</t>
@@ -574,12 +580,6 @@
     <t>WITHANAGE G.D.N.</t>
   </si>
   <si>
-    <t>230070</t>
-  </si>
-  <si>
-    <t>BALASOORIYA B.R.B.D.</t>
-  </si>
-  <si>
     <t>230563</t>
   </si>
   <si>
@@ -628,24 +628,24 @@
     <t>MEEDENIYA M.M.H.</t>
   </si>
   <si>
+    <t>230636</t>
+  </si>
+  <si>
+    <t>THARUSHIKA G.K.E.</t>
+  </si>
+  <si>
+    <t>230650</t>
+  </si>
+  <si>
+    <t>UBEYSEKARA V.T.T.</t>
+  </si>
+  <si>
     <t>230458</t>
   </si>
   <si>
     <t>PALIHENA H.H.</t>
   </si>
   <si>
-    <t>230636</t>
-  </si>
-  <si>
-    <t>THARUSHIKA G.K.E.</t>
-  </si>
-  <si>
-    <t>230650</t>
-  </si>
-  <si>
-    <t>UBEYSEKARA V.T.T.</t>
-  </si>
-  <si>
     <t>230375</t>
   </si>
   <si>
@@ -712,24 +712,30 @@
     <t>GUNASEKARA H.M.</t>
   </si>
   <si>
+    <t>230444</t>
+  </si>
+  <si>
+    <t>NIRMANI W.T.</t>
+  </si>
+  <si>
     <t>230268</t>
   </si>
   <si>
     <t>JAYAKODY J.A.C.P.</t>
   </si>
   <si>
-    <t>230444</t>
-  </si>
-  <si>
-    <t>NIRMANI W.T.</t>
-  </si>
-  <si>
     <t>230013</t>
   </si>
   <si>
     <t>ABEYWARNA D.H.</t>
   </si>
   <si>
+    <t>230564</t>
+  </si>
+  <si>
+    <t>SAMARASEKARA S.M.R.P.</t>
+  </si>
+  <si>
     <t>230259</t>
   </si>
   <si>
@@ -737,12 +743,6 @@
   </si>
   <si>
     <t>C+</t>
-  </si>
-  <si>
-    <t>230564</t>
-  </si>
-  <si>
-    <t>SAMARASEKARA S.M.R.P.</t>
   </si>
   <si>
     <t>230183</t>
@@ -1570,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R5" t="s">
         <v>277</v>
@@ -1792,7 +1792,7 @@
         <v>7</v>
       </c>
       <c r="Q8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="R8" t="s">
         <v>282</v>
@@ -1937,7 +1937,7 @@
         <v>4</v>
       </c>
       <c r="N10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q10" t="s">
         <v>289</v>
@@ -2212,16 +2212,16 @@
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s">
         <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K14" t="s">
         <v>17</v>
@@ -2330,16 +2330,16 @@
         <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
         <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K16" t="s">
         <v>17</v>
@@ -2351,7 +2351,7 @@
         <v>4</v>
       </c>
       <c r="N16">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2439,7 +2439,7 @@
         <v>4</v>
       </c>
       <c r="N18">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2453,25 +2453,25 @@
         <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s">
         <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K19" t="s">
         <v>17</v>
@@ -2497,25 +2497,25 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
         <v>22</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K20" t="s">
         <v>17</v>
@@ -2527,7 +2527,7 @@
         <v>4</v>
       </c>
       <c r="N20">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2571,7 +2571,7 @@
         <v>4</v>
       </c>
       <c r="N21">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2615,7 +2615,7 @@
         <v>4</v>
       </c>
       <c r="N22">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2635,13 +2635,13 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I23" t="s">
         <v>22</v>
@@ -2679,22 +2679,22 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L24" t="s">
         <v>22</v>
@@ -2703,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="N24">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2729,16 +2729,16 @@
         <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J25" t="s">
         <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L25" t="s">
         <v>22</v>
@@ -2747,7 +2747,7 @@
         <v>4</v>
       </c>
       <c r="N25">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2835,7 +2835,7 @@
         <v>4</v>
       </c>
       <c r="N27">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -3025,10 +3025,10 @@
         <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -3037,7 +3037,7 @@
         <v>22</v>
       </c>
       <c r="H32" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I32" t="s">
         <v>22</v>
@@ -3072,7 +3072,7 @@
         <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -3081,16 +3081,16 @@
         <v>22</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I33" t="s">
         <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L33" t="s">
         <v>22</v>
@@ -3125,7 +3125,7 @@
         <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
         <v>22</v>
@@ -3134,7 +3134,7 @@
         <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L34" t="s">
         <v>22</v>
@@ -3157,7 +3157,7 @@
         <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
         <v>22</v>
@@ -3169,13 +3169,13 @@
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I35" t="s">
         <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K35" t="s">
         <v>17</v>
@@ -3187,7 +3187,7 @@
         <v>4</v>
       </c>
       <c r="N35">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3316,7 +3316,7 @@
         <v>91</v>
       </c>
       <c r="M38">
-        <v>3.96</v>
+        <v>3.964</v>
       </c>
       <c r="N38">
         <v>37</v>
@@ -3360,7 +3360,7 @@
         <v>17</v>
       </c>
       <c r="M39">
-        <v>3.96</v>
+        <v>3.964</v>
       </c>
       <c r="N39">
         <v>37</v>
@@ -3404,7 +3404,7 @@
         <v>22</v>
       </c>
       <c r="M40">
-        <v>3.96</v>
+        <v>3.964</v>
       </c>
       <c r="N40">
         <v>37</v>
@@ -3430,16 +3430,16 @@
         <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
       </c>
       <c r="J41" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K41" t="s">
         <v>17</v>
@@ -3448,7 +3448,7 @@
         <v>91</v>
       </c>
       <c r="M41">
-        <v>3.96</v>
+        <v>3.964</v>
       </c>
       <c r="N41">
         <v>40</v>
@@ -3468,31 +3468,31 @@
         <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G42" t="s">
         <v>22</v>
       </c>
       <c r="H42" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J42" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L42" t="s">
         <v>91</v>
       </c>
       <c r="M42">
-        <v>3.96</v>
+        <v>3.964</v>
       </c>
       <c r="N42">
         <v>41</v>
@@ -3509,34 +3509,34 @@
         <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
         <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="H43" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="I43" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J43" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K43" t="s">
         <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>3.96</v>
+        <v>3.964</v>
       </c>
       <c r="N43">
         <v>42</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>102</v>
@@ -3562,16 +3562,16 @@
         <v>17</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I44" t="s">
         <v>22</v>
       </c>
       <c r="J44" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K44" t="s">
         <v>17</v>
@@ -3580,7 +3580,7 @@
         <v>91</v>
       </c>
       <c r="M44">
-        <v>3.96</v>
+        <v>3.9591</v>
       </c>
       <c r="N44">
         <v>43</v>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>104</v>
@@ -3600,7 +3600,7 @@
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -3624,15 +3624,15 @@
         <v>91</v>
       </c>
       <c r="M45">
-        <v>3.96</v>
+        <v>3.9591</v>
       </c>
       <c r="N45">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
         <v>106</v>
@@ -3647,28 +3647,28 @@
         <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s">
         <v>22</v>
       </c>
       <c r="H46" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I46" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J46" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K46" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L46" t="s">
         <v>91</v>
       </c>
       <c r="M46">
-        <v>3.96</v>
+        <v>3.9591</v>
       </c>
       <c r="N46">
         <v>45</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>108</v>
@@ -3685,34 +3685,34 @@
         <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s">
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="H47" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I47" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J47" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K47" t="s">
         <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>3.96</v>
+        <v>3.9571</v>
       </c>
       <c r="N47">
         <v>46</v>
@@ -3738,13 +3738,13 @@
         <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="H48" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I48" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="J48" t="s">
         <v>17</v>
@@ -3756,7 +3756,7 @@
         <v>22</v>
       </c>
       <c r="M48">
-        <v>3.95</v>
+        <v>3.952</v>
       </c>
       <c r="N48">
         <v>47</v>
@@ -3779,28 +3779,28 @@
         <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G49" t="s">
         <v>91</v>
       </c>
       <c r="H49" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I49" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J49" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K49" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L49" t="s">
         <v>22</v>
       </c>
       <c r="M49">
-        <v>3.95</v>
+        <v>3.952</v>
       </c>
       <c r="N49">
         <v>48</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>114</v>
@@ -3826,13 +3826,13 @@
         <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="H50" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I50" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="J50" t="s">
         <v>17</v>
@@ -3844,7 +3844,7 @@
         <v>22</v>
       </c>
       <c r="M50">
-        <v>3.95</v>
+        <v>3.9455</v>
       </c>
       <c r="N50">
         <v>49</v>
@@ -3852,7 +3852,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>116</v>
@@ -3870,16 +3870,16 @@
         <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="H51" t="s">
         <v>16</v>
       </c>
       <c r="I51" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="J51" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
@@ -3888,15 +3888,15 @@
         <v>22</v>
       </c>
       <c r="M51">
-        <v>3.95</v>
+        <v>3.9455</v>
       </c>
       <c r="N51">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
         <v>118</v>
@@ -3911,28 +3911,28 @@
         <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="H52" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I52" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="J52" t="s">
         <v>17</v>
       </c>
       <c r="K52" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L52" t="s">
         <v>22</v>
       </c>
       <c r="M52">
-        <v>3.95</v>
+        <v>3.9455</v>
       </c>
       <c r="N52">
         <v>51</v>
@@ -3955,28 +3955,28 @@
         <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H53" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J53" t="s">
         <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L53" t="s">
         <v>91</v>
       </c>
       <c r="M53">
-        <v>3.93</v>
+        <v>3.9318</v>
       </c>
       <c r="N53">
         <v>52</v>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>122</v>
@@ -3999,28 +3999,28 @@
         <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H54" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I54" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J54" t="s">
         <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L54" t="s">
         <v>91</v>
       </c>
       <c r="M54">
-        <v>3.93</v>
+        <v>3.928</v>
       </c>
       <c r="N54">
         <v>53</v>
@@ -4040,31 +4040,31 @@
         <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H55" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I55" t="s">
         <v>17</v>
       </c>
       <c r="J55" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K55" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="M55">
-        <v>3.92</v>
+        <v>3.9182</v>
       </c>
       <c r="N55">
         <v>54</v>
@@ -4072,43 +4072,43 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" t="s">
         <v>127</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" t="s">
         <v>128</v>
       </c>
-      <c r="D56" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" t="s">
-        <v>126</v>
-      </c>
-      <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" t="s">
-        <v>17</v>
-      </c>
-      <c r="I56" t="s">
-        <v>17</v>
-      </c>
-      <c r="J56" t="s">
-        <v>22</v>
-      </c>
-      <c r="K56" t="s">
-        <v>17</v>
-      </c>
-      <c r="L56" t="s">
-        <v>22</v>
-      </c>
       <c r="M56">
-        <v>3.92</v>
+        <v>3.916</v>
       </c>
       <c r="N56">
         <v>55</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>129</v>
@@ -4128,7 +4128,7 @@
         <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
@@ -4137,13 +4137,13 @@
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="I57" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J57" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K57" t="s">
         <v>17</v>
@@ -4152,7 +4152,7 @@
         <v>22</v>
       </c>
       <c r="M57">
-        <v>3.92</v>
+        <v>3.916</v>
       </c>
       <c r="N57">
         <v>56</v>
@@ -4160,7 +4160,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
         <v>131</v>
@@ -4178,25 +4178,25 @@
         <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="H58" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="I58" t="s">
         <v>22</v>
       </c>
       <c r="J58" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K58" t="s">
         <v>17</v>
       </c>
       <c r="L58" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="M58">
-        <v>3.92</v>
+        <v>3.916</v>
       </c>
       <c r="N58">
         <v>57</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
         <v>133</v>
@@ -4216,13 +4216,13 @@
         <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="H59" t="s">
         <v>22</v>
@@ -4231,24 +4231,24 @@
         <v>22</v>
       </c>
       <c r="J59" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K59" t="s">
         <v>17</v>
       </c>
       <c r="L59" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="M59">
-        <v>3.92</v>
+        <v>3.916</v>
       </c>
       <c r="N59">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
         <v>135</v>
@@ -4275,24 +4275,24 @@
         <v>22</v>
       </c>
       <c r="J60" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="K60" t="s">
         <v>17</v>
       </c>
       <c r="L60" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="M60">
-        <v>3.92</v>
+        <v>3.916</v>
       </c>
       <c r="N60">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
         <v>137</v>
@@ -4310,33 +4310,33 @@
         <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="H61" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I61" t="s">
         <v>22</v>
       </c>
       <c r="J61" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="K61" t="s">
         <v>17</v>
       </c>
       <c r="L61" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M61">
-        <v>3.92</v>
+        <v>3.916</v>
       </c>
       <c r="N61">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
         <v>139</v>
@@ -4348,39 +4348,39 @@
         <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
       </c>
       <c r="G62" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="H62" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I62" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J62" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K62" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L62" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="M62">
-        <v>3.92</v>
+        <v>3.916</v>
       </c>
       <c r="N62">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s">
         <v>141</v>
@@ -4413,10 +4413,10 @@
         <v>22</v>
       </c>
       <c r="L63" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M63">
-        <v>3.92</v>
+        <v>3.916</v>
       </c>
       <c r="N63">
         <v>62</v>
@@ -4460,10 +4460,10 @@
         <v>22</v>
       </c>
       <c r="M64">
-        <v>3.91</v>
+        <v>3.9143</v>
       </c>
       <c r="N64">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4501,10 +4501,10 @@
         <v>22</v>
       </c>
       <c r="L65" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M65">
-        <v>3.9</v>
+        <v>3.9045</v>
       </c>
       <c r="N65">
         <v>64</v>
@@ -4548,7 +4548,7 @@
         <v>91</v>
       </c>
       <c r="M66">
-        <v>3.9</v>
+        <v>3.9045</v>
       </c>
       <c r="N66">
         <v>65</v>
@@ -4592,7 +4592,7 @@
         <v>91</v>
       </c>
       <c r="M67">
-        <v>3.9</v>
+        <v>3.9045</v>
       </c>
       <c r="N67">
         <v>66</v>
@@ -4636,7 +4636,7 @@
         <v>91</v>
       </c>
       <c r="M68">
-        <v>3.9</v>
+        <v>3.9045</v>
       </c>
       <c r="N68">
         <v>66</v>
@@ -4680,7 +4680,7 @@
         <v>91</v>
       </c>
       <c r="M69">
-        <v>3.89</v>
+        <v>3.892</v>
       </c>
       <c r="N69">
         <v>68</v>
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="L71" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M71">
         <v>3.88</v>
@@ -4788,7 +4788,7 @@
         <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
@@ -4853,13 +4853,13 @@
         <v>17</v>
       </c>
       <c r="L73" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M73">
-        <v>3.87</v>
+        <v>3.868</v>
       </c>
       <c r="N73">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4897,10 +4897,10 @@
         <v>22</v>
       </c>
       <c r="L74" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M74">
-        <v>3.87</v>
+        <v>3.868</v>
       </c>
       <c r="N74">
         <v>73</v>
@@ -4944,7 +4944,7 @@
         <v>22</v>
       </c>
       <c r="M75">
-        <v>3.87</v>
+        <v>3.868</v>
       </c>
       <c r="N75">
         <v>73</v>
@@ -4988,7 +4988,7 @@
         <v>157</v>
       </c>
       <c r="M76">
-        <v>3.86</v>
+        <v>3.8636</v>
       </c>
       <c r="N76">
         <v>75</v>
@@ -5029,7 +5029,7 @@
         <v>17</v>
       </c>
       <c r="L77" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M77">
         <v>3.85</v>
@@ -5073,7 +5073,7 @@
         <v>22</v>
       </c>
       <c r="L78" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M78">
         <v>3.85</v>
@@ -5120,7 +5120,7 @@
         <v>157</v>
       </c>
       <c r="M79">
-        <v>3.84</v>
+        <v>3.844</v>
       </c>
       <c r="N79">
         <v>78</v>
@@ -5140,7 +5140,7 @@
         <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
@@ -5161,13 +5161,13 @@
         <v>22</v>
       </c>
       <c r="L80" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M80">
-        <v>3.83</v>
+        <v>3.832</v>
       </c>
       <c r="N80">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -5187,28 +5187,28 @@
         <v>22</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="H81" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I81" t="s">
         <v>22</v>
       </c>
       <c r="J81" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K81" t="s">
         <v>17</v>
       </c>
       <c r="L81" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="M81">
-        <v>3.83</v>
+        <v>3.832</v>
       </c>
       <c r="N81">
         <v>80</v>
@@ -5228,16 +5228,16 @@
         <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G82" t="s">
         <v>91</v>
       </c>
       <c r="H82" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="I82" t="s">
         <v>22</v>
@@ -5246,13 +5246,13 @@
         <v>22</v>
       </c>
       <c r="K82" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L82" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="M82">
-        <v>3.83</v>
+        <v>3.832</v>
       </c>
       <c r="N82">
         <v>81</v>
@@ -5260,7 +5260,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>182</v>
@@ -5272,31 +5272,31 @@
         <v>16</v>
       </c>
       <c r="E83" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
       </c>
       <c r="G83" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="H83" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
       </c>
       <c r="J83" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K83" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L83" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="M83">
-        <v>3.83</v>
+        <v>3.8318</v>
       </c>
       <c r="N83">
         <v>82</v>
@@ -5319,28 +5319,28 @@
         <v>22</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="G84" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I84" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="J84" t="s">
         <v>17</v>
       </c>
       <c r="K84" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L84" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="M84">
-        <v>3.82</v>
+        <v>3.824</v>
       </c>
       <c r="N84">
         <v>83</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>186</v>
@@ -5363,28 +5363,28 @@
         <v>22</v>
       </c>
       <c r="F85" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="H85" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I85" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="J85" t="s">
         <v>17</v>
       </c>
       <c r="K85" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L85" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="M85">
-        <v>3.82</v>
+        <v>3.8182</v>
       </c>
       <c r="N85">
         <v>84</v>
@@ -5428,7 +5428,7 @@
         <v>157</v>
       </c>
       <c r="M86">
-        <v>3.81</v>
+        <v>3.8091</v>
       </c>
       <c r="N86">
         <v>85</v>
@@ -5469,10 +5469,10 @@
         <v>22</v>
       </c>
       <c r="L87" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M87">
-        <v>3.8</v>
+        <v>3.796</v>
       </c>
       <c r="N87">
         <v>86</v>
@@ -5501,7 +5501,7 @@
         <v>91</v>
       </c>
       <c r="H88" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I88" t="s">
         <v>22</v>
@@ -5516,7 +5516,7 @@
         <v>22</v>
       </c>
       <c r="M88">
-        <v>3.8</v>
+        <v>3.796</v>
       </c>
       <c r="N88">
         <v>87</v>
@@ -5545,7 +5545,7 @@
         <v>91</v>
       </c>
       <c r="H89" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I89" t="s">
         <v>22</v>
@@ -5557,10 +5557,10 @@
         <v>17</v>
       </c>
       <c r="L89" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M89">
-        <v>3.78</v>
+        <v>3.784</v>
       </c>
       <c r="N89">
         <v>88</v>
@@ -5589,7 +5589,7 @@
         <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I90" t="s">
         <v>91</v>
@@ -5604,7 +5604,7 @@
         <v>157</v>
       </c>
       <c r="M90">
-        <v>3.77</v>
+        <v>3.775</v>
       </c>
       <c r="N90">
         <v>89</v>
@@ -5612,7 +5612,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>198</v>
@@ -5630,7 +5630,7 @@
         <v>17</v>
       </c>
       <c r="G91" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H91" t="s">
         <v>91</v>
@@ -5645,10 +5645,10 @@
         <v>22</v>
       </c>
       <c r="L91" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M91">
-        <v>3.77</v>
+        <v>3.768</v>
       </c>
       <c r="N91">
         <v>90</v>
@@ -5692,7 +5692,7 @@
         <v>157</v>
       </c>
       <c r="M92">
-        <v>3.75</v>
+        <v>3.7536</v>
       </c>
       <c r="N92">
         <v>91</v>
@@ -5700,7 +5700,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>202</v>
@@ -5727,7 +5727,7 @@
         <v>91</v>
       </c>
       <c r="J93" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K93" t="s">
         <v>17</v>
@@ -5736,7 +5736,7 @@
         <v>157</v>
       </c>
       <c r="M93">
-        <v>3.75</v>
+        <v>3.748</v>
       </c>
       <c r="N93">
         <v>92</v>
@@ -5756,31 +5756,31 @@
         <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
       </c>
       <c r="G94" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="H94" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I94" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="J94" t="s">
         <v>22</v>
       </c>
       <c r="K94" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L94" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M94">
-        <v>3.74</v>
+        <v>3.7364</v>
       </c>
       <c r="N94">
         <v>93</v>
@@ -5806,13 +5806,13 @@
         <v>17</v>
       </c>
       <c r="G95" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H95" t="s">
         <v>16</v>
       </c>
       <c r="I95" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="J95" t="s">
         <v>22</v>
@@ -5821,10 +5821,10 @@
         <v>17</v>
       </c>
       <c r="L95" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="M95">
-        <v>3.74</v>
+        <v>3.7364</v>
       </c>
       <c r="N95">
         <v>93</v>
@@ -5832,7 +5832,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>208</v>
@@ -5844,16 +5844,16 @@
         <v>16</v>
       </c>
       <c r="E96" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
       </c>
       <c r="G96" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="H96" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I96" t="s">
         <v>91</v>
@@ -5862,16 +5862,16 @@
         <v>22</v>
       </c>
       <c r="K96" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L96" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="M96">
-        <v>3.74</v>
+        <v>3.736</v>
       </c>
       <c r="N96">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5897,7 +5897,7 @@
         <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I97" t="s">
         <v>91</v>
@@ -5912,10 +5912,10 @@
         <v>212</v>
       </c>
       <c r="M97">
-        <v>3.71</v>
+        <v>3.712</v>
       </c>
       <c r="N97">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5938,7 +5938,7 @@
         <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H98" t="s">
         <v>91</v>
@@ -5956,7 +5956,7 @@
         <v>91</v>
       </c>
       <c r="M98">
-        <v>3.7</v>
+        <v>3.696</v>
       </c>
       <c r="N98">
         <v>97</v>
@@ -5982,7 +5982,7 @@
         <v>22</v>
       </c>
       <c r="G99" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H99" t="s">
         <v>16</v>
@@ -6000,7 +6000,7 @@
         <v>217</v>
       </c>
       <c r="M99">
-        <v>3.69</v>
+        <v>3.6947</v>
       </c>
       <c r="N99">
         <v>98</v>
@@ -6032,7 +6032,7 @@
         <v>91</v>
       </c>
       <c r="I100" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J100" t="s">
         <v>17</v>
@@ -6044,7 +6044,7 @@
         <v>157</v>
       </c>
       <c r="M100">
-        <v>3.68</v>
+        <v>3.684</v>
       </c>
       <c r="N100">
         <v>99</v>
@@ -6070,7 +6070,7 @@
         <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H101" t="s">
         <v>16</v>
@@ -6088,7 +6088,7 @@
         <v>212</v>
       </c>
       <c r="M101">
-        <v>3.68</v>
+        <v>3.684</v>
       </c>
       <c r="N101">
         <v>100</v>
@@ -6114,10 +6114,10 @@
         <v>17</v>
       </c>
       <c r="G102" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I102" t="s">
         <v>22</v>
@@ -6129,10 +6129,10 @@
         <v>22</v>
       </c>
       <c r="L102" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M102">
-        <v>3.68</v>
+        <v>3.684</v>
       </c>
       <c r="N102">
         <v>100</v>
@@ -6152,7 +6152,7 @@
         <v>16</v>
       </c>
       <c r="E103" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F103" t="s">
         <v>17</v>
@@ -6161,7 +6161,7 @@
         <v>91</v>
       </c>
       <c r="H103" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I103" t="s">
         <v>22</v>
@@ -6176,7 +6176,7 @@
         <v>157</v>
       </c>
       <c r="M103">
-        <v>3.66</v>
+        <v>3.664</v>
       </c>
       <c r="N103">
         <v>102</v>
@@ -6208,7 +6208,7 @@
         <v>16</v>
       </c>
       <c r="I104" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J104" t="s">
         <v>17</v>
@@ -6249,10 +6249,10 @@
         <v>91</v>
       </c>
       <c r="H105" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I105" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J105" t="s">
         <v>22</v>
@@ -6264,7 +6264,7 @@
         <v>157</v>
       </c>
       <c r="M105">
-        <v>3.64</v>
+        <v>3.636</v>
       </c>
       <c r="N105">
         <v>104</v>
@@ -6305,10 +6305,10 @@
         <v>22</v>
       </c>
       <c r="L106" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M106">
-        <v>3.64</v>
+        <v>3.636</v>
       </c>
       <c r="N106">
         <v>104</v>
@@ -6325,34 +6325,34 @@
         <v>233</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="E107" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="F107" t="s">
         <v>17</v>
       </c>
       <c r="G107" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="H107" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I107" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="J107" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="K107" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L107" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="M107">
-        <v>3.62</v>
+        <v>3.625</v>
       </c>
       <c r="N107">
         <v>106</v>
@@ -6360,7 +6360,7 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>234</v>
@@ -6369,31 +6369,31 @@
         <v>235</v>
       </c>
       <c r="D108" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="E108" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="F108" t="s">
         <v>17</v>
       </c>
       <c r="G108" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="H108" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I108" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="J108" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="K108" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L108" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="M108">
         <v>3.62</v>
@@ -6457,7 +6457,7 @@
         <v>239</v>
       </c>
       <c r="D110" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E110" t="s">
         <v>22</v>
@@ -6466,25 +6466,25 @@
         <v>17</v>
       </c>
       <c r="G110" t="s">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="H110" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" t="s">
+        <v>91</v>
+      </c>
+      <c r="J110" t="s">
+        <v>22</v>
+      </c>
+      <c r="K110" t="s">
+        <v>17</v>
+      </c>
+      <c r="L110" t="s">
         <v>157</v>
       </c>
-      <c r="I110" t="s">
-        <v>91</v>
-      </c>
-      <c r="J110" t="s">
-        <v>17</v>
-      </c>
-      <c r="K110" t="s">
-        <v>17</v>
-      </c>
-      <c r="L110" t="s">
-        <v>240</v>
-      </c>
       <c r="M110">
-        <v>3.57</v>
+        <v>3.5727</v>
       </c>
       <c r="N110">
         <v>109</v>
@@ -6492,46 +6492,46 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>240</v>
+      </c>
+      <c r="C111" t="s">
         <v>241</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111" t="s">
+        <v>128</v>
+      </c>
+      <c r="H111" t="s">
+        <v>157</v>
+      </c>
+      <c r="I111" t="s">
+        <v>91</v>
+      </c>
+      <c r="J111" t="s">
+        <v>17</v>
+      </c>
+      <c r="K111" t="s">
+        <v>17</v>
+      </c>
+      <c r="L111" t="s">
         <v>242</v>
       </c>
-      <c r="D111" t="s">
-        <v>16</v>
-      </c>
-      <c r="E111" t="s">
-        <v>22</v>
-      </c>
-      <c r="F111" t="s">
-        <v>17</v>
-      </c>
-      <c r="G111" t="s">
-        <v>212</v>
-      </c>
-      <c r="H111" t="s">
-        <v>16</v>
-      </c>
-      <c r="I111" t="s">
-        <v>91</v>
-      </c>
-      <c r="J111" t="s">
-        <v>22</v>
-      </c>
-      <c r="K111" t="s">
-        <v>17</v>
-      </c>
-      <c r="L111" t="s">
-        <v>157</v>
-      </c>
       <c r="M111">
-        <v>3.57</v>
+        <v>3.5679</v>
       </c>
       <c r="N111">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -6548,19 +6548,19 @@
         <v>16</v>
       </c>
       <c r="E112" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F112" t="s">
         <v>17</v>
       </c>
       <c r="G112" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H112" t="s">
         <v>91</v>
       </c>
       <c r="I112" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J112" t="s">
         <v>17</v>
@@ -6569,10 +6569,10 @@
         <v>91</v>
       </c>
       <c r="L112" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M112">
-        <v>3.54</v>
+        <v>3.536</v>
       </c>
       <c r="N112">
         <v>111</v>
@@ -6598,7 +6598,7 @@
         <v>17</v>
       </c>
       <c r="G113" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H113" t="s">
         <v>212</v>
@@ -6613,10 +6613,10 @@
         <v>22</v>
       </c>
       <c r="L113" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M113">
-        <v>3.53</v>
+        <v>3.528</v>
       </c>
       <c r="N113">
         <v>112</v>
@@ -6645,10 +6645,10 @@
         <v>157</v>
       </c>
       <c r="H114" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I114" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J114" t="s">
         <v>91</v>
@@ -6660,7 +6660,7 @@
         <v>157</v>
       </c>
       <c r="M114">
-        <v>3.49</v>
+        <v>3.488</v>
       </c>
       <c r="N114">
         <v>113</v>
@@ -6692,7 +6692,7 @@
         <v>212</v>
       </c>
       <c r="I115" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J115" t="s">
         <v>22</v>
@@ -6704,10 +6704,10 @@
         <v>212</v>
       </c>
       <c r="M115">
-        <v>3.48</v>
+        <v>3.4786</v>
       </c>
       <c r="N115">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6721,16 +6721,16 @@
         <v>252</v>
       </c>
       <c r="D116" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E116" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F116" t="s">
         <v>22</v>
       </c>
       <c r="G116" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H116" t="s">
         <v>212</v>
@@ -6748,7 +6748,7 @@
         <v>157</v>
       </c>
       <c r="M116">
-        <v>3.32</v>
+        <v>3.3179</v>
       </c>
       <c r="N116">
         <v>115</v>

--- a/output/Results - sem2 (Extended).xlsx
+++ b/output/Results - sem2 (Extended).xlsx
@@ -580,6 +580,12 @@
     <t>WITHANAGE G.D.N.</t>
   </si>
   <si>
+    <t>230218</t>
+  </si>
+  <si>
+    <t>GUNATHUNGA U.A.</t>
+  </si>
+  <si>
     <t>230563</t>
   </si>
   <si>
@@ -604,12 +610,6 @@
     <t>HANSINDU M.M.A.D.</t>
   </si>
   <si>
-    <t>230218</t>
-  </si>
-  <si>
-    <t>GUNATHUNGA U.A.</t>
-  </si>
-  <si>
     <t>230261</t>
   </si>
   <si>
@@ -817,7 +817,7 @@
     <t>25(31.2%)</t>
   </si>
   <si>
-    <t>57(49.6%)</t>
+    <t>58(50.4%)</t>
   </si>
   <si>
     <t>31(27.0%)</t>
@@ -838,13 +838,13 @@
     <t>15(18.8%)</t>
   </si>
   <si>
+    <t>19(16.5%)</t>
+  </si>
+  <si>
     <t>9(7.8%)</t>
   </si>
   <si>
     <t>3(2.6%)</t>
-  </si>
-  <si>
-    <t>19(16.5%)</t>
   </si>
   <si>
     <t>2(13.3%)</t>
@@ -1514,16 +1514,16 @@
         <v>273</v>
       </c>
       <c r="W4" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="X4" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z4" t="s">
         <v>274</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -1745,7 +1745,7 @@
         <v>282</v>
       </c>
       <c r="Z7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -5401,7 +5401,7 @@
         <v>189</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E86" t="s">
         <v>22</v>
@@ -5410,10 +5410,10 @@
         <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="H86" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I86" t="s">
         <v>22</v>
@@ -5428,7 +5428,7 @@
         <v>157</v>
       </c>
       <c r="M86">
-        <v>3.8091</v>
+        <v>3.8179</v>
       </c>
       <c r="N86">
         <v>85</v>
@@ -5454,25 +5454,25 @@
         <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="H87" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" t="s">
+        <v>17</v>
+      </c>
+      <c r="L87" t="s">
         <v>157</v>
       </c>
-      <c r="I87" t="s">
-        <v>22</v>
-      </c>
-      <c r="J87" t="s">
-        <v>17</v>
-      </c>
-      <c r="K87" t="s">
-        <v>22</v>
-      </c>
-      <c r="L87" t="s">
-        <v>128</v>
-      </c>
       <c r="M87">
-        <v>3.796</v>
+        <v>3.8091</v>
       </c>
       <c r="N87">
         <v>86</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>192</v>
@@ -5492,28 +5492,28 @@
         <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
       </c>
       <c r="G88" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="H88" t="s">
+        <v>157</v>
+      </c>
+      <c r="I88" t="s">
+        <v>22</v>
+      </c>
+      <c r="J88" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" t="s">
+        <v>22</v>
+      </c>
+      <c r="L88" t="s">
         <v>128</v>
-      </c>
-      <c r="I88" t="s">
-        <v>22</v>
-      </c>
-      <c r="J88" t="s">
-        <v>91</v>
-      </c>
-      <c r="K88" t="s">
-        <v>22</v>
-      </c>
-      <c r="L88" t="s">
-        <v>22</v>
       </c>
       <c r="M88">
         <v>3.796</v>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>194</v>
@@ -5536,7 +5536,7 @@
         <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="F89" t="s">
         <v>17</v>
@@ -5551,16 +5551,16 @@
         <v>22</v>
       </c>
       <c r="J89" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="K89" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L89" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="M89">
-        <v>3.784</v>
+        <v>3.796</v>
       </c>
       <c r="N89">
         <v>88</v>
@@ -5577,7 +5577,7 @@
         <v>197</v>
       </c>
       <c r="D90" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E90" t="s">
         <v>22</v>
@@ -5586,25 +5586,25 @@
         <v>17</v>
       </c>
       <c r="G90" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="H90" t="s">
         <v>128</v>
       </c>
       <c r="I90" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="J90" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K90" t="s">
         <v>17</v>
       </c>
       <c r="L90" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="M90">
-        <v>3.775</v>
+        <v>3.784</v>
       </c>
       <c r="N90">
         <v>89</v>

--- a/output/Results - sem2 (Extended).xlsx
+++ b/output/Results - sem2 (Extended).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="295">
   <si>
     <t>Rank</t>
   </si>
@@ -283,21 +283,21 @@
     <t>DILHAN W.A.</t>
   </si>
   <si>
+    <t>230436</t>
+  </si>
+  <si>
+    <t>NETTIKUMARA N.A.H.G.</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
     <t>230258</t>
   </si>
   <si>
     <t>IMADUWAGE O.N.H.</t>
   </si>
   <si>
-    <t>A-</t>
-  </si>
-  <si>
-    <t>230436</t>
-  </si>
-  <si>
-    <t>NETTIKUMARA N.A.H.G.</t>
-  </si>
-  <si>
     <t>230469</t>
   </si>
   <si>
@@ -388,6 +388,12 @@
     <t>DISSANAYAKA D.M.D.P.</t>
   </si>
   <si>
+    <t>230197</t>
+  </si>
+  <si>
+    <t>GARUSINGHE S.B.</t>
+  </si>
+  <si>
     <t>230495</t>
   </si>
   <si>
@@ -496,12 +502,6 @@
     <t>GUNASEKARA L.U.A.</t>
   </si>
   <si>
-    <t>230197</t>
-  </si>
-  <si>
-    <t>GARUSINGHE S.B.</t>
-  </si>
-  <si>
     <t>230727</t>
   </si>
   <si>
@@ -700,6 +700,12 @@
     <t>WIJETHILAKA J.S.</t>
   </si>
   <si>
+    <t>230013</t>
+  </si>
+  <si>
+    <t>ABEYWARNA D.H.</t>
+  </si>
+  <si>
     <t>230033</t>
   </si>
   <si>
@@ -724,12 +730,6 @@
     <t>JAYAKODY J.A.C.P.</t>
   </si>
   <si>
-    <t>230013</t>
-  </si>
-  <si>
-    <t>ABEYWARNA D.H.</t>
-  </si>
-  <si>
     <t>230564</t>
   </si>
   <si>
@@ -790,7 +790,7 @@
     <t>21(26.2%)</t>
   </si>
   <si>
-    <t>30(26.1%)</t>
+    <t>31(27.0%)</t>
   </si>
   <si>
     <t>73(63.5%)</t>
@@ -820,16 +820,13 @@
     <t>58(50.4%)</t>
   </si>
   <si>
-    <t>31(27.0%)</t>
-  </si>
-  <si>
     <t>37(32.2%)</t>
   </si>
   <si>
     <t>46(40.0%)</t>
   </si>
   <si>
-    <t>11(9.6%)</t>
+    <t>12(10.4%)</t>
   </si>
   <si>
     <t>1(0.9%)</t>
@@ -838,25 +835,31 @@
     <t>15(18.8%)</t>
   </si>
   <si>
+    <t>18(15.7%)</t>
+  </si>
+  <si>
+    <t>9(7.8%)</t>
+  </si>
+  <si>
+    <t>3(2.6%)</t>
+  </si>
+  <si>
     <t>19(16.5%)</t>
   </si>
   <si>
-    <t>9(7.8%)</t>
-  </si>
-  <si>
-    <t>3(2.6%)</t>
-  </si>
-  <si>
     <t>2(13.3%)</t>
   </si>
   <si>
+    <t>6(5.2%)</t>
+  </si>
+  <si>
+    <t>14(12.2%)</t>
+  </si>
+  <si>
+    <t>13(16.2%)</t>
+  </si>
+  <si>
     <t>7(6.1%)</t>
-  </si>
-  <si>
-    <t>14(12.2%)</t>
-  </si>
-  <si>
-    <t>13(16.2%)</t>
   </si>
   <si>
     <t>2(1.7%)</t>
@@ -1443,13 +1446,13 @@
         <v>267</v>
       </c>
       <c r="X3" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y3" t="s">
         <v>268</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>269</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -1502,28 +1505,28 @@
         <v>253</v>
       </c>
       <c r="S4" t="s">
+        <v>270</v>
+      </c>
+      <c r="T4" t="s">
         <v>271</v>
-      </c>
-      <c r="T4" t="s">
-        <v>272</v>
       </c>
       <c r="U4" t="s">
         <v>256</v>
       </c>
       <c r="V4" t="s">
+        <v>272</v>
+      </c>
+      <c r="W4" t="s">
         <v>273</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>274</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>275</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>276</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -1570,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="R5" t="s">
         <v>277</v>
@@ -1579,7 +1582,7 @@
         <v>278</v>
       </c>
       <c r="T5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U5" t="s">
         <v>279</v>
@@ -1588,16 +1591,16 @@
         <v>280</v>
       </c>
       <c r="W5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="X5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -1644,34 +1647,34 @@
         <v>3</v>
       </c>
       <c r="Q6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="R6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="V6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1721,31 +1724,31 @@
         <v>212</v>
       </c>
       <c r="R7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="W7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="X7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1795,31 +1798,31 @@
         <v>242</v>
       </c>
       <c r="R8" t="s">
+        <v>283</v>
+      </c>
+      <c r="S8" t="s">
+        <v>283</v>
+      </c>
+      <c r="T8" t="s">
+        <v>283</v>
+      </c>
+      <c r="U8" t="s">
+        <v>283</v>
+      </c>
+      <c r="V8" t="s">
+        <v>283</v>
+      </c>
+      <c r="W8" t="s">
+        <v>283</v>
+      </c>
+      <c r="X8" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z8" t="s">
         <v>282</v>
-      </c>
-      <c r="S8" t="s">
-        <v>282</v>
-      </c>
-      <c r="T8" t="s">
-        <v>282</v>
-      </c>
-      <c r="U8" t="s">
-        <v>282</v>
-      </c>
-      <c r="V8" t="s">
-        <v>282</v>
-      </c>
-      <c r="W8" t="s">
-        <v>282</v>
-      </c>
-      <c r="X8" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1866,34 +1869,34 @@
         <v>8</v>
       </c>
       <c r="Q9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="V9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1940,34 +1943,34 @@
         <v>9</v>
       </c>
       <c r="Q10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="V10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -2014,34 +2017,34 @@
         <v>10</v>
       </c>
       <c r="Q11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="V11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -2088,34 +2091,34 @@
         <v>10</v>
       </c>
       <c r="Q12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="V12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -2162,34 +2165,34 @@
         <v>10</v>
       </c>
       <c r="Q13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="V13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -2236,34 +2239,34 @@
         <v>10</v>
       </c>
       <c r="Q14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="V14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -3304,16 +3307,16 @@
         <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J38" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s">
         <v>17</v>
       </c>
       <c r="L38" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="M38">
         <v>3.964</v>
@@ -3351,19 +3354,19 @@
         <v>22</v>
       </c>
       <c r="J39" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="K39" t="s">
         <v>17</v>
       </c>
       <c r="L39" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="M39">
         <v>3.964</v>
       </c>
       <c r="N39">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3407,7 +3410,7 @@
         <v>3.964</v>
       </c>
       <c r="N40">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -4028,7 +4031,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>124</v>
@@ -4049,22 +4052,22 @@
         <v>22</v>
       </c>
       <c r="H55" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I55" t="s">
         <v>17</v>
       </c>
       <c r="J55" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s">
         <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="M55">
-        <v>3.9182</v>
+        <v>3.928</v>
       </c>
       <c r="N55">
         <v>54</v>
@@ -4084,31 +4087,31 @@
         <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H56" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I56" t="s">
         <v>17</v>
       </c>
       <c r="J56" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K56" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L56" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="M56">
-        <v>3.916</v>
+        <v>3.9182</v>
       </c>
       <c r="N56">
         <v>55</v>
@@ -4116,40 +4119,40 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" t="s">
         <v>129</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" t="s">
         <v>130</v>
-      </c>
-      <c r="D57" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" t="s">
-        <v>128</v>
-      </c>
-      <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" t="s">
-        <v>17</v>
-      </c>
-      <c r="L57" t="s">
-        <v>22</v>
       </c>
       <c r="M57">
         <v>3.916</v>
@@ -4160,7 +4163,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>131</v>
@@ -4172,7 +4175,7 @@
         <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
@@ -4181,13 +4184,13 @@
         <v>22</v>
       </c>
       <c r="H58" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="I58" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J58" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K58" t="s">
         <v>17</v>
@@ -4204,7 +4207,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
         <v>133</v>
@@ -4222,22 +4225,22 @@
         <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="H59" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="I59" t="s">
         <v>22</v>
       </c>
       <c r="J59" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K59" t="s">
         <v>17</v>
       </c>
       <c r="L59" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="M59">
         <v>3.916</v>
@@ -4248,7 +4251,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
         <v>135</v>
@@ -4260,13 +4263,13 @@
         <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="H60" t="s">
         <v>22</v>
@@ -4275,24 +4278,24 @@
         <v>22</v>
       </c>
       <c r="J60" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K60" t="s">
         <v>17</v>
       </c>
       <c r="L60" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="M60">
         <v>3.916</v>
       </c>
       <c r="N60">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
         <v>137</v>
@@ -4319,24 +4322,24 @@
         <v>22</v>
       </c>
       <c r="J61" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="K61" t="s">
         <v>17</v>
       </c>
       <c r="L61" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="M61">
         <v>3.916</v>
       </c>
       <c r="N61">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
         <v>139</v>
@@ -4354,33 +4357,33 @@
         <v>17</v>
       </c>
       <c r="G62" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="H62" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I62" t="s">
         <v>22</v>
       </c>
       <c r="J62" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="K62" t="s">
         <v>17</v>
       </c>
       <c r="L62" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M62">
         <v>3.916</v>
       </c>
       <c r="N62">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
         <v>141</v>
@@ -4398,33 +4401,33 @@
         <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="H63" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="I63" t="s">
         <v>22</v>
       </c>
       <c r="J63" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L63" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="M63">
         <v>3.916</v>
       </c>
       <c r="N63">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
         <v>143</v>
@@ -4433,7 +4436,7 @@
         <v>144</v>
       </c>
       <c r="D64" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -4442,13 +4445,13 @@
         <v>17</v>
       </c>
       <c r="G64" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="H64" t="s">
         <v>22</v>
       </c>
       <c r="I64" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="J64" t="s">
         <v>22</v>
@@ -4457,10 +4460,10 @@
         <v>22</v>
       </c>
       <c r="L64" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="M64">
-        <v>3.9143</v>
+        <v>3.916</v>
       </c>
       <c r="N64">
         <v>63</v>
@@ -4477,34 +4480,34 @@
         <v>146</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="H65" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I65" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="J65" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K65" t="s">
         <v>22</v>
       </c>
       <c r="L65" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="M65">
-        <v>3.9045</v>
+        <v>3.9143</v>
       </c>
       <c r="N65">
         <v>64</v>
@@ -4512,7 +4515,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>147</v>
@@ -4524,28 +4527,28 @@
         <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="H66" t="s">
         <v>16</v>
       </c>
       <c r="I66" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J66" t="s">
         <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L66" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="M66">
         <v>3.9045</v>
@@ -4556,7 +4559,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>149</v>
@@ -4574,19 +4577,19 @@
         <v>17</v>
       </c>
       <c r="G67" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="H67" t="s">
         <v>16</v>
       </c>
       <c r="I67" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="J67" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K67" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L67" t="s">
         <v>91</v>
@@ -4600,7 +4603,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
         <v>151</v>
@@ -4639,12 +4642,12 @@
         <v>3.9045</v>
       </c>
       <c r="N68">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
         <v>153</v>
@@ -4665,25 +4668,25 @@
         <v>22</v>
       </c>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I69" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="J69" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="K69" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L69" t="s">
         <v>91</v>
       </c>
       <c r="M69">
-        <v>3.892</v>
+        <v>3.9045</v>
       </c>
       <c r="N69">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4709,22 +4712,22 @@
         <v>22</v>
       </c>
       <c r="H70" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="I70" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J70" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="K70" t="s">
         <v>17</v>
       </c>
       <c r="L70" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="M70">
-        <v>3.88</v>
+        <v>3.892</v>
       </c>
       <c r="N70">
         <v>69</v>
@@ -4732,40 +4735,40 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" t="s">
         <v>158</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" t="s">
         <v>159</v>
-      </c>
-      <c r="D71" t="s">
-        <v>16</v>
-      </c>
-      <c r="E71" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s">
-        <v>22</v>
-      </c>
-      <c r="H71" t="s">
-        <v>22</v>
-      </c>
-      <c r="I71" t="s">
-        <v>22</v>
-      </c>
-      <c r="J71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K71" t="s">
-        <v>17</v>
-      </c>
-      <c r="L71" t="s">
-        <v>128</v>
       </c>
       <c r="M71">
         <v>3.88</v>
@@ -4776,7 +4779,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>160</v>
@@ -4788,7 +4791,7 @@
         <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
@@ -4800,16 +4803,16 @@
         <v>22</v>
       </c>
       <c r="I72" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J72" t="s">
         <v>91</v>
       </c>
       <c r="K72" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L72" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="M72">
         <v>3.88</v>
@@ -4853,7 +4856,7 @@
         <v>17</v>
       </c>
       <c r="L73" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M73">
         <v>3.868</v>
@@ -4897,7 +4900,7 @@
         <v>22</v>
       </c>
       <c r="L74" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M74">
         <v>3.868</v>
@@ -4985,7 +4988,7 @@
         <v>17</v>
       </c>
       <c r="L76" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M76">
         <v>3.8636</v>
@@ -5029,7 +5032,7 @@
         <v>17</v>
       </c>
       <c r="L77" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M77">
         <v>3.85</v>
@@ -5073,7 +5076,7 @@
         <v>22</v>
       </c>
       <c r="L78" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M78">
         <v>3.85</v>
@@ -5117,7 +5120,7 @@
         <v>17</v>
       </c>
       <c r="L79" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M79">
         <v>3.844</v>
@@ -5140,7 +5143,7 @@
         <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
@@ -5161,7 +5164,7 @@
         <v>22</v>
       </c>
       <c r="L80" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M80">
         <v>3.832</v>
@@ -5205,7 +5208,7 @@
         <v>17</v>
       </c>
       <c r="L81" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M81">
         <v>3.832</v>
@@ -5237,7 +5240,7 @@
         <v>91</v>
       </c>
       <c r="H82" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I82" t="s">
         <v>22</v>
@@ -5278,7 +5281,7 @@
         <v>22</v>
       </c>
       <c r="G83" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H83" t="s">
         <v>16</v>
@@ -5319,7 +5322,7 @@
         <v>22</v>
       </c>
       <c r="F84" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G84" t="s">
         <v>22</v>
@@ -5337,7 +5340,7 @@
         <v>22</v>
       </c>
       <c r="L84" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M84">
         <v>3.824</v>
@@ -5366,7 +5369,7 @@
         <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H85" t="s">
         <v>16</v>
@@ -5413,7 +5416,7 @@
         <v>22</v>
       </c>
       <c r="H86" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I86" t="s">
         <v>22</v>
@@ -5425,7 +5428,7 @@
         <v>17</v>
       </c>
       <c r="L86" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M86">
         <v>3.8179</v>
@@ -5469,7 +5472,7 @@
         <v>17</v>
       </c>
       <c r="L87" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M87">
         <v>3.8091</v>
@@ -5501,7 +5504,7 @@
         <v>22</v>
       </c>
       <c r="H88" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I88" t="s">
         <v>22</v>
@@ -5513,7 +5516,7 @@
         <v>22</v>
       </c>
       <c r="L88" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M88">
         <v>3.796</v>
@@ -5545,7 +5548,7 @@
         <v>91</v>
       </c>
       <c r="H89" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I89" t="s">
         <v>22</v>
@@ -5589,7 +5592,7 @@
         <v>91</v>
       </c>
       <c r="H90" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I90" t="s">
         <v>22</v>
@@ -5601,7 +5604,7 @@
         <v>17</v>
       </c>
       <c r="L90" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M90">
         <v>3.784</v>
@@ -5630,7 +5633,7 @@
         <v>17</v>
       </c>
       <c r="G91" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H91" t="s">
         <v>91</v>
@@ -5645,7 +5648,7 @@
         <v>22</v>
       </c>
       <c r="L91" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M91">
         <v>3.768</v>
@@ -5689,7 +5692,7 @@
         <v>17</v>
       </c>
       <c r="L92" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M92">
         <v>3.7536</v>
@@ -5727,13 +5730,13 @@
         <v>91</v>
       </c>
       <c r="J93" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K93" t="s">
         <v>17</v>
       </c>
       <c r="L93" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M93">
         <v>3.748</v>
@@ -5762,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="G94" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H94" t="s">
         <v>16</v>
@@ -5777,7 +5780,7 @@
         <v>17</v>
       </c>
       <c r="L94" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M94">
         <v>3.7364</v>
@@ -5806,7 +5809,7 @@
         <v>17</v>
       </c>
       <c r="G95" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H95" t="s">
         <v>16</v>
@@ -5853,7 +5856,7 @@
         <v>91</v>
       </c>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I96" t="s">
         <v>91</v>
@@ -5865,7 +5868,7 @@
         <v>22</v>
       </c>
       <c r="L96" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M96">
         <v>3.736</v>
@@ -5897,7 +5900,7 @@
         <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I97" t="s">
         <v>91</v>
@@ -5938,7 +5941,7 @@
         <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H98" t="s">
         <v>91</v>
@@ -5982,7 +5985,7 @@
         <v>22</v>
       </c>
       <c r="G99" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H99" t="s">
         <v>16</v>
@@ -6032,7 +6035,7 @@
         <v>91</v>
       </c>
       <c r="I100" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J100" t="s">
         <v>17</v>
@@ -6041,7 +6044,7 @@
         <v>17</v>
       </c>
       <c r="L100" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M100">
         <v>3.684</v>
@@ -6070,7 +6073,7 @@
         <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H101" t="s">
         <v>16</v>
@@ -6114,10 +6117,10 @@
         <v>17</v>
       </c>
       <c r="G102" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H102" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I102" t="s">
         <v>22</v>
@@ -6129,7 +6132,7 @@
         <v>22</v>
       </c>
       <c r="L102" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M102">
         <v>3.684</v>
@@ -6152,7 +6155,7 @@
         <v>16</v>
       </c>
       <c r="E103" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F103" t="s">
         <v>17</v>
@@ -6161,7 +6164,7 @@
         <v>91</v>
       </c>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I103" t="s">
         <v>22</v>
@@ -6173,7 +6176,7 @@
         <v>22</v>
       </c>
       <c r="L103" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M103">
         <v>3.664</v>
@@ -6202,13 +6205,13 @@
         <v>17</v>
       </c>
       <c r="G104" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H104" t="s">
         <v>16</v>
       </c>
       <c r="I104" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J104" t="s">
         <v>17</v>
@@ -6243,28 +6246,28 @@
         <v>22</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G105" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="I105" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="J105" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K105" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L105" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="M105">
-        <v>3.636</v>
+        <v>3.648</v>
       </c>
       <c r="N105">
         <v>104</v>
@@ -6272,7 +6275,7 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>230</v>
@@ -6290,33 +6293,33 @@
         <v>22</v>
       </c>
       <c r="G106" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="H106" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="I106" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="J106" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="K106" t="s">
         <v>22</v>
       </c>
       <c r="L106" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="M106">
         <v>3.636</v>
       </c>
       <c r="N106">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>232</v>
@@ -6325,22 +6328,22 @@
         <v>233</v>
       </c>
       <c r="D107" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="E107" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G107" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="I107" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="J107" t="s">
         <v>91</v>
@@ -6349,13 +6352,13 @@
         <v>22</v>
       </c>
       <c r="L107" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M107">
-        <v>3.625</v>
+        <v>3.636</v>
       </c>
       <c r="N107">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -6369,34 +6372,34 @@
         <v>235</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="E108" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="F108" t="s">
         <v>17</v>
       </c>
       <c r="G108" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="H108" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I108" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="J108" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="K108" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L108" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="M108">
-        <v>3.62</v>
+        <v>3.625</v>
       </c>
       <c r="N108">
         <v>107</v>
@@ -6416,19 +6419,19 @@
         <v>16</v>
       </c>
       <c r="E109" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="F109" t="s">
         <v>17</v>
       </c>
       <c r="G109" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="H109" t="s">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="I109" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="J109" t="s">
         <v>17</v>
@@ -6440,7 +6443,7 @@
         <v>91</v>
       </c>
       <c r="M109">
-        <v>3.6</v>
+        <v>3.62</v>
       </c>
       <c r="N109">
         <v>108</v>
@@ -6481,7 +6484,7 @@
         <v>17</v>
       </c>
       <c r="L110" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M110">
         <v>3.5727</v>
@@ -6510,10 +6513,10 @@
         <v>17</v>
       </c>
       <c r="G111" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H111" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I111" t="s">
         <v>91</v>
@@ -6548,19 +6551,19 @@
         <v>16</v>
       </c>
       <c r="E112" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F112" t="s">
         <v>17</v>
       </c>
       <c r="G112" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H112" t="s">
         <v>91</v>
       </c>
       <c r="I112" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J112" t="s">
         <v>17</v>
@@ -6569,7 +6572,7 @@
         <v>91</v>
       </c>
       <c r="L112" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M112">
         <v>3.536</v>
@@ -6598,7 +6601,7 @@
         <v>17</v>
       </c>
       <c r="G113" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H113" t="s">
         <v>212</v>
@@ -6642,13 +6645,13 @@
         <v>22</v>
       </c>
       <c r="G114" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H114" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I114" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J114" t="s">
         <v>91</v>
@@ -6657,7 +6660,7 @@
         <v>22</v>
       </c>
       <c r="L114" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M114">
         <v>3.488</v>
@@ -6686,13 +6689,13 @@
         <v>17</v>
       </c>
       <c r="G115" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H115" t="s">
         <v>212</v>
       </c>
       <c r="I115" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J115" t="s">
         <v>22</v>
@@ -6721,16 +6724,16 @@
         <v>252</v>
       </c>
       <c r="D116" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E116" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F116" t="s">
         <v>22</v>
       </c>
       <c r="G116" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H116" t="s">
         <v>212</v>
@@ -6745,7 +6748,7 @@
         <v>22</v>
       </c>
       <c r="L116" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M116">
         <v>3.3179</v>

--- a/output/Results - sem2 (Extended).xlsx
+++ b/output/Results - sem2 (Extended).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="292">
   <si>
     <t>Rank</t>
   </si>
@@ -115,30 +115,30 @@
     <t>PEIRIS T.S.R.</t>
   </si>
   <si>
+    <t>230082</t>
+  </si>
+  <si>
+    <t>BANDARA W.D.A.C.</t>
+  </si>
+  <si>
+    <t>230486</t>
+  </si>
+  <si>
+    <t>PERERA U.I.H.</t>
+  </si>
+  <si>
+    <t>230121</t>
+  </si>
+  <si>
+    <t>DE MEL D.J.</t>
+  </si>
+  <si>
     <t>230539</t>
   </si>
   <si>
     <t>RATHEESHAN A.R.</t>
   </si>
   <si>
-    <t>230082</t>
-  </si>
-  <si>
-    <t>BANDARA W.D.A.C.</t>
-  </si>
-  <si>
-    <t>230486</t>
-  </si>
-  <si>
-    <t>PERERA U.I.H.</t>
-  </si>
-  <si>
-    <t>230121</t>
-  </si>
-  <si>
-    <t>DE MEL D.J.</t>
-  </si>
-  <si>
     <t>230256</t>
   </si>
   <si>
@@ -151,36 +151,42 @@
     <t>KUMARASINGHE M.N.</t>
   </si>
   <si>
+    <t>230108</t>
+  </si>
+  <si>
+    <t>COLOMBAGE D.M.</t>
+  </si>
+  <si>
+    <t>230300</t>
+  </si>
+  <si>
+    <t>JAYAWEERA N.S.</t>
+  </si>
+  <si>
+    <t>230352</t>
+  </si>
+  <si>
+    <t>KUMARA K.B.R.</t>
+  </si>
+  <si>
     <t>230566</t>
   </si>
   <si>
     <t>SAMARASINGHE S.M.R.R.</t>
   </si>
   <si>
-    <t>230108</t>
-  </si>
-  <si>
-    <t>COLOMBAGE D.M.</t>
-  </si>
-  <si>
-    <t>230300</t>
-  </si>
-  <si>
-    <t>JAYAWEERA N.S.</t>
-  </si>
-  <si>
-    <t>230352</t>
-  </si>
-  <si>
-    <t>KUMARA K.B.R.</t>
-  </si>
-  <si>
     <t>230481</t>
   </si>
   <si>
     <t>PERERA K.W.A.O.V.</t>
   </si>
   <si>
+    <t>230508</t>
+  </si>
+  <si>
+    <t>RAHUL B.</t>
+  </si>
+  <si>
     <t>230051</t>
   </si>
   <si>
@@ -193,36 +199,54 @@
     <t>PERERA W.A.L.S.</t>
   </si>
   <si>
+    <t>230186</t>
+  </si>
+  <si>
+    <t>FERNANDO W.H.D.</t>
+  </si>
+  <si>
+    <t>230544</t>
+  </si>
+  <si>
+    <t>RATHNAYAKE M.A.G.K.N.</t>
+  </si>
+  <si>
+    <t>230100</t>
+  </si>
+  <si>
+    <t>CHANDRAKUMARA H.A.D.C.</t>
+  </si>
+  <si>
     <t>230689</t>
   </si>
   <si>
     <t>WEERAKOON A.H.T.M.</t>
   </si>
   <si>
-    <t>230186</t>
-  </si>
-  <si>
-    <t>FERNANDO W.H.D.</t>
-  </si>
-  <si>
-    <t>230100</t>
-  </si>
-  <si>
-    <t>CHANDRAKUMARA H.A.D.C.</t>
-  </si>
-  <si>
-    <t>230508</t>
-  </si>
-  <si>
-    <t>RAHUL B.</t>
-  </si>
-  <si>
     <t>230390</t>
   </si>
   <si>
     <t>MALDENIYA P.A.D.G.R.</t>
   </si>
   <si>
+    <t>230138</t>
+  </si>
+  <si>
+    <t>DHANANJAYA K.T.G.T.N.</t>
+  </si>
+  <si>
+    <t>230468</t>
+  </si>
+  <si>
+    <t>PATHIRANA P.T.S.</t>
+  </si>
+  <si>
+    <t>230038</t>
+  </si>
+  <si>
+    <t>AMARATHUNGE A.M.N.L.</t>
+  </si>
+  <si>
     <t>230521</t>
   </si>
   <si>
@@ -235,10 +259,61 @@
     <t>RANATHUNGA R.J.K.O.H.</t>
   </si>
   <si>
-    <t>230544</t>
-  </si>
-  <si>
-    <t>RATHNAYAKE M.A.G.K.N.</t>
+    <t>230332</t>
+  </si>
+  <si>
+    <t>KEERAWELLA K.P.C.P.</t>
+  </si>
+  <si>
+    <t>230680</t>
+  </si>
+  <si>
+    <t>WANIGASUNDARA W.M.H.</t>
+  </si>
+  <si>
+    <t>230145</t>
+  </si>
+  <si>
+    <t>DILHAN W.A.</t>
+  </si>
+  <si>
+    <t>230436</t>
+  </si>
+  <si>
+    <t>NETTIKUMARA N.A.H.G.</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>230258</t>
+  </si>
+  <si>
+    <t>IMADUWAGE O.N.H.</t>
+  </si>
+  <si>
+    <t>230469</t>
+  </si>
+  <si>
+    <t>PEIRIS E.A.S.S.</t>
+  </si>
+  <si>
+    <t>230536</t>
+  </si>
+  <si>
+    <t>RASANJANA W.P.G.R.A.</t>
+  </si>
+  <si>
+    <t>230353</t>
+  </si>
+  <si>
+    <t>KUMARA P.K.M.P.</t>
+  </si>
+  <si>
+    <t>230585</t>
+  </si>
+  <si>
+    <t>SARUKA U.</t>
   </si>
   <si>
     <t>230697</t>
@@ -247,69 +322,6 @@
     <t>WEERASINGHE J.A.H.R.</t>
   </si>
   <si>
-    <t>230138</t>
-  </si>
-  <si>
-    <t>DHANANJAYA K.T.G.T.N.</t>
-  </si>
-  <si>
-    <t>230468</t>
-  </si>
-  <si>
-    <t>PATHIRANA P.T.S.</t>
-  </si>
-  <si>
-    <t>230038</t>
-  </si>
-  <si>
-    <t>AMARATHUNGE A.M.N.L.</t>
-  </si>
-  <si>
-    <t>230332</t>
-  </si>
-  <si>
-    <t>KEERAWELLA K.P.C.P.</t>
-  </si>
-  <si>
-    <t>230680</t>
-  </si>
-  <si>
-    <t>WANIGASUNDARA W.M.H.</t>
-  </si>
-  <si>
-    <t>230145</t>
-  </si>
-  <si>
-    <t>DILHAN W.A.</t>
-  </si>
-  <si>
-    <t>230436</t>
-  </si>
-  <si>
-    <t>NETTIKUMARA N.A.H.G.</t>
-  </si>
-  <si>
-    <t>A-</t>
-  </si>
-  <si>
-    <t>230258</t>
-  </si>
-  <si>
-    <t>IMADUWAGE O.N.H.</t>
-  </si>
-  <si>
-    <t>230469</t>
-  </si>
-  <si>
-    <t>PEIRIS E.A.S.S.</t>
-  </si>
-  <si>
-    <t>230353</t>
-  </si>
-  <si>
-    <t>KUMARA P.K.M.P.</t>
-  </si>
-  <si>
     <t>230140</t>
   </si>
   <si>
@@ -322,10 +334,154 @@
     <t>DESHAN W.U.</t>
   </si>
   <si>
-    <t>230536</t>
-  </si>
-  <si>
-    <t>RASANJANA W.P.G.R.A.</t>
+    <t>230159</t>
+  </si>
+  <si>
+    <t>DISSANAYAKE G.R.G.K.</t>
+  </si>
+  <si>
+    <t>230502</t>
+  </si>
+  <si>
+    <t>PRIYADARSHANA S.A.D.</t>
+  </si>
+  <si>
+    <t>230613</t>
+  </si>
+  <si>
+    <t>SHEHAN M.N.N.</t>
+  </si>
+  <si>
+    <t>230321</t>
+  </si>
+  <si>
+    <t>KARUNANAYAKE A.H.D.</t>
+  </si>
+  <si>
+    <t>230526</t>
+  </si>
+  <si>
+    <t>RANAWAKA R.A.C.D.</t>
+  </si>
+  <si>
+    <t>230017</t>
+  </si>
+  <si>
+    <t>ADHIKARI A.H.C.S.</t>
+  </si>
+  <si>
+    <t>230687</t>
+  </si>
+  <si>
+    <t>WEDAMESTRIGE A.N.</t>
+  </si>
+  <si>
+    <t>230155</t>
+  </si>
+  <si>
+    <t>DISSANAYAKA D.M.D.P.</t>
+  </si>
+  <si>
+    <t>230197</t>
+  </si>
+  <si>
+    <t>GARUSINGHE S.B.</t>
+  </si>
+  <si>
+    <t>230492</t>
+  </si>
+  <si>
+    <t>PITIWADUGE D.N.</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>230045</t>
+  </si>
+  <si>
+    <t>ANTHONY C.S.B.</t>
+  </si>
+  <si>
+    <t>230063</t>
+  </si>
+  <si>
+    <t>ATHUKORALA U.R.</t>
+  </si>
+  <si>
+    <t>230473</t>
+  </si>
+  <si>
+    <t>PERAMUNAGE D.S.</t>
+  </si>
+  <si>
+    <t>230322</t>
+  </si>
+  <si>
+    <t>KARUNARATHNA G.K.T.</t>
+  </si>
+  <si>
+    <t>230417</t>
+  </si>
+  <si>
+    <t>MUNASINGHE A.I.</t>
+  </si>
+  <si>
+    <t>230280</t>
+  </si>
+  <si>
+    <t>JAYASINGHE J.A.P.R.</t>
+  </si>
+  <si>
+    <t>230058</t>
+  </si>
+  <si>
+    <t>AROSHANA H.A.P.</t>
+  </si>
+  <si>
+    <t>230500</t>
+  </si>
+  <si>
+    <t>PRISHMIKA H.W.N.</t>
+  </si>
+  <si>
+    <t>230629</t>
+  </si>
+  <si>
+    <t>TENNAKOON U.G.R.B.</t>
+  </si>
+  <si>
+    <t>230016</t>
+  </si>
+  <si>
+    <t>ABISHEK L.</t>
+  </si>
+  <si>
+    <t>230211</t>
+  </si>
+  <si>
+    <t>GUNASEKARA K.S.</t>
+  </si>
+  <si>
+    <t>230507</t>
+  </si>
+  <si>
+    <t>RAHMAN M.F.A.</t>
+  </si>
+  <si>
+    <t>230724</t>
+  </si>
+  <si>
+    <t>WIJESEKARA W.A.G.S.</t>
+  </si>
+  <si>
+    <t>230164</t>
+  </si>
+  <si>
+    <t>DISSANAYAKE R.K.T.</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <t>230659</t>
@@ -334,64 +490,52 @@
     <t>UPEKSHANI T.S.</t>
   </si>
   <si>
-    <t>230585</t>
-  </si>
-  <si>
-    <t>SARUKA U.</t>
-  </si>
-  <si>
-    <t>230159</t>
-  </si>
-  <si>
-    <t>DISSANAYAKE G.R.G.K.</t>
-  </si>
-  <si>
-    <t>230321</t>
-  </si>
-  <si>
-    <t>KARUNANAYAKE A.H.D.</t>
-  </si>
-  <si>
-    <t>230017</t>
-  </si>
-  <si>
-    <t>ADHIKARI A.H.C.S.</t>
-  </si>
-  <si>
-    <t>230502</t>
-  </si>
-  <si>
-    <t>PRIYADARSHANA S.A.D.</t>
-  </si>
-  <si>
-    <t>230613</t>
-  </si>
-  <si>
-    <t>SHEHAN M.N.N.</t>
-  </si>
-  <si>
-    <t>230526</t>
-  </si>
-  <si>
-    <t>RANAWAKA R.A.C.D.</t>
-  </si>
-  <si>
-    <t>230687</t>
-  </si>
-  <si>
-    <t>WEDAMESTRIGE A.N.</t>
-  </si>
-  <si>
-    <t>230155</t>
-  </si>
-  <si>
-    <t>DISSANAYAKA D.M.D.P.</t>
-  </si>
-  <si>
-    <t>230197</t>
-  </si>
-  <si>
-    <t>GARUSINGHE S.B.</t>
+    <t>230212</t>
+  </si>
+  <si>
+    <t>GUNASEKARA L.U.A.</t>
+  </si>
+  <si>
+    <t>230726</t>
+  </si>
+  <si>
+    <t>WIJESINGHE U.G.S.K.D.</t>
+  </si>
+  <si>
+    <t>230020</t>
+  </si>
+  <si>
+    <t>AHAMED A.M.S.</t>
+  </si>
+  <si>
+    <t>230654</t>
+  </si>
+  <si>
+    <t>UMAIR A.</t>
+  </si>
+  <si>
+    <t>230727</t>
+  </si>
+  <si>
+    <t>WIJESINGHE W.A.P.W.</t>
+  </si>
+  <si>
+    <t>230052</t>
+  </si>
+  <si>
+    <t>ARACHCHIGE M. A. D. T. S.</t>
+  </si>
+  <si>
+    <t>230065</t>
+  </si>
+  <si>
+    <t>AYANAJA N.B.G.M.</t>
+  </si>
+  <si>
+    <t>230527</t>
+  </si>
+  <si>
+    <t>RANAWAKA R.A.G.K.</t>
   </si>
   <si>
     <t>230495</t>
@@ -400,130 +544,76 @@
     <t>PRABHARSHA H.W.D.</t>
   </si>
   <si>
-    <t>230492</t>
-  </si>
-  <si>
-    <t>PITIWADUGE D.N.</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>230045</t>
-  </si>
-  <si>
-    <t>ANTHONY C.S.B.</t>
-  </si>
-  <si>
-    <t>230063</t>
-  </si>
-  <si>
-    <t>ATHUKORALA U.R.</t>
-  </si>
-  <si>
-    <t>230473</t>
-  </si>
-  <si>
-    <t>PERAMUNAGE D.S.</t>
-  </si>
-  <si>
-    <t>230322</t>
-  </si>
-  <si>
-    <t>KARUNARATHNA G.K.T.</t>
-  </si>
-  <si>
-    <t>230417</t>
-  </si>
-  <si>
-    <t>MUNASINGHE A.I.</t>
-  </si>
-  <si>
-    <t>230280</t>
-  </si>
-  <si>
-    <t>JAYASINGHE J.A.P.R.</t>
-  </si>
-  <si>
-    <t>230058</t>
-  </si>
-  <si>
-    <t>AROSHANA H.A.P.</t>
-  </si>
-  <si>
-    <t>230016</t>
-  </si>
-  <si>
-    <t>ABISHEK L.</t>
-  </si>
-  <si>
-    <t>230724</t>
-  </si>
-  <si>
-    <t>WIJESEKARA W.A.G.S.</t>
-  </si>
-  <si>
-    <t>230726</t>
-  </si>
-  <si>
-    <t>WIJESINGHE U.G.S.K.D.</t>
-  </si>
-  <si>
-    <t>230500</t>
-  </si>
-  <si>
-    <t>PRISHMIKA H.W.N.</t>
-  </si>
-  <si>
-    <t>230629</t>
-  </si>
-  <si>
-    <t>TENNAKOON U.G.R.B.</t>
-  </si>
-  <si>
-    <t>230211</t>
-  </si>
-  <si>
-    <t>GUNASEKARA K.S.</t>
-  </si>
-  <si>
-    <t>230164</t>
-  </si>
-  <si>
-    <t>DISSANAYAKE R.K.T.</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>230212</t>
-  </si>
-  <si>
-    <t>GUNASEKARA L.U.A.</t>
-  </si>
-  <si>
-    <t>230727</t>
-  </si>
-  <si>
-    <t>WIJESINGHE W.A.P.W.</t>
-  </si>
-  <si>
-    <t>230507</t>
-  </si>
-  <si>
-    <t>RAHMAN M.F.A.</t>
-  </si>
-  <si>
-    <t>230020</t>
-  </si>
-  <si>
-    <t>AHAMED A.M.S.</t>
-  </si>
-  <si>
-    <t>230527</t>
-  </si>
-  <si>
-    <t>RANAWAKA R.A.G.K.</t>
+    <t>230477</t>
+  </si>
+  <si>
+    <t>PERERA H.A.J.I.</t>
+  </si>
+  <si>
+    <t>230180</t>
+  </si>
+  <si>
+    <t>FERNANDO H.M.D.</t>
+  </si>
+  <si>
+    <t>230147</t>
+  </si>
+  <si>
+    <t>DILHARA D.S.</t>
+  </si>
+  <si>
+    <t>230070</t>
+  </si>
+  <si>
+    <t>BALASOORIYA B.R.B.D.</t>
+  </si>
+  <si>
+    <t>230218</t>
+  </si>
+  <si>
+    <t>GUNATHUNGA U.A.</t>
+  </si>
+  <si>
+    <t>230735</t>
+  </si>
+  <si>
+    <t>WITHANAGE G.D.N.</t>
+  </si>
+  <si>
+    <t>230012</t>
+  </si>
+  <si>
+    <t>ABEYWARDHANA T.C.W.</t>
+  </si>
+  <si>
+    <t>230195</t>
+  </si>
+  <si>
+    <t>GAMAGE SK</t>
+  </si>
+  <si>
+    <t>230229</t>
+  </si>
+  <si>
+    <t>HANSINDU M.M.A.D.</t>
+  </si>
+  <si>
+    <t>230261</t>
+  </si>
+  <si>
+    <t>INDUWARA M.L.A.S.</t>
+  </si>
+  <si>
+    <t>230077</t>
+  </si>
+  <si>
+    <t>BANDARA K.M.N.D.</t>
+  </si>
+  <si>
+    <t>230563</t>
+  </si>
+  <si>
+    <t>SAMARANAYAKA H.D.J.D.</t>
   </si>
   <si>
     <t>230520</t>
@@ -532,133 +622,112 @@
     <t>RANASINGHE A.G.N.S.</t>
   </si>
   <si>
-    <t>230052</t>
-  </si>
-  <si>
-    <t>ARACHCHIGE M. A. D. T. S.</t>
-  </si>
-  <si>
-    <t>230065</t>
-  </si>
-  <si>
-    <t>AYANAJA N.B.G.M.</t>
-  </si>
-  <si>
-    <t>230477</t>
-  </si>
-  <si>
-    <t>PERERA H.A.J.I.</t>
-  </si>
-  <si>
-    <t>230180</t>
-  </si>
-  <si>
-    <t>FERNANDO H.M.D.</t>
-  </si>
-  <si>
-    <t>230147</t>
-  </si>
-  <si>
-    <t>DILHARA D.S.</t>
-  </si>
-  <si>
-    <t>230654</t>
-  </si>
-  <si>
-    <t>UMAIR A.</t>
-  </si>
-  <si>
-    <t>230070</t>
-  </si>
-  <si>
-    <t>BALASOORIYA B.R.B.D.</t>
-  </si>
-  <si>
-    <t>230735</t>
-  </si>
-  <si>
-    <t>WITHANAGE G.D.N.</t>
-  </si>
-  <si>
-    <t>230218</t>
-  </si>
-  <si>
-    <t>GUNATHUNGA U.A.</t>
-  </si>
-  <si>
-    <t>230563</t>
-  </si>
-  <si>
-    <t>SAMARANAYAKA H.D.J.D.</t>
-  </si>
-  <si>
-    <t>230012</t>
-  </si>
-  <si>
-    <t>ABEYWARDHANA T.C.W.</t>
-  </si>
-  <si>
-    <t>230195</t>
-  </si>
-  <si>
-    <t>GAMAGE SK</t>
-  </si>
-  <si>
-    <t>230229</t>
-  </si>
-  <si>
-    <t>HANSINDU M.M.A.D.</t>
-  </si>
-  <si>
-    <t>230261</t>
-  </si>
-  <si>
-    <t>INDUWARA M.L.A.S.</t>
-  </si>
-  <si>
-    <t>230077</t>
-  </si>
-  <si>
-    <t>BANDARA K.M.N.D.</t>
-  </si>
-  <si>
     <t>230407</t>
   </si>
   <si>
     <t>MEEDENIYA M.M.H.</t>
   </si>
   <si>
+    <t>230458</t>
+  </si>
+  <si>
+    <t>PALIHENA H.H.</t>
+  </si>
+  <si>
+    <t>230650</t>
+  </si>
+  <si>
+    <t>UBEYSEKARA V.T.T.</t>
+  </si>
+  <si>
+    <t>230375</t>
+  </si>
+  <si>
+    <t>LENMINI B.L.W.</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>230175</t>
+  </si>
+  <si>
+    <t>ERANGA W.A.O.</t>
+  </si>
+  <si>
+    <t>230327</t>
+  </si>
+  <si>
+    <t>KAUSHALYA R.G.S.P.</t>
+  </si>
+  <si>
+    <t>230395</t>
+  </si>
+  <si>
+    <t>MANATUNGA K.D.</t>
+  </si>
+  <si>
+    <t>230248</t>
+  </si>
+  <si>
+    <t>HIMASARA W.V.M.J.</t>
+  </si>
+  <si>
+    <t>230730</t>
+  </si>
+  <si>
+    <t>WIJETHILAKA J.S.</t>
+  </si>
+  <si>
+    <t>230013</t>
+  </si>
+  <si>
+    <t>ABEYWARNA D.H.</t>
+  </si>
+  <si>
+    <t>230581</t>
+  </si>
+  <si>
+    <t>SANTHOSH S.</t>
+  </si>
+  <si>
+    <t>230033</t>
+  </si>
+  <si>
+    <t>AMARASINGHE A.A.D.K.</t>
+  </si>
+  <si>
+    <t>230208</t>
+  </si>
+  <si>
+    <t>GUNASEKARA H.M.</t>
+  </si>
+  <si>
+    <t>230444</t>
+  </si>
+  <si>
+    <t>NIRMANI W.T.</t>
+  </si>
+  <si>
+    <t>230268</t>
+  </si>
+  <si>
+    <t>JAYAKODY J.A.C.P.</t>
+  </si>
+  <si>
     <t>230636</t>
   </si>
   <si>
     <t>THARUSHIKA G.K.E.</t>
   </si>
   <si>
-    <t>230650</t>
-  </si>
-  <si>
-    <t>UBEYSEKARA V.T.T.</t>
-  </si>
-  <si>
-    <t>230458</t>
-  </si>
-  <si>
-    <t>PALIHENA H.H.</t>
-  </si>
-  <si>
-    <t>230375</t>
-  </si>
-  <si>
-    <t>LENMINI B.L.W.</t>
-  </si>
-  <si>
-    <t>B-</t>
-  </si>
-  <si>
-    <t>230175</t>
-  </si>
-  <si>
-    <t>ERANGA W.A.O.</t>
+    <t>230259</t>
+  </si>
+  <si>
+    <t>IMBULPITIYA B.N.</t>
+  </si>
+  <si>
+    <t>C+</t>
   </si>
   <si>
     <t>230493</t>
@@ -670,64 +739,28 @@
     <t>I-we</t>
   </si>
   <si>
-    <t>230327</t>
-  </si>
-  <si>
-    <t>KAUSHALYA R.G.S.P.</t>
-  </si>
-  <si>
-    <t>230581</t>
-  </si>
-  <si>
-    <t>SANTHOSH S.</t>
-  </si>
-  <si>
-    <t>230395</t>
-  </si>
-  <si>
-    <t>MANATUNGA K.D.</t>
-  </si>
-  <si>
-    <t>230248</t>
-  </si>
-  <si>
-    <t>HIMASARA W.V.M.J.</t>
-  </si>
-  <si>
-    <t>230730</t>
-  </si>
-  <si>
-    <t>WIJETHILAKA J.S.</t>
-  </si>
-  <si>
-    <t>230013</t>
-  </si>
-  <si>
-    <t>ABEYWARNA D.H.</t>
-  </si>
-  <si>
-    <t>230033</t>
-  </si>
-  <si>
-    <t>AMARASINGHE A.A.D.K.</t>
-  </si>
-  <si>
-    <t>230208</t>
-  </si>
-  <si>
-    <t>GUNASEKARA H.M.</t>
-  </si>
-  <si>
-    <t>230444</t>
-  </si>
-  <si>
-    <t>NIRMANI W.T.</t>
-  </si>
-  <si>
-    <t>230268</t>
-  </si>
-  <si>
-    <t>JAYAKODY J.A.C.P.</t>
+    <t>230183</t>
+  </si>
+  <si>
+    <t>FERNANDO LTJ</t>
+  </si>
+  <si>
+    <t>230224</t>
+  </si>
+  <si>
+    <t>HAKAM M.R.A.</t>
+  </si>
+  <si>
+    <t>230203</t>
+  </si>
+  <si>
+    <t>GUNARATHNA K.T.M.B.</t>
+  </si>
+  <si>
+    <t>230238</t>
+  </si>
+  <si>
+    <t>HENDENIYA H.M.J.C.</t>
   </si>
   <si>
     <t>230564</t>
@@ -736,39 +769,6 @@
     <t>SAMARASEKARA S.M.R.P.</t>
   </si>
   <si>
-    <t>230259</t>
-  </si>
-  <si>
-    <t>IMBULPITIYA B.N.</t>
-  </si>
-  <si>
-    <t>C+</t>
-  </si>
-  <si>
-    <t>230183</t>
-  </si>
-  <si>
-    <t>FERNANDO LTJ</t>
-  </si>
-  <si>
-    <t>230224</t>
-  </si>
-  <si>
-    <t>HAKAM M.R.A.</t>
-  </si>
-  <si>
-    <t>230203</t>
-  </si>
-  <si>
-    <t>GUNARATHNA K.T.M.B.</t>
-  </si>
-  <si>
-    <t>230238</t>
-  </si>
-  <si>
-    <t>HENDENIYA H.M.J.C.</t>
-  </si>
-  <si>
     <t>230449</t>
   </si>
   <si>
@@ -787,7 +787,7 @@
     <t>23(20.0%)</t>
   </si>
   <si>
-    <t>21(26.2%)</t>
+    <t>24(20.9%)</t>
   </si>
   <si>
     <t>31(27.0%)</t>
@@ -814,7 +814,7 @@
     <t>49(42.6%)</t>
   </si>
   <si>
-    <t>25(31.2%)</t>
+    <t>41(35.7%)</t>
   </si>
   <si>
     <t>58(50.4%)</t>
@@ -832,9 +832,6 @@
     <t>1(0.9%)</t>
   </si>
   <si>
-    <t>15(18.8%)</t>
-  </si>
-  <si>
     <t>18(15.7%)</t>
   </si>
   <si>
@@ -856,7 +853,7 @@
     <t>14(12.2%)</t>
   </si>
   <si>
-    <t>13(16.2%)</t>
+    <t>17(14.8%)</t>
   </si>
   <si>
     <t>7(6.1%)</t>
@@ -874,13 +871,7 @@
     <t>5(4.3%)</t>
   </si>
   <si>
-    <t>2(2.5%)</t>
-  </si>
-  <si>
     <t>13(11.3%)</t>
-  </si>
-  <si>
-    <t>4(5.0%)</t>
   </si>
   <si>
     <t>C</t>
@@ -1499,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="Q4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R4" t="s">
         <v>253</v>
@@ -1514,19 +1505,19 @@
         <v>256</v>
       </c>
       <c r="V4" t="s">
+        <v>256</v>
+      </c>
+      <c r="W4" t="s">
         <v>272</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>273</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>274</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>275</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -1573,34 +1564,34 @@
         <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="R5" t="s">
+        <v>276</v>
+      </c>
+      <c r="S5" t="s">
         <v>277</v>
-      </c>
-      <c r="S5" t="s">
-        <v>278</v>
       </c>
       <c r="T5" t="s">
         <v>271</v>
       </c>
       <c r="U5" t="s">
+        <v>278</v>
+      </c>
+      <c r="V5" t="s">
         <v>279</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>280</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>281</v>
       </c>
-      <c r="X5" t="s">
-        <v>282</v>
-      </c>
       <c r="Y5" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z5" t="s">
         <v>283</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -1647,34 +1638,34 @@
         <v>3</v>
       </c>
       <c r="Q6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="R6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U6" t="s">
+        <v>284</v>
+      </c>
+      <c r="V6" t="s">
+        <v>274</v>
+      </c>
+      <c r="W6" t="s">
+        <v>282</v>
+      </c>
+      <c r="X6" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z6" t="s">
         <v>285</v>
-      </c>
-      <c r="V6" t="s">
-        <v>286</v>
-      </c>
-      <c r="W6" t="s">
-        <v>283</v>
-      </c>
-      <c r="X6" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>283</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1721,34 +1712,34 @@
         <v>3</v>
       </c>
       <c r="Q7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="R7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U7" t="s">
         <v>271</v>
       </c>
       <c r="V7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="W7" t="s">
         <v>271</v>
       </c>
       <c r="X7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1774,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
@@ -1795,34 +1786,34 @@
         <v>7</v>
       </c>
       <c r="Q8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="R8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="W8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1869,34 +1860,34 @@
         <v>8</v>
       </c>
       <c r="Q9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="R9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="W9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1919,16 +1910,16 @@
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
         <v>17</v>
@@ -1943,34 +1934,34 @@
         <v>9</v>
       </c>
       <c r="Q10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="R10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="W10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1996,13 +1987,13 @@
         <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
         <v>17</v>
@@ -2014,37 +2005,37 @@
         <v>4</v>
       </c>
       <c r="N11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="R11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="W11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -2067,19 +2058,19 @@
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
         <v>22</v>
@@ -2088,37 +2079,37 @@
         <v>4</v>
       </c>
       <c r="N12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="R12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="W12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -2144,7 +2135,7 @@
         <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
@@ -2153,7 +2144,7 @@
         <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
         <v>22</v>
@@ -2162,37 +2153,37 @@
         <v>4</v>
       </c>
       <c r="N13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q13" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="R13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="W13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -2236,37 +2227,37 @@
         <v>4</v>
       </c>
       <c r="N14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="R14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="W14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -2310,7 +2301,7 @@
         <v>4</v>
       </c>
       <c r="N15">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -2324,7 +2315,7 @@
         <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
@@ -2336,16 +2327,16 @@
         <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
         <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L16" t="s">
         <v>22</v>
@@ -2368,31 +2359,31 @@
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M17">
         <v>4</v>
@@ -2415,28 +2406,28 @@
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
         <v>22</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K18" t="s">
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M18">
         <v>4</v>
@@ -2486,7 +2477,7 @@
         <v>4</v>
       </c>
       <c r="N19">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2553,13 +2544,13 @@
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s">
         <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
         <v>22</v>
@@ -2600,13 +2591,13 @@
         <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s">
         <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K22" t="s">
         <v>17</v>
@@ -2638,16 +2629,16 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J23" t="s">
         <v>17</v>
@@ -2662,7 +2653,7 @@
         <v>4</v>
       </c>
       <c r="N23">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2726,22 +2717,22 @@
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J25" t="s">
         <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L25" t="s">
         <v>22</v>
@@ -2770,22 +2761,22 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L26" t="s">
         <v>22</v>
@@ -2794,7 +2785,7 @@
         <v>4</v>
       </c>
       <c r="N26">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2817,13 +2808,13 @@
         <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
         <v>22</v>
       </c>
       <c r="I27" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J27" t="s">
         <v>17</v>
@@ -2858,16 +2849,16 @@
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G28" t="s">
         <v>22</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J28" t="s">
         <v>17</v>
@@ -2882,7 +2873,7 @@
         <v>4</v>
       </c>
       <c r="N28">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2899,7 +2890,7 @@
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -2908,13 +2899,13 @@
         <v>22</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K29" t="s">
         <v>17</v>
@@ -2926,7 +2917,7 @@
         <v>4</v>
       </c>
       <c r="N29">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2952,7 +2943,7 @@
         <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
@@ -2961,7 +2952,7 @@
         <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L30" t="s">
         <v>22</v>
@@ -2970,7 +2961,7 @@
         <v>4</v>
       </c>
       <c r="N30">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2996,7 +2987,7 @@
         <v>22</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I31" t="s">
         <v>22</v>
@@ -3005,16 +2996,16 @@
         <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M31">
         <v>4</v>
       </c>
       <c r="N31">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3031,7 +3022,7 @@
         <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -3046,7 +3037,7 @@
         <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K32" t="s">
         <v>17</v>
@@ -3058,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="N32">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3084,7 +3075,7 @@
         <v>22</v>
       </c>
       <c r="H33" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I33" t="s">
         <v>22</v>
@@ -3093,7 +3084,7 @@
         <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L33" t="s">
         <v>22</v>
@@ -3102,7 +3093,7 @@
         <v>4</v>
       </c>
       <c r="N33">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3116,7 +3107,7 @@
         <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
         <v>22</v>
@@ -3128,13 +3119,13 @@
         <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I34" t="s">
         <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K34" t="s">
         <v>17</v>
@@ -3146,7 +3137,7 @@
         <v>4</v>
       </c>
       <c r="N34">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3160,25 +3151,25 @@
         <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I35" t="s">
         <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K35" t="s">
         <v>17</v>
@@ -3216,13 +3207,13 @@
         <v>22</v>
       </c>
       <c r="H36" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I36" t="s">
         <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K36" t="s">
         <v>17</v>
@@ -3239,7 +3230,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>87</v>
@@ -3254,28 +3245,28 @@
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J37" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s">
         <v>17</v>
       </c>
       <c r="L37" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>4</v>
+        <v>3.964</v>
       </c>
       <c r="N37">
         <v>36</v>
@@ -3283,13 +3274,13 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
@@ -3307,16 +3298,16 @@
         <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="K38" t="s">
         <v>17</v>
       </c>
       <c r="L38" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="M38">
         <v>3.964</v>
@@ -3327,7 +3318,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>92</v>
@@ -3339,7 +3330,7 @@
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -3360,18 +3351,18 @@
         <v>17</v>
       </c>
       <c r="L39" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="M39">
         <v>3.964</v>
       </c>
       <c r="N39">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
         <v>94</v>
@@ -3383,7 +3374,7 @@
         <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -3392,7 +3383,7 @@
         <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I40" t="s">
         <v>22</v>
@@ -3404,18 +3395,18 @@
         <v>17</v>
       </c>
       <c r="L40" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="M40">
         <v>3.964</v>
       </c>
       <c r="N40">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
         <v>96</v>
@@ -3448,7 +3439,7 @@
         <v>17</v>
       </c>
       <c r="L41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M41">
         <v>3.964</v>
@@ -3459,7 +3450,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
         <v>98</v>
@@ -3474,7 +3465,7 @@
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G42" t="s">
         <v>22</v>
@@ -3483,27 +3474,27 @@
         <v>22</v>
       </c>
       <c r="I42" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J42" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K42" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M42">
         <v>3.964</v>
       </c>
       <c r="N42">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
         <v>100</v>
@@ -3518,36 +3509,36 @@
         <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
         <v>22</v>
       </c>
       <c r="H43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s">
         <v>22</v>
       </c>
       <c r="J43" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K43" t="s">
         <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M43">
         <v>3.964</v>
       </c>
       <c r="N43">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
         <v>102</v>
@@ -3562,28 +3553,28 @@
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J44" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K44" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M44">
-        <v>3.9591</v>
+        <v>3.964</v>
       </c>
       <c r="N44">
         <v>43</v>
@@ -3591,7 +3582,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
         <v>104</v>
@@ -3603,31 +3594,31 @@
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G45" t="s">
         <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
       </c>
       <c r="J45" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K45" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L45" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="M45">
-        <v>3.9591</v>
+        <v>3.964</v>
       </c>
       <c r="N45">
         <v>44</v>
@@ -3635,7 +3626,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>106</v>
@@ -3644,7 +3635,7 @@
         <v>107</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
         <v>22</v>
@@ -3653,25 +3644,25 @@
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J46" t="s">
         <v>17</v>
       </c>
       <c r="K46" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>3.9591</v>
+        <v>3.9571</v>
       </c>
       <c r="N46">
         <v>45</v>
@@ -3688,7 +3679,7 @@
         <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
         <v>22</v>
@@ -3697,7 +3688,7 @@
         <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s">
         <v>22</v>
@@ -3709,13 +3700,13 @@
         <v>17</v>
       </c>
       <c r="K47" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L47" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>3.9571</v>
+        <v>3.952</v>
       </c>
       <c r="N47">
         <v>46</v>
@@ -3723,7 +3714,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>110</v>
@@ -3741,16 +3732,16 @@
         <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s">
         <v>22</v>
       </c>
       <c r="I48" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="J48" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K48" t="s">
         <v>17</v>
@@ -3767,7 +3758,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
         <v>112</v>
@@ -3782,22 +3773,22 @@
         <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="H49" t="s">
         <v>22</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s">
         <v>17</v>
       </c>
       <c r="K49" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L49" t="s">
         <v>22</v>
@@ -3811,7 +3802,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
         <v>114</v>
@@ -3829,13 +3820,13 @@
         <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="H50" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I50" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="J50" t="s">
         <v>17</v>
@@ -3847,15 +3838,15 @@
         <v>22</v>
       </c>
       <c r="M50">
-        <v>3.9455</v>
+        <v>3.952</v>
       </c>
       <c r="N50">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
         <v>116</v>
@@ -3870,28 +3861,28 @@
         <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I51" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J51" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K51" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L51" t="s">
         <v>22</v>
       </c>
       <c r="M51">
-        <v>3.9455</v>
+        <v>3.952</v>
       </c>
       <c r="N51">
         <v>50</v>
@@ -3899,7 +3890,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>118</v>
@@ -3914,28 +3905,28 @@
         <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s">
         <v>22</v>
       </c>
       <c r="H52" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I52" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="J52" t="s">
         <v>17</v>
       </c>
       <c r="K52" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L52" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="M52">
-        <v>3.9455</v>
+        <v>3.94</v>
       </c>
       <c r="N52">
         <v>51</v>
@@ -3958,28 +3949,28 @@
         <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I53" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J53" t="s">
         <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M53">
-        <v>3.9318</v>
+        <v>3.928</v>
       </c>
       <c r="N53">
         <v>52</v>
@@ -3987,7 +3978,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>122</v>
@@ -3999,28 +3990,28 @@
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H54" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J54" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="M54">
         <v>3.928</v>
@@ -4031,7 +4022,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>124</v>
@@ -4043,13 +4034,13 @@
         <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H55" t="s">
         <v>22</v>
@@ -4058,16 +4049,16 @@
         <v>17</v>
       </c>
       <c r="J55" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="K55" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L55" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="M55">
-        <v>3.928</v>
+        <v>3.916</v>
       </c>
       <c r="N55">
         <v>54</v>
@@ -4075,19 +4066,19 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D56" t="s">
         <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
@@ -4096,7 +4087,7 @@
         <v>22</v>
       </c>
       <c r="H56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I56" t="s">
         <v>17</v>
@@ -4105,13 +4096,13 @@
         <v>22</v>
       </c>
       <c r="K56" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L56" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="M56">
-        <v>3.9182</v>
+        <v>3.916</v>
       </c>
       <c r="N56">
         <v>55</v>
@@ -4119,31 +4110,31 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D57" t="s">
         <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I57" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J57" t="s">
         <v>17</v>
@@ -4152,7 +4143,7 @@
         <v>17</v>
       </c>
       <c r="L57" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="M57">
         <v>3.916</v>
@@ -4163,7 +4154,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
         <v>131</v>
@@ -4175,19 +4166,19 @@
         <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I58" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J58" t="s">
         <v>22</v>
@@ -4196,7 +4187,7 @@
         <v>17</v>
       </c>
       <c r="L58" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="M58">
         <v>3.916</v>
@@ -4207,7 +4198,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
         <v>133</v>
@@ -4219,7 +4210,7 @@
         <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -4228,7 +4219,7 @@
         <v>22</v>
       </c>
       <c r="H59" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="I59" t="s">
         <v>22</v>
@@ -4240,18 +4231,18 @@
         <v>17</v>
       </c>
       <c r="L59" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="M59">
         <v>3.916</v>
       </c>
       <c r="N59">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
         <v>135</v>
@@ -4263,13 +4254,13 @@
         <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="H60" t="s">
         <v>22</v>
@@ -4278,24 +4269,24 @@
         <v>22</v>
       </c>
       <c r="J60" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="K60" t="s">
         <v>17</v>
       </c>
       <c r="L60" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="M60">
         <v>3.916</v>
       </c>
       <c r="N60">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
         <v>137</v>
@@ -4313,10 +4304,10 @@
         <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I61" t="s">
         <v>22</v>
@@ -4328,18 +4319,18 @@
         <v>17</v>
       </c>
       <c r="L61" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="M61">
         <v>3.916</v>
       </c>
       <c r="N61">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
         <v>139</v>
@@ -4366,24 +4357,24 @@
         <v>22</v>
       </c>
       <c r="J62" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="K62" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L62" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="M62">
         <v>3.916</v>
       </c>
       <c r="N62">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
         <v>141</v>
@@ -4401,33 +4392,33 @@
         <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="H63" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I63" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K63" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L63" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="M63">
         <v>3.916</v>
       </c>
       <c r="N63">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B64" t="s">
         <v>143</v>
@@ -4451,7 +4442,7 @@
         <v>22</v>
       </c>
       <c r="I64" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s">
         <v>22</v>
@@ -4460,13 +4451,13 @@
         <v>22</v>
       </c>
       <c r="L64" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="M64">
         <v>3.916</v>
       </c>
       <c r="N64">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4489,13 +4480,13 @@
         <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s">
         <v>22</v>
       </c>
       <c r="I65" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J65" t="s">
         <v>22</v>
@@ -4527,7 +4518,7 @@
         <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
@@ -4536,22 +4527,22 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I66" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J66" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L66" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="M66">
-        <v>3.9045</v>
+        <v>3.892</v>
       </c>
       <c r="N66">
         <v>65</v>
@@ -4559,7 +4550,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>149</v>
@@ -4568,7 +4559,7 @@
         <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E67" t="s">
         <v>22</v>
@@ -4577,25 +4568,25 @@
         <v>17</v>
       </c>
       <c r="G67" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="H67" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I67" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J67" t="s">
         <v>17</v>
       </c>
       <c r="K67" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L67" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="M67">
-        <v>3.9045</v>
+        <v>3.8821</v>
       </c>
       <c r="N67">
         <v>66</v>
@@ -4603,7 +4594,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>151</v>
@@ -4615,7 +4606,7 @@
         <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
@@ -4624,22 +4615,22 @@
         <v>22</v>
       </c>
       <c r="H68" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I68" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="J68" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K68" t="s">
         <v>22</v>
       </c>
       <c r="L68" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="M68">
-        <v>3.9045</v>
+        <v>3.88</v>
       </c>
       <c r="N68">
         <v>67</v>
@@ -4647,7 +4638,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>153</v>
@@ -4668,22 +4659,22 @@
         <v>22</v>
       </c>
       <c r="H69" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I69" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="J69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L69" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="M69">
-        <v>3.9045</v>
+        <v>3.88</v>
       </c>
       <c r="N69">
         <v>67</v>
@@ -4691,19 +4682,19 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D70" t="s">
         <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
@@ -4712,22 +4703,22 @@
         <v>22</v>
       </c>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="I70" t="s">
         <v>22</v>
       </c>
       <c r="J70" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="K70" t="s">
         <v>17</v>
       </c>
       <c r="L70" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M70">
-        <v>3.892</v>
+        <v>3.88</v>
       </c>
       <c r="N70">
         <v>69</v>
@@ -4735,19 +4726,19 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C71" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D71" t="s">
         <v>16</v>
       </c>
       <c r="E71" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
@@ -4759,16 +4750,16 @@
         <v>22</v>
       </c>
       <c r="I71" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J71" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s">
         <v>17</v>
       </c>
       <c r="L71" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="M71">
         <v>3.88</v>
@@ -4779,7 +4770,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
         <v>160</v>
@@ -4791,34 +4782,34 @@
         <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
       </c>
       <c r="G72" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="H72" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I72" t="s">
         <v>22</v>
       </c>
       <c r="J72" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="K72" t="s">
         <v>17</v>
       </c>
       <c r="L72" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="M72">
         <v>3.88</v>
       </c>
       <c r="N72">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4832,7 +4823,7 @@
         <v>163</v>
       </c>
       <c r="D73" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E73" t="s">
         <v>22</v>
@@ -4841,22 +4832,22 @@
         <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H73" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I73" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J73" t="s">
         <v>17</v>
       </c>
       <c r="K73" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L73" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="M73">
         <v>3.868</v>
@@ -4867,7 +4858,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>164</v>
@@ -4876,34 +4867,34 @@
         <v>165</v>
       </c>
       <c r="D74" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E74" t="s">
         <v>22</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G74" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="H74" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I74" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="J74" t="s">
         <v>17</v>
       </c>
       <c r="K74" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L74" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="M74">
-        <v>3.868</v>
+        <v>3.852</v>
       </c>
       <c r="N74">
         <v>73</v>
@@ -4911,7 +4902,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>166</v>
@@ -4920,7 +4911,7 @@
         <v>167</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E75" t="s">
         <v>22</v>
@@ -4929,33 +4920,33 @@
         <v>17</v>
       </c>
       <c r="G75" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I75" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="J75" t="s">
         <v>17</v>
       </c>
       <c r="K75" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L75" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="M75">
-        <v>3.868</v>
+        <v>3.85</v>
       </c>
       <c r="N75">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>168</v>
@@ -4964,7 +4955,7 @@
         <v>169</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E76" t="s">
         <v>22</v>
@@ -4973,25 +4964,25 @@
         <v>17</v>
       </c>
       <c r="G76" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="H76" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I76" t="s">
         <v>22</v>
       </c>
       <c r="J76" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K76" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L76" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="M76">
-        <v>3.8636</v>
+        <v>3.85</v>
       </c>
       <c r="N76">
         <v>75</v>
@@ -5017,10 +5008,10 @@
         <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="H77" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I77" t="s">
         <v>22</v>
@@ -5032,10 +5023,10 @@
         <v>17</v>
       </c>
       <c r="L77" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="M77">
-        <v>3.85</v>
+        <v>3.844</v>
       </c>
       <c r="N77">
         <v>76</v>
@@ -5052,7 +5043,7 @@
         <v>173</v>
       </c>
       <c r="D78" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E78" t="s">
         <v>22</v>
@@ -5061,33 +5052,33 @@
         <v>17</v>
       </c>
       <c r="G78" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="H78" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I78" t="s">
         <v>22</v>
       </c>
       <c r="J78" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K78" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L78" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="M78">
-        <v>3.85</v>
+        <v>3.844</v>
       </c>
       <c r="N78">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
         <v>174</v>
@@ -5099,7 +5090,7 @@
         <v>16</v>
       </c>
       <c r="E79" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F79" t="s">
         <v>17</v>
@@ -5108,19 +5099,19 @@
         <v>22</v>
       </c>
       <c r="H79" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="I79" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J79" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K79" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L79" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="M79">
         <v>3.844</v>
@@ -5143,7 +5134,7 @@
         <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
@@ -5164,7 +5155,7 @@
         <v>22</v>
       </c>
       <c r="L80" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M80">
         <v>3.832</v>
@@ -5193,10 +5184,10 @@
         <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I81" t="s">
         <v>22</v>
@@ -5208,7 +5199,7 @@
         <v>17</v>
       </c>
       <c r="L81" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M81">
         <v>3.832</v>
@@ -5231,16 +5222,16 @@
         <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
       </c>
       <c r="G82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H82" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I82" t="s">
         <v>22</v>
@@ -5278,13 +5269,13 @@
         <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="G83" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="H83" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
@@ -5293,13 +5284,13 @@
         <v>17</v>
       </c>
       <c r="K83" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L83" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="M83">
-        <v>3.8318</v>
+        <v>3.824</v>
       </c>
       <c r="N83">
         <v>82</v>
@@ -5316,19 +5307,19 @@
         <v>185</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E84" t="s">
         <v>22</v>
       </c>
       <c r="F84" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="G84" t="s">
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="I84" t="s">
         <v>22</v>
@@ -5337,13 +5328,13 @@
         <v>17</v>
       </c>
       <c r="K84" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L84" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="M84">
-        <v>3.824</v>
+        <v>3.8179</v>
       </c>
       <c r="N84">
         <v>83</v>
@@ -5369,13 +5360,13 @@
         <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H85" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I85" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J85" t="s">
         <v>17</v>
@@ -5387,7 +5378,7 @@
         <v>22</v>
       </c>
       <c r="M85">
-        <v>3.8182</v>
+        <v>3.804</v>
       </c>
       <c r="N85">
         <v>84</v>
@@ -5404,7 +5395,7 @@
         <v>189</v>
       </c>
       <c r="D86" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E86" t="s">
         <v>22</v>
@@ -5416,7 +5407,7 @@
         <v>22</v>
       </c>
       <c r="H86" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="I86" t="s">
         <v>22</v>
@@ -5425,13 +5416,13 @@
         <v>17</v>
       </c>
       <c r="K86" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L86" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="M86">
-        <v>3.8179</v>
+        <v>3.796</v>
       </c>
       <c r="N86">
         <v>85</v>
@@ -5439,7 +5430,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>190</v>
@@ -5451,31 +5442,31 @@
         <v>16</v>
       </c>
       <c r="E87" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F87" t="s">
         <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H87" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I87" t="s">
         <v>22</v>
       </c>
       <c r="J87" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L87" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="M87">
-        <v>3.8091</v>
+        <v>3.796</v>
       </c>
       <c r="N87">
         <v>86</v>
@@ -5501,25 +5492,25 @@
         <v>17</v>
       </c>
       <c r="G88" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="H88" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="I88" t="s">
         <v>22</v>
       </c>
       <c r="J88" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K88" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L88" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M88">
-        <v>3.796</v>
+        <v>3.784</v>
       </c>
       <c r="N88">
         <v>87</v>
@@ -5527,7 +5518,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>194</v>
@@ -5539,31 +5530,31 @@
         <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="F89" t="s">
         <v>17</v>
       </c>
       <c r="G89" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="H89" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="I89" t="s">
         <v>22</v>
       </c>
       <c r="J89" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="K89" t="s">
         <v>22</v>
       </c>
       <c r="L89" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="M89">
-        <v>3.796</v>
+        <v>3.768</v>
       </c>
       <c r="N89">
         <v>88</v>
@@ -5580,34 +5571,34 @@
         <v>197</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G90" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H90" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="I90" t="s">
         <v>22</v>
       </c>
       <c r="J90" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K90" t="s">
         <v>17</v>
       </c>
       <c r="L90" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="M90">
-        <v>3.784</v>
+        <v>3.7536</v>
       </c>
       <c r="N90">
         <v>89</v>
@@ -5633,10 +5624,10 @@
         <v>17</v>
       </c>
       <c r="G91" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="H91" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="I91" t="s">
         <v>22</v>
@@ -5645,13 +5636,13 @@
         <v>17</v>
       </c>
       <c r="K91" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L91" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="M91">
-        <v>3.768</v>
+        <v>3.748</v>
       </c>
       <c r="N91">
         <v>90</v>
@@ -5659,7 +5650,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>200</v>
@@ -5668,19 +5659,19 @@
         <v>201</v>
       </c>
       <c r="D92" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G92" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H92" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="I92" t="s">
         <v>22</v>
@@ -5692,18 +5683,18 @@
         <v>17</v>
       </c>
       <c r="L92" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="M92">
-        <v>3.7536</v>
+        <v>3.748</v>
       </c>
       <c r="N92">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
         <v>202</v>
@@ -5727,16 +5718,16 @@
         <v>22</v>
       </c>
       <c r="I93" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J93" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K93" t="s">
         <v>17</v>
       </c>
       <c r="L93" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M93">
         <v>3.748</v>
@@ -5759,31 +5750,31 @@
         <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
       </c>
       <c r="G94" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="H94" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I94" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J94" t="s">
         <v>22</v>
       </c>
       <c r="K94" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L94" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M94">
-        <v>3.7364</v>
+        <v>3.736</v>
       </c>
       <c r="N94">
         <v>93</v>
@@ -5791,7 +5782,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>206</v>
@@ -5803,19 +5794,19 @@
         <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
       </c>
       <c r="G95" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H95" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I95" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J95" t="s">
         <v>22</v>
@@ -5824,13 +5815,13 @@
         <v>17</v>
       </c>
       <c r="L95" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M95">
-        <v>3.7364</v>
+        <v>3.732</v>
       </c>
       <c r="N95">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -5847,31 +5838,31 @@
         <v>16</v>
       </c>
       <c r="E96" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
       </c>
       <c r="G96" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="H96" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I96" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J96" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K96" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L96" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="M96">
-        <v>3.736</v>
+        <v>3.712</v>
       </c>
       <c r="N96">
         <v>95</v>
@@ -5882,10 +5873,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C97" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D97" t="s">
         <v>16</v>
@@ -5897,28 +5888,28 @@
         <v>17</v>
       </c>
       <c r="G97" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="H97" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="I97" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J97" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K97" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="L97" t="s">
-        <v>212</v>
+        <v>89</v>
       </c>
       <c r="M97">
-        <v>3.712</v>
+        <v>3.696</v>
       </c>
       <c r="N97">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5941,25 +5932,25 @@
         <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="H98" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I98" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="J98" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="K98" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="L98" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="M98">
-        <v>3.696</v>
+        <v>3.684</v>
       </c>
       <c r="N98">
         <v>97</v>
@@ -5967,7 +5958,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>215</v>
@@ -5979,31 +5970,31 @@
         <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H99" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I99" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="J99" t="s">
         <v>17</v>
       </c>
       <c r="K99" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="L99" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="M99">
-        <v>3.6947</v>
+        <v>3.684</v>
       </c>
       <c r="N99">
         <v>98</v>
@@ -6014,40 +6005,40 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" t="s">
         <v>218</v>
       </c>
-      <c r="C100" t="s">
-        <v>219</v>
-      </c>
       <c r="D100" t="s">
         <v>16</v>
       </c>
       <c r="E100" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="F100" t="s">
         <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H100" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="I100" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="J100" t="s">
         <v>17</v>
       </c>
       <c r="K100" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L100" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M100">
-        <v>3.684</v>
+        <v>3.664</v>
       </c>
       <c r="N100">
         <v>99</v>
@@ -6055,43 +6046,43 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101" t="s">
         <v>220</v>
       </c>
-      <c r="C101" t="s">
-        <v>221</v>
-      </c>
       <c r="D101" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E101" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F101" t="s">
         <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="H101" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I101" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="J101" t="s">
         <v>17</v>
       </c>
       <c r="K101" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L101" t="s">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="M101">
-        <v>3.684</v>
+        <v>3.656</v>
       </c>
       <c r="N101">
         <v>100</v>
@@ -6099,28 +6090,28 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>221</v>
+      </c>
+      <c r="C102" t="s">
         <v>222</v>
       </c>
-      <c r="C102" t="s">
-        <v>223</v>
-      </c>
       <c r="D102" t="s">
         <v>16</v>
       </c>
       <c r="E102" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="F102" t="s">
         <v>17</v>
       </c>
       <c r="G102" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="H102" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="I102" t="s">
         <v>22</v>
@@ -6129,16 +6120,16 @@
         <v>17</v>
       </c>
       <c r="K102" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L102" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="M102">
-        <v>3.684</v>
+        <v>3.648</v>
       </c>
       <c r="N102">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -6146,28 +6137,28 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>223</v>
+      </c>
+      <c r="C103" t="s">
         <v>224</v>
       </c>
-      <c r="C103" t="s">
-        <v>225</v>
-      </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E103" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="F103" t="s">
         <v>17</v>
       </c>
       <c r="G103" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="H103" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I103" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J103" t="s">
         <v>17</v>
@@ -6176,10 +6167,10 @@
         <v>22</v>
       </c>
       <c r="L103" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="M103">
-        <v>3.664</v>
+        <v>3.6429</v>
       </c>
       <c r="N103">
         <v>102</v>
@@ -6190,40 +6181,40 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>225</v>
+      </c>
+      <c r="C104" t="s">
         <v>226</v>
       </c>
-      <c r="C104" t="s">
-        <v>227</v>
-      </c>
       <c r="D104" t="s">
         <v>16</v>
       </c>
       <c r="E104" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G104" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="H104" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I104" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J104" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K104" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L104" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="M104">
-        <v>3.65</v>
+        <v>3.636</v>
       </c>
       <c r="N104">
         <v>103</v>
@@ -6231,14 +6222,14 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" t="s">
         <v>228</v>
       </c>
-      <c r="C105" t="s">
-        <v>229</v>
-      </c>
       <c r="D105" t="s">
         <v>16</v>
       </c>
@@ -6246,31 +6237,31 @@
         <v>22</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G105" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H105" t="s">
-        <v>212</v>
+        <v>89</v>
       </c>
       <c r="I105" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J105" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K105" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L105" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="M105">
-        <v>3.648</v>
+        <v>3.636</v>
       </c>
       <c r="N105">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -6278,40 +6269,40 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" t="s">
         <v>230</v>
       </c>
-      <c r="C106" t="s">
-        <v>231</v>
-      </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="E106" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G106" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I106" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="J106" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="K106" t="s">
         <v>22</v>
       </c>
       <c r="L106" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="M106">
-        <v>3.636</v>
+        <v>3.625</v>
       </c>
       <c r="N106">
         <v>105</v>
@@ -6319,46 +6310,46 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" t="s">
         <v>232</v>
       </c>
-      <c r="C107" t="s">
-        <v>233</v>
-      </c>
       <c r="D107" t="s">
         <v>16</v>
       </c>
       <c r="E107" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G107" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="H107" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="I107" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="J107" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="K107" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L107" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="M107">
-        <v>3.636</v>
+        <v>3.62</v>
       </c>
       <c r="N107">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -6366,40 +6357,40 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" t="s">
         <v>234</v>
       </c>
-      <c r="C108" t="s">
-        <v>235</v>
-      </c>
       <c r="D108" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="E108" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="F108" t="s">
         <v>17</v>
       </c>
       <c r="G108" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="I108" t="s">
         <v>22</v>
       </c>
       <c r="J108" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="K108" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L108" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M108">
-        <v>3.625</v>
+        <v>3.612</v>
       </c>
       <c r="N108">
         <v>107</v>
@@ -6410,40 +6401,40 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" t="s">
         <v>236</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109" t="s">
+        <v>17</v>
+      </c>
+      <c r="G109" t="s">
+        <v>126</v>
+      </c>
+      <c r="H109" t="s">
+        <v>155</v>
+      </c>
+      <c r="I109" t="s">
+        <v>89</v>
+      </c>
+      <c r="J109" t="s">
+        <v>17</v>
+      </c>
+      <c r="K109" t="s">
+        <v>17</v>
+      </c>
+      <c r="L109" t="s">
         <v>237</v>
       </c>
-      <c r="D109" t="s">
-        <v>16</v>
-      </c>
-      <c r="E109" t="s">
-        <v>91</v>
-      </c>
-      <c r="F109" t="s">
-        <v>17</v>
-      </c>
-      <c r="G109" t="s">
-        <v>130</v>
-      </c>
-      <c r="H109" t="s">
-        <v>130</v>
-      </c>
-      <c r="I109" t="s">
-        <v>130</v>
-      </c>
-      <c r="J109" t="s">
-        <v>17</v>
-      </c>
-      <c r="K109" t="s">
-        <v>17</v>
-      </c>
-      <c r="L109" t="s">
-        <v>91</v>
-      </c>
       <c r="M109">
-        <v>3.62</v>
+        <v>3.5679</v>
       </c>
       <c r="N109">
         <v>108</v>
@@ -6463,31 +6454,31 @@
         <v>16</v>
       </c>
       <c r="E110" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G110" t="s">
-        <v>212</v>
+        <v>126</v>
       </c>
       <c r="H110" t="s">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="I110" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J110" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K110" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="L110" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="M110">
-        <v>3.5727</v>
+        <v>3.5591</v>
       </c>
       <c r="N110">
         <v>109</v>
@@ -6498,40 +6489,40 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C111" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D111" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E111" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="F111" t="s">
         <v>17</v>
       </c>
       <c r="G111" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H111" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="I111" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="J111" t="s">
         <v>17</v>
       </c>
       <c r="K111" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="L111" t="s">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="M111">
-        <v>3.5679</v>
+        <v>3.536</v>
       </c>
       <c r="N111">
         <v>110</v>
@@ -6551,31 +6542,31 @@
         <v>16</v>
       </c>
       <c r="E112" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="F112" t="s">
         <v>17</v>
       </c>
       <c r="G112" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H112" t="s">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="I112" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="J112" t="s">
         <v>17</v>
       </c>
       <c r="K112" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="L112" t="s">
-        <v>130</v>
+        <v>237</v>
       </c>
       <c r="M112">
-        <v>3.536</v>
+        <v>3.528</v>
       </c>
       <c r="N112">
         <v>111</v>
@@ -6595,31 +6586,31 @@
         <v>16</v>
       </c>
       <c r="E113" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G113" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="H113" t="s">
-        <v>212</v>
+        <v>126</v>
       </c>
       <c r="I113" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="J113" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K113" t="s">
         <v>22</v>
       </c>
       <c r="L113" t="s">
-        <v>242</v>
+        <v>155</v>
       </c>
       <c r="M113">
-        <v>3.528</v>
+        <v>3.488</v>
       </c>
       <c r="N113">
         <v>112</v>
@@ -6636,34 +6627,34 @@
         <v>248</v>
       </c>
       <c r="D114" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E114" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G114" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H114" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="I114" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J114" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="K114" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L114" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="M114">
-        <v>3.488</v>
+        <v>3.4786</v>
       </c>
       <c r="N114">
         <v>113</v>
@@ -6680,7 +6671,7 @@
         <v>250</v>
       </c>
       <c r="D115" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E115" t="s">
         <v>22</v>
@@ -6689,13 +6680,13 @@
         <v>17</v>
       </c>
       <c r="G115" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="H115" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I115" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="J115" t="s">
         <v>22</v>
@@ -6704,10 +6695,10 @@
         <v>17</v>
       </c>
       <c r="L115" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="M115">
-        <v>3.4786</v>
+        <v>3.468</v>
       </c>
       <c r="N115">
         <v>114</v>
@@ -6724,22 +6715,22 @@
         <v>252</v>
       </c>
       <c r="D116" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E116" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F116" t="s">
         <v>22</v>
       </c>
       <c r="G116" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H116" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I116" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J116" t="s">
         <v>17</v>
@@ -6748,7 +6739,7 @@
         <v>22</v>
       </c>
       <c r="L116" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M116">
         <v>3.3179</v>

--- a/output/Results - sem2 (Extended).xlsx
+++ b/output/Results - sem2 (Extended).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="293">
   <si>
     <t>Rank</t>
   </si>
@@ -457,6 +457,12 @@
     <t>ABISHEK L.</t>
   </si>
   <si>
+    <t>230727</t>
+  </si>
+  <si>
+    <t>WIJESINGHE W.A.P.W.</t>
+  </si>
+  <si>
     <t>230211</t>
   </si>
   <si>
@@ -514,12 +520,6 @@
     <t>UMAIR A.</t>
   </si>
   <si>
-    <t>230727</t>
-  </si>
-  <si>
-    <t>WIJESINGHE W.A.P.W.</t>
-  </si>
-  <si>
     <t>230052</t>
   </si>
   <si>
@@ -811,7 +811,7 @@
     <t>16(13.9%)</t>
   </si>
   <si>
-    <t>49(42.6%)</t>
+    <t>50(43.5%)</t>
   </si>
   <si>
     <t>41(35.7%)</t>
@@ -830,6 +830,9 @@
   </si>
   <si>
     <t>1(0.9%)</t>
+  </si>
+  <si>
+    <t>22(19.1%)</t>
   </si>
   <si>
     <t>18(15.7%)</t>
@@ -1502,22 +1505,22 @@
         <v>271</v>
       </c>
       <c r="U4" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="V4" t="s">
         <v>256</v>
       </c>
       <c r="W4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -1567,31 +1570,31 @@
         <v>126</v>
       </c>
       <c r="R5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="T5" t="s">
         <v>271</v>
       </c>
       <c r="U5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="V5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="X5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -1638,34 +1641,34 @@
         <v>3</v>
       </c>
       <c r="Q6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="R6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="V6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="W6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1715,31 +1718,31 @@
         <v>210</v>
       </c>
       <c r="R7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U7" t="s">
         <v>271</v>
       </c>
       <c r="V7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="W7" t="s">
         <v>271</v>
       </c>
       <c r="X7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1789,31 +1792,31 @@
         <v>237</v>
       </c>
       <c r="R8" t="s">
+        <v>283</v>
+      </c>
+      <c r="S8" t="s">
+        <v>283</v>
+      </c>
+      <c r="T8" t="s">
+        <v>283</v>
+      </c>
+      <c r="U8" t="s">
+        <v>283</v>
+      </c>
+      <c r="V8" t="s">
+        <v>283</v>
+      </c>
+      <c r="W8" t="s">
+        <v>283</v>
+      </c>
+      <c r="X8" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z8" t="s">
         <v>282</v>
-      </c>
-      <c r="S8" t="s">
-        <v>282</v>
-      </c>
-      <c r="T8" t="s">
-        <v>282</v>
-      </c>
-      <c r="U8" t="s">
-        <v>282</v>
-      </c>
-      <c r="V8" t="s">
-        <v>282</v>
-      </c>
-      <c r="W8" t="s">
-        <v>282</v>
-      </c>
-      <c r="X8" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1860,34 +1863,34 @@
         <v>8</v>
       </c>
       <c r="Q9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="V9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1934,34 +1937,34 @@
         <v>9</v>
       </c>
       <c r="Q10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="V10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -2008,34 +2011,34 @@
         <v>9</v>
       </c>
       <c r="Q11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="V11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -2082,34 +2085,34 @@
         <v>9</v>
       </c>
       <c r="Q12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="V12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -2156,34 +2159,34 @@
         <v>9</v>
       </c>
       <c r="Q13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="V13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -2230,34 +2233,34 @@
         <v>9</v>
       </c>
       <c r="Q14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="V14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -3662,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="M46">
-        <v>3.9571</v>
+        <v>3.957</v>
       </c>
       <c r="N46">
         <v>45</v>
@@ -4498,7 +4501,7 @@
         <v>22</v>
       </c>
       <c r="M65">
-        <v>3.9143</v>
+        <v>3.914</v>
       </c>
       <c r="N65">
         <v>64</v>
@@ -4515,7 +4518,7 @@
         <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -4533,16 +4536,16 @@
         <v>22</v>
       </c>
       <c r="J66" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K66" t="s">
         <v>17</v>
       </c>
       <c r="L66" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="M66">
-        <v>3.892</v>
+        <v>3.893</v>
       </c>
       <c r="N66">
         <v>65</v>
@@ -4559,7 +4562,7 @@
         <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E67" t="s">
         <v>22</v>
@@ -4571,22 +4574,22 @@
         <v>22</v>
       </c>
       <c r="H67" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I67" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="J67" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L67" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="M67">
-        <v>3.8821</v>
+        <v>3.892</v>
       </c>
       <c r="N67">
         <v>66</v>
@@ -4603,10 +4606,10 @@
         <v>152</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E68" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
@@ -4615,10 +4618,10 @@
         <v>22</v>
       </c>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I68" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="J68" t="s">
         <v>17</v>
@@ -4630,7 +4633,7 @@
         <v>126</v>
       </c>
       <c r="M68">
-        <v>3.88</v>
+        <v>3.882</v>
       </c>
       <c r="N68">
         <v>67</v>
@@ -4638,7 +4641,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>153</v>
@@ -4650,7 +4653,7 @@
         <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
@@ -4659,7 +4662,7 @@
         <v>22</v>
       </c>
       <c r="H69" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I69" t="s">
         <v>17</v>
@@ -4668,65 +4671,65 @@
         <v>17</v>
       </c>
       <c r="K69" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L69" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="M69">
         <v>3.88</v>
       </c>
       <c r="N69">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" t="s">
         <v>156</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" t="s">
+        <v>22</v>
+      </c>
+      <c r="I70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" t="s">
         <v>157</v>
-      </c>
-      <c r="D70" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s">
-        <v>22</v>
-      </c>
-      <c r="H70" t="s">
-        <v>126</v>
-      </c>
-      <c r="I70" t="s">
-        <v>22</v>
-      </c>
-      <c r="J70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K70" t="s">
-        <v>17</v>
-      </c>
-      <c r="L70" t="s">
-        <v>89</v>
       </c>
       <c r="M70">
         <v>3.88</v>
       </c>
       <c r="N70">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
         <v>158</v>
@@ -4747,19 +4750,19 @@
         <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I71" t="s">
         <v>22</v>
       </c>
       <c r="J71" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K71" t="s">
         <v>17</v>
       </c>
       <c r="L71" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="M71">
         <v>3.88</v>
@@ -4770,7 +4773,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
         <v>160</v>
@@ -4782,39 +4785,39 @@
         <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
       </c>
       <c r="G72" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="H72" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I72" t="s">
         <v>22</v>
       </c>
       <c r="J72" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s">
         <v>17</v>
       </c>
       <c r="L72" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="M72">
         <v>3.88</v>
       </c>
       <c r="N72">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B73" t="s">
         <v>162</v>
@@ -4838,22 +4841,22 @@
         <v>89</v>
       </c>
       <c r="I73" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="J73" t="s">
         <v>17</v>
       </c>
       <c r="K73" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L73" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="M73">
-        <v>3.868</v>
+        <v>3.88</v>
       </c>
       <c r="N73">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4873,28 +4876,28 @@
         <v>22</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I74" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J74" t="s">
         <v>17</v>
       </c>
       <c r="K74" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L74" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M74">
-        <v>3.852</v>
+        <v>3.868</v>
       </c>
       <c r="N74">
         <v>73</v>
@@ -4911,19 +4914,19 @@
         <v>167</v>
       </c>
       <c r="D75" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E75" t="s">
         <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G75" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="H75" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I75" t="s">
         <v>22</v>
@@ -4935,10 +4938,10 @@
         <v>17</v>
       </c>
       <c r="L75" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="M75">
-        <v>3.85</v>
+        <v>3.852</v>
       </c>
       <c r="N75">
         <v>74</v>
@@ -4946,7 +4949,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>168</v>
@@ -5023,7 +5026,7 @@
         <v>17</v>
       </c>
       <c r="L77" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M77">
         <v>3.844</v>
@@ -5067,7 +5070,7 @@
         <v>17</v>
       </c>
       <c r="L78" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M78">
         <v>3.844</v>
@@ -5331,10 +5334,10 @@
         <v>17</v>
       </c>
       <c r="L84" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M84">
-        <v>3.8179</v>
+        <v>3.818</v>
       </c>
       <c r="N84">
         <v>83</v>
@@ -5407,7 +5410,7 @@
         <v>22</v>
       </c>
       <c r="H86" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I86" t="s">
         <v>22</v>
@@ -5595,10 +5598,10 @@
         <v>17</v>
       </c>
       <c r="L90" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M90">
-        <v>3.7536</v>
+        <v>3.754</v>
       </c>
       <c r="N90">
         <v>89</v>
@@ -5639,7 +5642,7 @@
         <v>17</v>
       </c>
       <c r="L91" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M91">
         <v>3.748</v>
@@ -5671,7 +5674,7 @@
         <v>89</v>
       </c>
       <c r="H92" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I92" t="s">
         <v>22</v>
@@ -5727,7 +5730,7 @@
         <v>17</v>
       </c>
       <c r="L93" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M93">
         <v>3.748</v>
@@ -5947,7 +5950,7 @@
         <v>17</v>
       </c>
       <c r="L98" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M98">
         <v>3.684</v>
@@ -6035,7 +6038,7 @@
         <v>22</v>
       </c>
       <c r="L100" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M100">
         <v>3.664</v>
@@ -6064,7 +6067,7 @@
         <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H101" t="s">
         <v>89</v>
@@ -6108,7 +6111,7 @@
         <v>17</v>
       </c>
       <c r="G102" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H102" t="s">
         <v>210</v>
@@ -6170,7 +6173,7 @@
         <v>210</v>
       </c>
       <c r="M103">
-        <v>3.6429</v>
+        <v>3.643</v>
       </c>
       <c r="N103">
         <v>102</v>
@@ -6211,7 +6214,7 @@
         <v>22</v>
       </c>
       <c r="L104" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M104">
         <v>3.636</v>
@@ -6240,7 +6243,7 @@
         <v>22</v>
       </c>
       <c r="G105" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H105" t="s">
         <v>89</v>
@@ -6419,7 +6422,7 @@
         <v>126</v>
       </c>
       <c r="H109" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I109" t="s">
         <v>89</v>
@@ -6434,7 +6437,7 @@
         <v>237</v>
       </c>
       <c r="M109">
-        <v>3.5679</v>
+        <v>3.568</v>
       </c>
       <c r="N109">
         <v>108</v>
@@ -6478,7 +6481,7 @@
         <v>240</v>
       </c>
       <c r="M110">
-        <v>3.5591</v>
+        <v>3.559</v>
       </c>
       <c r="N110">
         <v>109</v>
@@ -6592,7 +6595,7 @@
         <v>22</v>
       </c>
       <c r="G113" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H113" t="s">
         <v>126</v>
@@ -6607,7 +6610,7 @@
         <v>22</v>
       </c>
       <c r="L113" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M113">
         <v>3.488</v>
@@ -6636,7 +6639,7 @@
         <v>17</v>
       </c>
       <c r="G114" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H114" t="s">
         <v>210</v>
@@ -6654,7 +6657,7 @@
         <v>210</v>
       </c>
       <c r="M114">
-        <v>3.4786</v>
+        <v>3.479</v>
       </c>
       <c r="N114">
         <v>113</v>
@@ -6695,7 +6698,7 @@
         <v>17</v>
       </c>
       <c r="L115" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M115">
         <v>3.468</v>
@@ -6739,10 +6742,10 @@
         <v>22</v>
       </c>
       <c r="L116" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M116">
-        <v>3.3179</v>
+        <v>3.318</v>
       </c>
       <c r="N116">
         <v>115</v>

--- a/output/Results - sem2 (Extended).xlsx
+++ b/output/Results - sem2 (Extended).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="293">
   <si>
     <t>Rank</t>
   </si>
@@ -376,18 +376,18 @@
     <t>WEDAMESTRIGE A.N.</t>
   </si>
   <si>
+    <t>230197</t>
+  </si>
+  <si>
+    <t>GARUSINGHE S.B.</t>
+  </si>
+  <si>
     <t>230155</t>
   </si>
   <si>
     <t>DISSANAYAKA D.M.D.P.</t>
   </si>
   <si>
-    <t>230197</t>
-  </si>
-  <si>
-    <t>GARUSINGHE S.B.</t>
-  </si>
-  <si>
     <t>230492</t>
   </si>
   <si>
@@ -691,18 +691,18 @@
     <t>SANTHOSH S.</t>
   </si>
   <si>
+    <t>230208</t>
+  </si>
+  <si>
+    <t>GUNASEKARA H.M.</t>
+  </si>
+  <si>
     <t>230033</t>
   </si>
   <si>
     <t>AMARASINGHE A.A.D.K.</t>
   </si>
   <si>
-    <t>230208</t>
-  </si>
-  <si>
-    <t>GUNASEKARA H.M.</t>
-  </si>
-  <si>
     <t>230444</t>
   </si>
   <si>
@@ -730,6 +730,42 @@
     <t>C+</t>
   </si>
   <si>
+    <t>230183</t>
+  </si>
+  <si>
+    <t>FERNANDO LTJ</t>
+  </si>
+  <si>
+    <t>230224</t>
+  </si>
+  <si>
+    <t>HAKAM M.R.A.</t>
+  </si>
+  <si>
+    <t>230203</t>
+  </si>
+  <si>
+    <t>GUNARATHNA K.T.M.B.</t>
+  </si>
+  <si>
+    <t>230238</t>
+  </si>
+  <si>
+    <t>HENDENIYA H.M.J.C.</t>
+  </si>
+  <si>
+    <t>230564</t>
+  </si>
+  <si>
+    <t>SAMARASEKARA S.M.R.P.</t>
+  </si>
+  <si>
+    <t>230449</t>
+  </si>
+  <si>
+    <t>NUWANAKA W.A.S.</t>
+  </si>
+  <si>
     <t>230493</t>
   </si>
   <si>
@@ -737,42 +773,6 @@
   </si>
   <si>
     <t>I-we</t>
-  </si>
-  <si>
-    <t>230183</t>
-  </si>
-  <si>
-    <t>FERNANDO LTJ</t>
-  </si>
-  <si>
-    <t>230224</t>
-  </si>
-  <si>
-    <t>HAKAM M.R.A.</t>
-  </si>
-  <si>
-    <t>230203</t>
-  </si>
-  <si>
-    <t>GUNARATHNA K.T.M.B.</t>
-  </si>
-  <si>
-    <t>230238</t>
-  </si>
-  <si>
-    <t>HENDENIYA H.M.J.C.</t>
-  </si>
-  <si>
-    <t>230564</t>
-  </si>
-  <si>
-    <t>SAMARASEKARA S.M.R.P.</t>
-  </si>
-  <si>
-    <t>230449</t>
-  </si>
-  <si>
-    <t>NUWANAKA W.A.S.</t>
   </si>
   <si>
     <t>1(6.7%)</t>
@@ -2306,6 +2306,36 @@
       <c r="N15">
         <v>9</v>
       </c>
+      <c r="Q15" t="s">
+        <v>252</v>
+      </c>
+      <c r="R15" t="s">
+        <v>283</v>
+      </c>
+      <c r="S15" t="s">
+        <v>283</v>
+      </c>
+      <c r="T15" t="s">
+        <v>283</v>
+      </c>
+      <c r="U15" t="s">
+        <v>283</v>
+      </c>
+      <c r="V15" t="s">
+        <v>283</v>
+      </c>
+      <c r="W15" t="s">
+        <v>283</v>
+      </c>
+      <c r="X15" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16">
@@ -3949,28 +3979,28 @@
         <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H53" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J53" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L53" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M53">
         <v>3.928</v>
@@ -3981,7 +4011,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>122</v>
@@ -3993,31 +4023,31 @@
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H54" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I54" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J54" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L54" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="M54">
-        <v>3.928</v>
+        <v>3.927</v>
       </c>
       <c r="N54">
         <v>53</v>
@@ -4545,7 +4575,7 @@
         <v>126</v>
       </c>
       <c r="M66">
-        <v>3.893</v>
+        <v>3.892</v>
       </c>
       <c r="N66">
         <v>65</v>
@@ -4553,7 +4583,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>149</v>
@@ -5337,7 +5367,7 @@
         <v>157</v>
       </c>
       <c r="M84">
-        <v>3.818</v>
+        <v>3.817</v>
       </c>
       <c r="N84">
         <v>83</v>
@@ -5601,7 +5631,7 @@
         <v>157</v>
       </c>
       <c r="M90">
-        <v>3.754</v>
+        <v>3.753</v>
       </c>
       <c r="N90">
         <v>89</v>
@@ -5645,7 +5675,7 @@
         <v>157</v>
       </c>
       <c r="M91">
-        <v>3.748</v>
+        <v>3.747</v>
       </c>
       <c r="N91">
         <v>90</v>
@@ -5689,7 +5719,7 @@
         <v>126</v>
       </c>
       <c r="M92">
-        <v>3.748</v>
+        <v>3.747</v>
       </c>
       <c r="N92">
         <v>90</v>
@@ -5733,7 +5763,7 @@
         <v>157</v>
       </c>
       <c r="M93">
-        <v>3.748</v>
+        <v>3.747</v>
       </c>
       <c r="N93">
         <v>92</v>
@@ -5953,7 +5983,7 @@
         <v>157</v>
       </c>
       <c r="M98">
-        <v>3.684</v>
+        <v>3.683</v>
       </c>
       <c r="N98">
         <v>97</v>
@@ -5997,7 +6027,7 @@
         <v>126</v>
       </c>
       <c r="M99">
-        <v>3.684</v>
+        <v>3.683</v>
       </c>
       <c r="N99">
         <v>98</v>
@@ -6041,7 +6071,7 @@
         <v>157</v>
       </c>
       <c r="M100">
-        <v>3.664</v>
+        <v>3.663</v>
       </c>
       <c r="N100">
         <v>99</v>
@@ -6129,7 +6159,7 @@
         <v>89</v>
       </c>
       <c r="M102">
-        <v>3.648</v>
+        <v>3.647</v>
       </c>
       <c r="N102">
         <v>101</v>
@@ -6173,7 +6203,7 @@
         <v>210</v>
       </c>
       <c r="M103">
-        <v>3.643</v>
+        <v>3.642</v>
       </c>
       <c r="N103">
         <v>102</v>
@@ -6199,22 +6229,22 @@
         <v>22</v>
       </c>
       <c r="G104" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="I104" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="J104" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="K104" t="s">
         <v>22</v>
       </c>
       <c r="L104" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="M104">
         <v>3.636</v>
@@ -6225,7 +6255,7 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>227</v>
@@ -6243,28 +6273,28 @@
         <v>22</v>
       </c>
       <c r="G105" t="s">
+        <v>89</v>
+      </c>
+      <c r="H105" t="s">
+        <v>126</v>
+      </c>
+      <c r="I105" t="s">
+        <v>126</v>
+      </c>
+      <c r="J105" t="s">
+        <v>22</v>
+      </c>
+      <c r="K105" t="s">
+        <v>22</v>
+      </c>
+      <c r="L105" t="s">
         <v>157</v>
       </c>
-      <c r="H105" t="s">
-        <v>89</v>
-      </c>
-      <c r="I105" t="s">
-        <v>89</v>
-      </c>
-      <c r="J105" t="s">
-        <v>89</v>
-      </c>
-      <c r="K105" t="s">
-        <v>22</v>
-      </c>
-      <c r="L105" t="s">
-        <v>126</v>
-      </c>
       <c r="M105">
-        <v>3.636</v>
+        <v>3.635</v>
       </c>
       <c r="N105">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -6437,7 +6467,7 @@
         <v>237</v>
       </c>
       <c r="M109">
-        <v>3.568</v>
+        <v>3.567</v>
       </c>
       <c r="N109">
         <v>108</v>
@@ -6457,19 +6487,19 @@
         <v>16</v>
       </c>
       <c r="E110" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G110" t="s">
         <v>126</v>
       </c>
       <c r="H110" t="s">
-        <v>210</v>
+        <v>89</v>
       </c>
       <c r="I110" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="J110" t="s">
         <v>17</v>
@@ -6478,10 +6508,10 @@
         <v>89</v>
       </c>
       <c r="L110" t="s">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="M110">
-        <v>3.559</v>
+        <v>3.536</v>
       </c>
       <c r="N110">
         <v>109</v>
@@ -6492,16 +6522,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>240</v>
+      </c>
+      <c r="C111" t="s">
         <v>241</v>
       </c>
-      <c r="C111" t="s">
-        <v>242</v>
-      </c>
       <c r="D111" t="s">
         <v>16</v>
       </c>
       <c r="E111" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="F111" t="s">
         <v>17</v>
@@ -6510,22 +6540,22 @@
         <v>126</v>
       </c>
       <c r="H111" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="I111" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="J111" t="s">
         <v>17</v>
       </c>
       <c r="K111" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="L111" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="M111">
-        <v>3.536</v>
+        <v>3.528</v>
       </c>
       <c r="N111">
         <v>110</v>
@@ -6536,40 +6566,40 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>242</v>
+      </c>
+      <c r="C112" t="s">
         <v>243</v>
       </c>
-      <c r="C112" t="s">
-        <v>244</v>
-      </c>
       <c r="D112" t="s">
         <v>16</v>
       </c>
       <c r="E112" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G112" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="H112" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="I112" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="J112" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K112" t="s">
         <v>22</v>
       </c>
       <c r="L112" t="s">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="M112">
-        <v>3.528</v>
+        <v>3.487</v>
       </c>
       <c r="N112">
         <v>111</v>
@@ -6580,40 +6610,40 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>244</v>
+      </c>
+      <c r="C113" t="s">
         <v>245</v>
       </c>
-      <c r="C113" t="s">
-        <v>246</v>
-      </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E113" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G113" t="s">
         <v>157</v>
       </c>
       <c r="H113" t="s">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="I113" t="s">
         <v>126</v>
       </c>
       <c r="J113" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="K113" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L113" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="M113">
-        <v>3.488</v>
+        <v>3.478</v>
       </c>
       <c r="N113">
         <v>112</v>
@@ -6624,13 +6654,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>246</v>
+      </c>
+      <c r="C114" t="s">
         <v>247</v>
       </c>
-      <c r="C114" t="s">
-        <v>248</v>
-      </c>
       <c r="D114" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E114" t="s">
         <v>22</v>
@@ -6639,13 +6669,13 @@
         <v>17</v>
       </c>
       <c r="G114" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="H114" t="s">
         <v>210</v>
       </c>
       <c r="I114" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="J114" t="s">
         <v>22</v>
@@ -6654,10 +6684,10 @@
         <v>17</v>
       </c>
       <c r="L114" t="s">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="M114">
-        <v>3.479</v>
+        <v>3.468</v>
       </c>
       <c r="N114">
         <v>113</v>
@@ -6668,40 +6698,40 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>248</v>
+      </c>
+      <c r="C115" t="s">
         <v>249</v>
       </c>
-      <c r="C115" t="s">
-        <v>250</v>
-      </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="E115" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G115" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="H115" t="s">
         <v>210</v>
       </c>
       <c r="I115" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="J115" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K115" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L115" t="s">
         <v>157</v>
       </c>
       <c r="M115">
-        <v>3.468</v>
+        <v>3.317</v>
       </c>
       <c r="N115">
         <v>114</v>
@@ -6712,16 +6742,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>250</v>
+      </c>
+      <c r="C116" t="s">
         <v>251</v>
       </c>
-      <c r="C116" t="s">
-        <v>252</v>
-      </c>
       <c r="D116" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="E116" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="F116" t="s">
         <v>22</v>
@@ -6733,19 +6763,19 @@
         <v>210</v>
       </c>
       <c r="I116" t="s">
-        <v>210</v>
+        <v>89</v>
       </c>
       <c r="J116" t="s">
         <v>17</v>
       </c>
       <c r="K116" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="L116" t="s">
-        <v>157</v>
+        <v>252</v>
       </c>
       <c r="M116">
-        <v>3.318</v>
+        <v>3.132</v>
       </c>
       <c r="N116">
         <v>115</v>

--- a/output/Results - sem2 (Extended).xlsx
+++ b/output/Results - sem2 (Extended).xlsx
@@ -76,27 +76,27 @@
     <t>ELAPATHA C.D.</t>
   </si>
   <si>
+    <t>230476</t>
+  </si>
+  <si>
+    <t>PERERA G.M.B.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>230018</t>
   </si>
   <si>
     <t>ADIKARAM D.M.G.H.</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>230318</t>
   </si>
   <si>
     <t>KARIYAWASAM J.H.D.</t>
   </si>
   <si>
-    <t>230476</t>
-  </si>
-  <si>
-    <t>PERERA G.M.B.</t>
-  </si>
-  <si>
     <t>230266</t>
   </si>
   <si>
@@ -175,24 +175,24 @@
     <t>SAMARASINGHE S.M.R.R.</t>
   </si>
   <si>
+    <t>230508</t>
+  </si>
+  <si>
+    <t>RAHUL B.</t>
+  </si>
+  <si>
+    <t>230051</t>
+  </si>
+  <si>
+    <t>ARACHCHI A.D.I.D.</t>
+  </si>
+  <si>
     <t>230481</t>
   </si>
   <si>
     <t>PERERA K.W.A.O.V.</t>
   </si>
   <si>
-    <t>230508</t>
-  </si>
-  <si>
-    <t>RAHUL B.</t>
-  </si>
-  <si>
-    <t>230051</t>
-  </si>
-  <si>
-    <t>ARACHCHI A.D.I.D.</t>
-  </si>
-  <si>
     <t>230487</t>
   </si>
   <si>
@@ -235,6 +235,12 @@
     <t>DHANANJAYA K.T.G.T.N.</t>
   </si>
   <si>
+    <t>230332</t>
+  </si>
+  <si>
+    <t>KEERAWELLA K.P.C.P.</t>
+  </si>
+  <si>
     <t>230468</t>
   </si>
   <si>
@@ -259,12 +265,6 @@
     <t>RANATHUNGA R.J.K.O.H.</t>
   </si>
   <si>
-    <t>230332</t>
-  </si>
-  <si>
-    <t>KEERAWELLA K.P.C.P.</t>
-  </si>
-  <si>
     <t>230680</t>
   </si>
   <si>
@@ -370,6 +370,15 @@
     <t>ADHIKARI A.H.C.S.</t>
   </si>
   <si>
+    <t>230417</t>
+  </si>
+  <si>
+    <t>MUNASINGHE A.I.</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
     <t>230687</t>
   </si>
   <si>
@@ -394,9 +403,6 @@
     <t>PITIWADUGE D.N.</t>
   </si>
   <si>
-    <t>B+</t>
-  </si>
-  <si>
     <t>230045</t>
   </si>
   <si>
@@ -421,12 +427,6 @@
     <t>KARUNARATHNA G.K.T.</t>
   </si>
   <si>
-    <t>230417</t>
-  </si>
-  <si>
-    <t>MUNASINGHE A.I.</t>
-  </si>
-  <si>
     <t>230280</t>
   </si>
   <si>
@@ -457,16 +457,22 @@
     <t>ABISHEK L.</t>
   </si>
   <si>
+    <t>230211</t>
+  </si>
+  <si>
+    <t>GUNASEKARA K.S.</t>
+  </si>
+  <si>
     <t>230727</t>
   </si>
   <si>
     <t>WIJESINGHE W.A.P.W.</t>
   </si>
   <si>
-    <t>230211</t>
-  </si>
-  <si>
-    <t>GUNASEKARA K.S.</t>
+    <t>230212</t>
+  </si>
+  <si>
+    <t>GUNASEKARA L.U.A.</t>
   </si>
   <si>
     <t>230507</t>
@@ -496,12 +502,6 @@
     <t>UPEKSHANI T.S.</t>
   </si>
   <si>
-    <t>230212</t>
-  </si>
-  <si>
-    <t>GUNASEKARA L.U.A.</t>
-  </si>
-  <si>
     <t>230726</t>
   </si>
   <si>
@@ -574,6 +574,12 @@
     <t>GUNATHUNGA U.A.</t>
   </si>
   <si>
+    <t>230195</t>
+  </si>
+  <si>
+    <t>GAMAGE SK</t>
+  </si>
+  <si>
     <t>230735</t>
   </si>
   <si>
@@ -586,18 +592,18 @@
     <t>ABEYWARDHANA T.C.W.</t>
   </si>
   <si>
-    <t>230195</t>
-  </si>
-  <si>
-    <t>GAMAGE SK</t>
-  </si>
-  <si>
     <t>230229</t>
   </si>
   <si>
     <t>HANSINDU M.M.A.D.</t>
   </si>
   <si>
+    <t>230407</t>
+  </si>
+  <si>
+    <t>MEEDENIYA M.M.H.</t>
+  </si>
+  <si>
     <t>230261</t>
   </si>
   <si>
@@ -622,12 +628,6 @@
     <t>RANASINGHE A.G.N.S.</t>
   </si>
   <si>
-    <t>230407</t>
-  </si>
-  <si>
-    <t>MEEDENIYA M.M.H.</t>
-  </si>
-  <si>
     <t>230458</t>
   </si>
   <si>
@@ -685,28 +685,28 @@
     <t>ABEYWARNA D.H.</t>
   </si>
   <si>
+    <t>230208</t>
+  </si>
+  <si>
+    <t>GUNASEKARA H.M.</t>
+  </si>
+  <si>
     <t>230581</t>
   </si>
   <si>
     <t>SANTHOSH S.</t>
   </si>
   <si>
-    <t>230208</t>
-  </si>
-  <si>
-    <t>GUNASEKARA H.M.</t>
+    <t>230444</t>
+  </si>
+  <si>
+    <t>NIRMANI W.T.</t>
   </si>
   <si>
     <t>230033</t>
   </si>
   <si>
     <t>AMARASINGHE A.A.D.K.</t>
-  </si>
-  <si>
-    <t>230444</t>
-  </si>
-  <si>
-    <t>NIRMANI W.T.</t>
   </si>
   <si>
     <t>230268</t>
@@ -1478,13 +1478,13 @@
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M4">
         <v>4</v>
@@ -1564,10 +1564,10 @@
         <v>4</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="R5" t="s">
         <v>277</v>
@@ -1626,22 +1626,22 @@
         <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
         <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M6">
         <v>4</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="R6" t="s">
         <v>283</v>
@@ -1712,7 +1712,7 @@
         <v>4</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="s">
         <v>210</v>
@@ -2008,7 +2008,7 @@
         <v>4</v>
       </c>
       <c r="N11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q11" t="s">
         <v>289</v>
@@ -2082,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="N12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q12" t="s">
         <v>290</v>
@@ -2156,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="N13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q13" t="s">
         <v>291</v>
@@ -2230,7 +2230,7 @@
         <v>4</v>
       </c>
       <c r="N14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q14" t="s">
         <v>292</v>
@@ -2304,7 +2304,7 @@
         <v>4</v>
       </c>
       <c r="N15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q15" t="s">
         <v>252</v>
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="N18">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2510,7 +2510,7 @@
         <v>4</v>
       </c>
       <c r="N19">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2524,25 +2524,25 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I20" t="s">
         <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K20" t="s">
         <v>17</v>
@@ -2577,13 +2577,13 @@
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s">
         <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J21" t="s">
         <v>22</v>
@@ -2598,7 +2598,7 @@
         <v>4</v>
       </c>
       <c r="N21">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2612,10 +2612,10 @@
         <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -2624,13 +2624,13 @@
         <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K22" t="s">
         <v>17</v>
@@ -2642,7 +2642,7 @@
         <v>4</v>
       </c>
       <c r="N22">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2686,7 +2686,7 @@
         <v>4</v>
       </c>
       <c r="N23">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2964,7 +2964,7 @@
         <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
         <v>22</v>
@@ -2982,10 +2982,10 @@
         <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K30" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L30" t="s">
         <v>22</v>
@@ -2994,7 +2994,7 @@
         <v>4</v>
       </c>
       <c r="N30">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -3020,7 +3020,7 @@
         <v>22</v>
       </c>
       <c r="H31" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I31" t="s">
         <v>22</v>
@@ -3029,7 +3029,7 @@
         <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L31" t="s">
         <v>22</v>
@@ -3038,7 +3038,7 @@
         <v>4</v>
       </c>
       <c r="N31">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3082,7 +3082,7 @@
         <v>4</v>
       </c>
       <c r="N32">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3126,7 +3126,7 @@
         <v>4</v>
       </c>
       <c r="N33">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3140,7 +3140,7 @@
         <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
         <v>22</v>
@@ -3152,13 +3152,13 @@
         <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
         <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K34" t="s">
         <v>17</v>
@@ -3170,7 +3170,7 @@
         <v>4</v>
       </c>
       <c r="N34">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3299,7 +3299,7 @@
         <v>17</v>
       </c>
       <c r="M37">
-        <v>3.964</v>
+        <v>3.975</v>
       </c>
       <c r="N37">
         <v>36</v>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>90</v>
@@ -3343,7 +3343,7 @@
         <v>89</v>
       </c>
       <c r="M38">
-        <v>3.964</v>
+        <v>3.962</v>
       </c>
       <c r="N38">
         <v>37</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>92</v>
@@ -3387,7 +3387,7 @@
         <v>22</v>
       </c>
       <c r="M39">
-        <v>3.964</v>
+        <v>3.962</v>
       </c>
       <c r="N39">
         <v>37</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
         <v>94</v>
@@ -3431,7 +3431,7 @@
         <v>89</v>
       </c>
       <c r="M40">
-        <v>3.964</v>
+        <v>3.962</v>
       </c>
       <c r="N40">
         <v>39</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
         <v>96</v>
@@ -3475,7 +3475,7 @@
         <v>89</v>
       </c>
       <c r="M41">
-        <v>3.964</v>
+        <v>3.962</v>
       </c>
       <c r="N41">
         <v>40</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
         <v>98</v>
@@ -3519,15 +3519,15 @@
         <v>89</v>
       </c>
       <c r="M42">
-        <v>3.964</v>
+        <v>3.962</v>
       </c>
       <c r="N42">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
         <v>100</v>
@@ -3563,15 +3563,15 @@
         <v>17</v>
       </c>
       <c r="M43">
-        <v>3.964</v>
+        <v>3.962</v>
       </c>
       <c r="N43">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
         <v>102</v>
@@ -3607,7 +3607,7 @@
         <v>89</v>
       </c>
       <c r="M44">
-        <v>3.964</v>
+        <v>3.962</v>
       </c>
       <c r="N44">
         <v>43</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
         <v>104</v>
@@ -3651,7 +3651,7 @@
         <v>22</v>
       </c>
       <c r="M45">
-        <v>3.964</v>
+        <v>3.962</v>
       </c>
       <c r="N45">
         <v>44</v>
@@ -3695,7 +3695,7 @@
         <v>17</v>
       </c>
       <c r="M46">
-        <v>3.957</v>
+        <v>3.955</v>
       </c>
       <c r="N46">
         <v>45</v>
@@ -3739,7 +3739,7 @@
         <v>22</v>
       </c>
       <c r="M47">
-        <v>3.952</v>
+        <v>3.949</v>
       </c>
       <c r="N47">
         <v>46</v>
@@ -3783,7 +3783,7 @@
         <v>22</v>
       </c>
       <c r="M48">
-        <v>3.952</v>
+        <v>3.949</v>
       </c>
       <c r="N48">
         <v>47</v>
@@ -3827,7 +3827,7 @@
         <v>22</v>
       </c>
       <c r="M49">
-        <v>3.952</v>
+        <v>3.949</v>
       </c>
       <c r="N49">
         <v>48</v>
@@ -3871,7 +3871,7 @@
         <v>22</v>
       </c>
       <c r="M50">
-        <v>3.952</v>
+        <v>3.949</v>
       </c>
       <c r="N50">
         <v>48</v>
@@ -3915,7 +3915,7 @@
         <v>22</v>
       </c>
       <c r="M51">
-        <v>3.952</v>
+        <v>3.949</v>
       </c>
       <c r="N51">
         <v>50</v>
@@ -3938,7 +3938,7 @@
         <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="G52" t="s">
         <v>22</v>
@@ -3947,19 +3947,19 @@
         <v>22</v>
       </c>
       <c r="I52" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J52" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="K52" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L52" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="M52">
-        <v>3.94</v>
+        <v>3.941</v>
       </c>
       <c r="N52">
         <v>51</v>
@@ -3970,19 +3970,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="G53" t="s">
         <v>22</v>
@@ -3994,16 +3994,16 @@
         <v>17</v>
       </c>
       <c r="J53" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K53" t="s">
         <v>22</v>
       </c>
       <c r="L53" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="M53">
-        <v>3.928</v>
+        <v>3.937</v>
       </c>
       <c r="N53">
         <v>52</v>
@@ -4011,46 +4011,46 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D54" t="s">
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H54" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J54" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>3.927</v>
+        <v>3.937</v>
       </c>
       <c r="N54">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -4058,10 +4058,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D55" t="s">
         <v>16</v>
@@ -4076,10 +4076,10 @@
         <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I55" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J55" t="s">
         <v>17</v>
@@ -4088,10 +4088,10 @@
         <v>17</v>
       </c>
       <c r="L55" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="M55">
-        <v>3.916</v>
+        <v>3.924</v>
       </c>
       <c r="N55">
         <v>54</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>127</v>
@@ -4111,31 +4111,31 @@
         <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H56" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I56" t="s">
         <v>17</v>
       </c>
       <c r="J56" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K56" t="s">
         <v>17</v>
       </c>
       <c r="L56" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="M56">
-        <v>3.916</v>
+        <v>3.912</v>
       </c>
       <c r="N56">
         <v>55</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>129</v>
@@ -4155,7 +4155,7 @@
         <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
@@ -4164,13 +4164,13 @@
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="I57" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J57" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K57" t="s">
         <v>17</v>
@@ -4179,7 +4179,7 @@
         <v>22</v>
       </c>
       <c r="M57">
-        <v>3.916</v>
+        <v>3.912</v>
       </c>
       <c r="N57">
         <v>56</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
         <v>131</v>
@@ -4205,25 +4205,25 @@
         <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="H58" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="I58" t="s">
         <v>22</v>
       </c>
       <c r="J58" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K58" t="s">
         <v>17</v>
       </c>
       <c r="L58" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M58">
-        <v>3.916</v>
+        <v>3.912</v>
       </c>
       <c r="N58">
         <v>57</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
         <v>133</v>
@@ -4243,13 +4243,13 @@
         <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s">
         <v>22</v>
@@ -4258,24 +4258,24 @@
         <v>22</v>
       </c>
       <c r="J59" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K59" t="s">
         <v>17</v>
       </c>
       <c r="L59" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="M59">
-        <v>3.916</v>
+        <v>3.912</v>
       </c>
       <c r="N59">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
         <v>135</v>
@@ -4302,24 +4302,24 @@
         <v>22</v>
       </c>
       <c r="J60" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="K60" t="s">
         <v>17</v>
       </c>
       <c r="L60" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="M60">
-        <v>3.916</v>
+        <v>3.912</v>
       </c>
       <c r="N60">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
         <v>137</v>
@@ -4355,15 +4355,15 @@
         <v>22</v>
       </c>
       <c r="M61">
-        <v>3.916</v>
+        <v>3.912</v>
       </c>
       <c r="N61">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
         <v>139</v>
@@ -4396,10 +4396,10 @@
         <v>22</v>
       </c>
       <c r="L62" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M62">
-        <v>3.916</v>
+        <v>3.912</v>
       </c>
       <c r="N62">
         <v>61</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s">
         <v>141</v>
@@ -4443,7 +4443,7 @@
         <v>89</v>
       </c>
       <c r="M63">
-        <v>3.916</v>
+        <v>3.912</v>
       </c>
       <c r="N63">
         <v>61</v>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
         <v>143</v>
@@ -4487,7 +4487,7 @@
         <v>89</v>
       </c>
       <c r="M64">
-        <v>3.916</v>
+        <v>3.912</v>
       </c>
       <c r="N64">
         <v>61</v>
@@ -4531,7 +4531,7 @@
         <v>22</v>
       </c>
       <c r="M65">
-        <v>3.914</v>
+        <v>3.911</v>
       </c>
       <c r="N65">
         <v>64</v>
@@ -4548,7 +4548,7 @@
         <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -4566,16 +4566,16 @@
         <v>22</v>
       </c>
       <c r="J66" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s">
         <v>17</v>
       </c>
       <c r="L66" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="M66">
-        <v>3.892</v>
+        <v>3.9</v>
       </c>
       <c r="N66">
         <v>65</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>149</v>
@@ -4592,7 +4592,7 @@
         <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E67" t="s">
         <v>22</v>
@@ -4610,16 +4610,16 @@
         <v>22</v>
       </c>
       <c r="J67" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K67" t="s">
         <v>17</v>
       </c>
       <c r="L67" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="M67">
-        <v>3.892</v>
+        <v>3.888</v>
       </c>
       <c r="N67">
         <v>66</v>
@@ -4636,10 +4636,10 @@
         <v>152</v>
       </c>
       <c r="D68" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
@@ -4651,19 +4651,19 @@
         <v>22</v>
       </c>
       <c r="I68" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="J68" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L68" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M68">
-        <v>3.882</v>
+        <v>3.887</v>
       </c>
       <c r="N68">
         <v>67</v>
@@ -4680,10 +4680,10 @@
         <v>154</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E69" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
@@ -4692,10 +4692,10 @@
         <v>22</v>
       </c>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I69" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="J69" t="s">
         <v>17</v>
@@ -4704,10 +4704,10 @@
         <v>22</v>
       </c>
       <c r="L69" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M69">
-        <v>3.88</v>
+        <v>3.877</v>
       </c>
       <c r="N69">
         <v>68</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>155</v>
@@ -4727,7 +4727,7 @@
         <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
@@ -4736,7 +4736,7 @@
         <v>22</v>
       </c>
       <c r="H70" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I70" t="s">
         <v>17</v>
@@ -4745,65 +4745,65 @@
         <v>17</v>
       </c>
       <c r="K70" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L70" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="M70">
-        <v>3.88</v>
+        <v>3.875</v>
       </c>
       <c r="N70">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" t="s">
         <v>158</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" t="s">
         <v>159</v>
       </c>
-      <c r="D71" t="s">
-        <v>16</v>
-      </c>
-      <c r="E71" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s">
-        <v>22</v>
-      </c>
-      <c r="H71" t="s">
-        <v>126</v>
-      </c>
-      <c r="I71" t="s">
-        <v>22</v>
-      </c>
-      <c r="J71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K71" t="s">
-        <v>17</v>
-      </c>
-      <c r="L71" t="s">
-        <v>89</v>
-      </c>
       <c r="M71">
-        <v>3.88</v>
+        <v>3.875</v>
       </c>
       <c r="N71">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
         <v>160</v>
@@ -4824,22 +4824,22 @@
         <v>22</v>
       </c>
       <c r="H72" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="I72" t="s">
         <v>22</v>
       </c>
       <c r="J72" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K72" t="s">
         <v>17</v>
       </c>
       <c r="L72" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="M72">
-        <v>3.88</v>
+        <v>3.875</v>
       </c>
       <c r="N72">
         <v>71</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
         <v>162</v>
@@ -4883,10 +4883,10 @@
         <v>89</v>
       </c>
       <c r="M73">
-        <v>3.88</v>
+        <v>3.875</v>
       </c>
       <c r="N73">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4927,7 +4927,7 @@
         <v>22</v>
       </c>
       <c r="M74">
-        <v>3.868</v>
+        <v>3.862</v>
       </c>
       <c r="N74">
         <v>73</v>
@@ -4953,7 +4953,7 @@
         <v>22</v>
       </c>
       <c r="G75" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H75" t="s">
         <v>22</v>
@@ -4971,7 +4971,7 @@
         <v>89</v>
       </c>
       <c r="M75">
-        <v>3.852</v>
+        <v>3.845</v>
       </c>
       <c r="N75">
         <v>74</v>
@@ -5012,10 +5012,10 @@
         <v>22</v>
       </c>
       <c r="L76" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M76">
-        <v>3.85</v>
+        <v>3.844</v>
       </c>
       <c r="N76">
         <v>75</v>
@@ -5056,10 +5056,10 @@
         <v>17</v>
       </c>
       <c r="L77" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M77">
-        <v>3.844</v>
+        <v>3.837</v>
       </c>
       <c r="N77">
         <v>76</v>
@@ -5100,10 +5100,10 @@
         <v>17</v>
       </c>
       <c r="L78" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M78">
-        <v>3.844</v>
+        <v>3.837</v>
       </c>
       <c r="N78">
         <v>76</v>
@@ -5132,7 +5132,7 @@
         <v>22</v>
       </c>
       <c r="H79" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I79" t="s">
         <v>17</v>
@@ -5147,7 +5147,7 @@
         <v>89</v>
       </c>
       <c r="M79">
-        <v>3.844</v>
+        <v>3.837</v>
       </c>
       <c r="N79">
         <v>78</v>
@@ -5167,7 +5167,7 @@
         <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
@@ -5188,10 +5188,10 @@
         <v>22</v>
       </c>
       <c r="L80" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M80">
-        <v>3.832</v>
+        <v>3.825</v>
       </c>
       <c r="N80">
         <v>79</v>
@@ -5232,10 +5232,10 @@
         <v>17</v>
       </c>
       <c r="L81" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M81">
-        <v>3.832</v>
+        <v>3.825</v>
       </c>
       <c r="N81">
         <v>80</v>
@@ -5264,7 +5264,7 @@
         <v>89</v>
       </c>
       <c r="H82" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I82" t="s">
         <v>22</v>
@@ -5279,7 +5279,7 @@
         <v>22</v>
       </c>
       <c r="M82">
-        <v>3.832</v>
+        <v>3.825</v>
       </c>
       <c r="N82">
         <v>81</v>
@@ -5302,7 +5302,7 @@
         <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G83" t="s">
         <v>22</v>
@@ -5320,10 +5320,10 @@
         <v>22</v>
       </c>
       <c r="L83" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M83">
-        <v>3.824</v>
+        <v>3.816</v>
       </c>
       <c r="N83">
         <v>82</v>
@@ -5352,7 +5352,7 @@
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I84" t="s">
         <v>22</v>
@@ -5364,10 +5364,10 @@
         <v>17</v>
       </c>
       <c r="L84" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M84">
-        <v>3.817</v>
+        <v>3.811</v>
       </c>
       <c r="N84">
         <v>83</v>
@@ -5387,31 +5387,31 @@
         <v>16</v>
       </c>
       <c r="E85" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F85" t="s">
         <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="H85" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="I85" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="J85" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K85" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L85" t="s">
         <v>22</v>
       </c>
       <c r="M85">
-        <v>3.804</v>
+        <v>3.8</v>
       </c>
       <c r="N85">
         <v>84</v>
@@ -5437,25 +5437,25 @@
         <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="H86" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="I86" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J86" t="s">
         <v>17</v>
       </c>
       <c r="K86" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L86" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="M86">
-        <v>3.796</v>
+        <v>3.795</v>
       </c>
       <c r="N86">
         <v>85</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>190</v>
@@ -5475,31 +5475,31 @@
         <v>16</v>
       </c>
       <c r="E87" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F87" t="s">
         <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="H87" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="I87" t="s">
         <v>22</v>
       </c>
       <c r="J87" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K87" t="s">
         <v>22</v>
       </c>
       <c r="L87" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="M87">
-        <v>3.796</v>
+        <v>3.787</v>
       </c>
       <c r="N87">
         <v>86</v>
@@ -5528,7 +5528,7 @@
         <v>89</v>
       </c>
       <c r="H88" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I88" t="s">
         <v>22</v>
@@ -5540,10 +5540,10 @@
         <v>17</v>
       </c>
       <c r="L88" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M88">
-        <v>3.784</v>
+        <v>3.775</v>
       </c>
       <c r="N88">
         <v>87</v>
@@ -5569,25 +5569,25 @@
         <v>17</v>
       </c>
       <c r="G89" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="H89" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I89" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J89" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="K89" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L89" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="M89">
-        <v>3.768</v>
+        <v>3.766</v>
       </c>
       <c r="N89">
         <v>88</v>
@@ -5604,16 +5604,16 @@
         <v>197</v>
       </c>
       <c r="D90" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G90" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="H90" t="s">
         <v>89</v>
@@ -5625,13 +5625,13 @@
         <v>17</v>
       </c>
       <c r="K90" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L90" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="M90">
-        <v>3.753</v>
+        <v>3.758</v>
       </c>
       <c r="N90">
         <v>89</v>
@@ -5648,19 +5648,19 @@
         <v>199</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="E91" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G91" t="s">
         <v>89</v>
       </c>
       <c r="H91" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="I91" t="s">
         <v>22</v>
@@ -5672,10 +5672,10 @@
         <v>17</v>
       </c>
       <c r="L91" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M91">
-        <v>3.747</v>
+        <v>3.744</v>
       </c>
       <c r="N91">
         <v>90</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>200</v>
@@ -5704,7 +5704,7 @@
         <v>89</v>
       </c>
       <c r="H92" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="I92" t="s">
         <v>22</v>
@@ -5716,18 +5716,18 @@
         <v>17</v>
       </c>
       <c r="L92" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="M92">
-        <v>3.747</v>
+        <v>3.737</v>
       </c>
       <c r="N92">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>202</v>
@@ -5745,28 +5745,28 @@
         <v>17</v>
       </c>
       <c r="G93" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="H93" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="I93" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="J93" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="K93" t="s">
         <v>17</v>
       </c>
       <c r="L93" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="M93">
-        <v>3.747</v>
+        <v>3.737</v>
       </c>
       <c r="N93">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -5792,7 +5792,7 @@
         <v>89</v>
       </c>
       <c r="H94" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I94" t="s">
         <v>89</v>
@@ -5804,10 +5804,10 @@
         <v>22</v>
       </c>
       <c r="L94" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M94">
-        <v>3.736</v>
+        <v>3.725</v>
       </c>
       <c r="N94">
         <v>93</v>
@@ -5833,7 +5833,7 @@
         <v>17</v>
       </c>
       <c r="G95" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H95" t="s">
         <v>89</v>
@@ -5851,7 +5851,7 @@
         <v>89</v>
       </c>
       <c r="M95">
-        <v>3.732</v>
+        <v>3.72</v>
       </c>
       <c r="N95">
         <v>94</v>
@@ -5880,7 +5880,7 @@
         <v>22</v>
       </c>
       <c r="H96" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I96" t="s">
         <v>89</v>
@@ -5895,7 +5895,7 @@
         <v>210</v>
       </c>
       <c r="M96">
-        <v>3.712</v>
+        <v>3.7</v>
       </c>
       <c r="N96">
         <v>95</v>
@@ -5921,7 +5921,7 @@
         <v>17</v>
       </c>
       <c r="G97" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H97" t="s">
         <v>89</v>
@@ -5939,7 +5939,7 @@
         <v>89</v>
       </c>
       <c r="M97">
-        <v>3.696</v>
+        <v>3.695</v>
       </c>
       <c r="N97">
         <v>96</v>
@@ -5971,7 +5971,7 @@
         <v>89</v>
       </c>
       <c r="I98" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J98" t="s">
         <v>17</v>
@@ -5980,10 +5980,10 @@
         <v>17</v>
       </c>
       <c r="L98" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M98">
-        <v>3.683</v>
+        <v>3.67</v>
       </c>
       <c r="N98">
         <v>97</v>
@@ -6009,10 +6009,10 @@
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H99" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I99" t="s">
         <v>22</v>
@@ -6024,10 +6024,10 @@
         <v>22</v>
       </c>
       <c r="L99" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M99">
-        <v>3.683</v>
+        <v>3.67</v>
       </c>
       <c r="N99">
         <v>98</v>
@@ -6047,7 +6047,7 @@
         <v>16</v>
       </c>
       <c r="E100" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F100" t="s">
         <v>17</v>
@@ -6056,7 +6056,7 @@
         <v>89</v>
       </c>
       <c r="H100" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I100" t="s">
         <v>22</v>
@@ -6068,10 +6068,10 @@
         <v>22</v>
       </c>
       <c r="L100" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M100">
-        <v>3.663</v>
+        <v>3.65</v>
       </c>
       <c r="N100">
         <v>99</v>
@@ -6097,13 +6097,13 @@
         <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H101" t="s">
         <v>89</v>
       </c>
       <c r="I101" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J101" t="s">
         <v>17</v>
@@ -6115,7 +6115,7 @@
         <v>22</v>
       </c>
       <c r="M101">
-        <v>3.656</v>
+        <v>3.641</v>
       </c>
       <c r="N101">
         <v>100</v>
@@ -6141,7 +6141,7 @@
         <v>17</v>
       </c>
       <c r="G102" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H102" t="s">
         <v>210</v>
@@ -6159,7 +6159,7 @@
         <v>89</v>
       </c>
       <c r="M102">
-        <v>3.647</v>
+        <v>3.633</v>
       </c>
       <c r="N102">
         <v>101</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>223</v>
@@ -6176,34 +6176,34 @@
         <v>224</v>
       </c>
       <c r="D103" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E103" t="s">
         <v>22</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G103" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="H103" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="I103" t="s">
         <v>89</v>
       </c>
       <c r="J103" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K103" t="s">
         <v>22</v>
       </c>
       <c r="L103" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="M103">
-        <v>3.642</v>
+        <v>3.633</v>
       </c>
       <c r="N103">
         <v>102</v>
@@ -6220,34 +6220,34 @@
         <v>226</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E104" t="s">
         <v>22</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G104" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="H104" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="I104" t="s">
         <v>89</v>
       </c>
       <c r="J104" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K104" t="s">
         <v>22</v>
       </c>
       <c r="L104" t="s">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="M104">
-        <v>3.636</v>
+        <v>3.629</v>
       </c>
       <c r="N104">
         <v>103</v>
@@ -6264,34 +6264,34 @@
         <v>228</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="E105" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G105" t="s">
         <v>89</v>
       </c>
       <c r="H105" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I105" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="J105" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="K105" t="s">
         <v>22</v>
       </c>
       <c r="L105" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="M105">
-        <v>3.635</v>
+        <v>3.622</v>
       </c>
       <c r="N105">
         <v>104</v>
@@ -6308,34 +6308,34 @@
         <v>230</v>
       </c>
       <c r="D106" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G106" t="s">
         <v>89</v>
       </c>
       <c r="H106" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I106" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="J106" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="K106" t="s">
         <v>22</v>
       </c>
       <c r="L106" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="M106">
-        <v>3.625</v>
+        <v>3.62</v>
       </c>
       <c r="N106">
         <v>105</v>
@@ -6361,13 +6361,13 @@
         <v>17</v>
       </c>
       <c r="G107" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H107" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I107" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J107" t="s">
         <v>17</v>
@@ -6379,7 +6379,7 @@
         <v>89</v>
       </c>
       <c r="M107">
-        <v>3.62</v>
+        <v>3.604</v>
       </c>
       <c r="N107">
         <v>106</v>
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="G108" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H108" t="s">
         <v>210</v>
@@ -6420,10 +6420,10 @@
         <v>17</v>
       </c>
       <c r="L108" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M108">
-        <v>3.612</v>
+        <v>3.595</v>
       </c>
       <c r="N108">
         <v>107</v>
@@ -6449,10 +6449,10 @@
         <v>17</v>
       </c>
       <c r="G109" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H109" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I109" t="s">
         <v>89</v>
@@ -6467,7 +6467,7 @@
         <v>237</v>
       </c>
       <c r="M109">
-        <v>3.567</v>
+        <v>3.551</v>
       </c>
       <c r="N109">
         <v>108</v>
@@ -6487,19 +6487,19 @@
         <v>16</v>
       </c>
       <c r="E110" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F110" t="s">
         <v>17</v>
       </c>
       <c r="G110" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H110" t="s">
         <v>89</v>
       </c>
       <c r="I110" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J110" t="s">
         <v>17</v>
@@ -6508,10 +6508,10 @@
         <v>89</v>
       </c>
       <c r="L110" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M110">
-        <v>3.536</v>
+        <v>3.516</v>
       </c>
       <c r="N110">
         <v>109</v>
@@ -6537,7 +6537,7 @@
         <v>17</v>
       </c>
       <c r="G111" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H111" t="s">
         <v>210</v>
@@ -6555,7 +6555,7 @@
         <v>237</v>
       </c>
       <c r="M111">
-        <v>3.528</v>
+        <v>3.508</v>
       </c>
       <c r="N111">
         <v>110</v>
@@ -6581,13 +6581,13 @@
         <v>22</v>
       </c>
       <c r="G112" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H112" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I112" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J112" t="s">
         <v>89</v>
@@ -6596,10 +6596,10 @@
         <v>22</v>
       </c>
       <c r="L112" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M112">
-        <v>3.487</v>
+        <v>3.479</v>
       </c>
       <c r="N112">
         <v>111</v>
@@ -6625,13 +6625,13 @@
         <v>17</v>
       </c>
       <c r="G113" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H113" t="s">
         <v>210</v>
       </c>
       <c r="I113" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J113" t="s">
         <v>22</v>
@@ -6643,7 +6643,7 @@
         <v>210</v>
       </c>
       <c r="M113">
-        <v>3.478</v>
+        <v>3.459</v>
       </c>
       <c r="N113">
         <v>112</v>
@@ -6684,10 +6684,10 @@
         <v>17</v>
       </c>
       <c r="L114" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M114">
-        <v>3.468</v>
+        <v>3.445</v>
       </c>
       <c r="N114">
         <v>113</v>
@@ -6704,16 +6704,16 @@
         <v>249</v>
       </c>
       <c r="D115" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E115" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F115" t="s">
         <v>22</v>
       </c>
       <c r="G115" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H115" t="s">
         <v>210</v>
@@ -6728,10 +6728,10 @@
         <v>22</v>
       </c>
       <c r="L115" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M115">
-        <v>3.317</v>
+        <v>3.292</v>
       </c>
       <c r="N115">
         <v>114</v>
@@ -6757,7 +6757,7 @@
         <v>22</v>
       </c>
       <c r="G116" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H116" t="s">
         <v>210</v>
@@ -6775,7 +6775,7 @@
         <v>252</v>
       </c>
       <c r="M116">
-        <v>3.132</v>
+        <v>3.095</v>
       </c>
       <c r="N116">
         <v>115</v>

--- a/output/Results - sem2 (Extended).xlsx
+++ b/output/Results - sem2 (Extended).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="292">
   <si>
     <t>Rank</t>
   </si>
@@ -121,18 +121,18 @@
     <t>BANDARA W.D.A.C.</t>
   </si>
   <si>
+    <t>230121</t>
+  </si>
+  <si>
+    <t>DE MEL D.J.</t>
+  </si>
+  <si>
     <t>230486</t>
   </si>
   <si>
     <t>PERERA U.I.H.</t>
   </si>
   <si>
-    <t>230121</t>
-  </si>
-  <si>
-    <t>DE MEL D.J.</t>
-  </si>
-  <si>
     <t>230539</t>
   </si>
   <si>
@@ -175,30 +175,42 @@
     <t>SAMARASINGHE S.M.R.R.</t>
   </si>
   <si>
+    <t>230481</t>
+  </si>
+  <si>
+    <t>PERERA K.W.A.O.V.</t>
+  </si>
+  <si>
     <t>230508</t>
   </si>
   <si>
     <t>RAHUL B.</t>
   </si>
   <si>
+    <t>230045</t>
+  </si>
+  <si>
+    <t>ANTHONY C.S.B.</t>
+  </si>
+  <si>
     <t>230051</t>
   </si>
   <si>
     <t>ARACHCHI A.D.I.D.</t>
   </si>
   <si>
-    <t>230481</t>
-  </si>
-  <si>
-    <t>PERERA K.W.A.O.V.</t>
-  </si>
-  <si>
     <t>230487</t>
   </si>
   <si>
     <t>PERERA W.A.L.S.</t>
   </si>
   <si>
+    <t>230100</t>
+  </si>
+  <si>
+    <t>CHANDRAKUMARA H.A.D.C.</t>
+  </si>
+  <si>
     <t>230186</t>
   </si>
   <si>
@@ -211,12 +223,6 @@
     <t>RATHNAYAKE M.A.G.K.N.</t>
   </si>
   <si>
-    <t>230100</t>
-  </si>
-  <si>
-    <t>CHANDRAKUMARA H.A.D.C.</t>
-  </si>
-  <si>
     <t>230689</t>
   </si>
   <si>
@@ -235,36 +241,36 @@
     <t>DHANANJAYA K.T.G.T.N.</t>
   </si>
   <si>
+    <t>230468</t>
+  </si>
+  <si>
+    <t>PATHIRANA P.T.S.</t>
+  </si>
+  <si>
+    <t>230038</t>
+  </si>
+  <si>
+    <t>AMARATHUNGE A.M.N.L.</t>
+  </si>
+  <si>
+    <t>230521</t>
+  </si>
+  <si>
+    <t>RANASINGHE D.P.H.</t>
+  </si>
+  <si>
+    <t>230525</t>
+  </si>
+  <si>
+    <t>RANATHUNGA R.J.K.O.H.</t>
+  </si>
+  <si>
     <t>230332</t>
   </si>
   <si>
     <t>KEERAWELLA K.P.C.P.</t>
   </si>
   <si>
-    <t>230468</t>
-  </si>
-  <si>
-    <t>PATHIRANA P.T.S.</t>
-  </si>
-  <si>
-    <t>230038</t>
-  </si>
-  <si>
-    <t>AMARATHUNGE A.M.N.L.</t>
-  </si>
-  <si>
-    <t>230521</t>
-  </si>
-  <si>
-    <t>RANASINGHE D.P.H.</t>
-  </si>
-  <si>
-    <t>230525</t>
-  </si>
-  <si>
-    <t>RANATHUNGA R.J.K.O.H.</t>
-  </si>
-  <si>
     <t>230680</t>
   </si>
   <si>
@@ -310,18 +316,18 @@
     <t>KUMARA P.K.M.P.</t>
   </si>
   <si>
+    <t>230697</t>
+  </si>
+  <si>
+    <t>WEERASINGHE J.A.H.R.</t>
+  </si>
+  <si>
     <t>230585</t>
   </si>
   <si>
     <t>SARUKA U.</t>
   </si>
   <si>
-    <t>230697</t>
-  </si>
-  <si>
-    <t>WEERASINGHE J.A.H.R.</t>
-  </si>
-  <si>
     <t>230140</t>
   </si>
   <si>
@@ -397,18 +403,18 @@
     <t>DISSANAYAKA D.M.D.P.</t>
   </si>
   <si>
+    <t>230016</t>
+  </si>
+  <si>
+    <t>ABISHEK L.</t>
+  </si>
+  <si>
     <t>230492</t>
   </si>
   <si>
     <t>PITIWADUGE D.N.</t>
   </si>
   <si>
-    <t>230045</t>
-  </si>
-  <si>
-    <t>ANTHONY C.S.B.</t>
-  </si>
-  <si>
     <t>230063</t>
   </si>
   <si>
@@ -451,12 +457,6 @@
     <t>TENNAKOON U.G.R.B.</t>
   </si>
   <si>
-    <t>230016</t>
-  </si>
-  <si>
-    <t>ABISHEK L.</t>
-  </si>
-  <si>
     <t>230211</t>
   </si>
   <si>
@@ -502,6 +502,12 @@
     <t>UPEKSHANI T.S.</t>
   </si>
   <si>
+    <t>230495</t>
+  </si>
+  <si>
+    <t>PRABHARSHA H.W.D.</t>
+  </si>
+  <si>
     <t>230726</t>
   </si>
   <si>
@@ -514,18 +520,18 @@
     <t>AHAMED A.M.S.</t>
   </si>
   <si>
+    <t>230052</t>
+  </si>
+  <si>
+    <t>ARACHCHIGE M. A. D. T. S.</t>
+  </si>
+  <si>
     <t>230654</t>
   </si>
   <si>
     <t>UMAIR A.</t>
   </si>
   <si>
-    <t>230052</t>
-  </si>
-  <si>
-    <t>ARACHCHIGE M. A. D. T. S.</t>
-  </si>
-  <si>
     <t>230065</t>
   </si>
   <si>
@@ -538,12 +544,6 @@
     <t>RANAWAKA R.A.G.K.</t>
   </si>
   <si>
-    <t>230495</t>
-  </si>
-  <si>
-    <t>PRABHARSHA H.W.D.</t>
-  </si>
-  <si>
     <t>230477</t>
   </si>
   <si>
@@ -562,18 +562,18 @@
     <t>DILHARA D.S.</t>
   </si>
   <si>
+    <t>230218</t>
+  </si>
+  <si>
+    <t>GUNATHUNGA U.A.</t>
+  </si>
+  <si>
     <t>230070</t>
   </si>
   <si>
     <t>BALASOORIYA B.R.B.D.</t>
   </si>
   <si>
-    <t>230218</t>
-  </si>
-  <si>
-    <t>GUNATHUNGA U.A.</t>
-  </si>
-  <si>
     <t>230195</t>
   </si>
   <si>
@@ -640,6 +640,12 @@
     <t>UBEYSEKARA V.T.T.</t>
   </si>
   <si>
+    <t>230175</t>
+  </si>
+  <si>
+    <t>ERANGA W.A.O.</t>
+  </si>
+  <si>
     <t>230375</t>
   </si>
   <si>
@@ -649,12 +655,6 @@
     <t>B-</t>
   </si>
   <si>
-    <t>230175</t>
-  </si>
-  <si>
-    <t>ERANGA W.A.O.</t>
-  </si>
-  <si>
     <t>230327</t>
   </si>
   <si>
@@ -673,6 +673,12 @@
     <t>HIMASARA W.V.M.J.</t>
   </si>
   <si>
+    <t>230581</t>
+  </si>
+  <si>
+    <t>SANTHOSH S.</t>
+  </si>
+  <si>
     <t>230730</t>
   </si>
   <si>
@@ -691,10 +697,10 @@
     <t>GUNASEKARA H.M.</t>
   </si>
   <si>
-    <t>230581</t>
-  </si>
-  <si>
-    <t>SANTHOSH S.</t>
+    <t>230033</t>
+  </si>
+  <si>
+    <t>AMARASINGHE A.A.D.K.</t>
   </si>
   <si>
     <t>230444</t>
@@ -703,12 +709,6 @@
     <t>NIRMANI W.T.</t>
   </si>
   <si>
-    <t>230033</t>
-  </si>
-  <si>
-    <t>AMARASINGHE A.A.D.K.</t>
-  </si>
-  <si>
     <t>230268</t>
   </si>
   <si>
@@ -742,18 +742,18 @@
     <t>HAKAM M.R.A.</t>
   </si>
   <si>
+    <t>230238</t>
+  </si>
+  <si>
+    <t>HENDENIYA H.M.J.C.</t>
+  </si>
+  <si>
     <t>230203</t>
   </si>
   <si>
     <t>GUNARATHNA K.T.M.B.</t>
   </si>
   <si>
-    <t>230238</t>
-  </si>
-  <si>
-    <t>HENDENIYA H.M.J.C.</t>
-  </si>
-  <si>
     <t>230564</t>
   </si>
   <si>
@@ -805,7 +805,7 @@
     <t>11(73.3%)</t>
   </si>
   <si>
-    <t>77(67.0%)</t>
+    <t>79(68.7%)</t>
   </si>
   <si>
     <t>16(13.9%)</t>
@@ -826,7 +826,7 @@
     <t>46(40.0%)</t>
   </si>
   <si>
-    <t>12(10.4%)</t>
+    <t>11(9.6%)</t>
   </si>
   <si>
     <t>1(0.9%)</t>
@@ -850,7 +850,7 @@
     <t>2(13.3%)</t>
   </si>
   <si>
-    <t>6(5.2%)</t>
+    <t>5(4.3%)</t>
   </si>
   <si>
     <t>14(12.2%)</t>
@@ -869,9 +869,6 @@
   </si>
   <si>
     <t>21(18.3%)</t>
-  </si>
-  <si>
-    <t>5(4.3%)</t>
   </si>
   <si>
     <t>13(11.3%)</t>
@@ -1493,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="Q4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R4" t="s">
         <v>253</v>
@@ -1567,7 +1564,7 @@
         <v>4</v>
       </c>
       <c r="Q5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R5" t="s">
         <v>277</v>
@@ -1653,7 +1650,7 @@
         <v>283</v>
       </c>
       <c r="U6" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="V6" t="s">
         <v>275</v>
@@ -1668,7 +1665,7 @@
         <v>283</v>
       </c>
       <c r="Z6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1715,7 +1712,7 @@
         <v>4</v>
       </c>
       <c r="Q7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="R7" t="s">
         <v>283</v>
@@ -1863,7 +1860,7 @@
         <v>8</v>
       </c>
       <c r="Q9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R9" t="s">
         <v>283</v>
@@ -1937,7 +1934,7 @@
         <v>9</v>
       </c>
       <c r="Q10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R10" t="s">
         <v>283</v>
@@ -1987,19 +1984,19 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
         <v>22</v>
@@ -2008,10 +2005,10 @@
         <v>4</v>
       </c>
       <c r="N11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R11" t="s">
         <v>283</v>
@@ -2061,19 +2058,19 @@
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
         <v>22</v>
@@ -2082,10 +2079,10 @@
         <v>4</v>
       </c>
       <c r="N12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R12" t="s">
         <v>283</v>
@@ -2156,10 +2153,10 @@
         <v>4</v>
       </c>
       <c r="N13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R13" t="s">
         <v>283</v>
@@ -2230,10 +2227,10 @@
         <v>4</v>
       </c>
       <c r="N14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R14" t="s">
         <v>283</v>
@@ -2304,7 +2301,7 @@
         <v>4</v>
       </c>
       <c r="N15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q15" t="s">
         <v>252</v>
@@ -2524,25 +2521,25 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I20" t="s">
         <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K20" t="s">
         <v>17</v>
@@ -2577,13 +2574,13 @@
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s">
         <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
         <v>22</v>
@@ -2598,7 +2595,7 @@
         <v>4</v>
       </c>
       <c r="N21">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2612,10 +2609,10 @@
         <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -2624,13 +2621,13 @@
         <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K22" t="s">
         <v>17</v>
@@ -2642,7 +2639,7 @@
         <v>4</v>
       </c>
       <c r="N22">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2668,13 +2665,13 @@
         <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
       </c>
       <c r="J23" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K23" t="s">
         <v>17</v>
@@ -2686,7 +2683,7 @@
         <v>4</v>
       </c>
       <c r="N23">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2712,10 +2709,10 @@
         <v>22</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
@@ -2750,22 +2747,22 @@
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J25" t="s">
         <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L25" t="s">
         <v>22</v>
@@ -2794,22 +2791,22 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
         <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L26" t="s">
         <v>22</v>
@@ -2818,7 +2815,7 @@
         <v>4</v>
       </c>
       <c r="N26">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2838,13 +2835,13 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s">
         <v>22</v>
@@ -2862,7 +2859,7 @@
         <v>4</v>
       </c>
       <c r="N27">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2885,13 +2882,13 @@
         <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H28" t="s">
         <v>22</v>
       </c>
       <c r="I28" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J28" t="s">
         <v>17</v>
@@ -2906,7 +2903,7 @@
         <v>4</v>
       </c>
       <c r="N28">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2923,10 +2920,10 @@
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G29" t="s">
         <v>22</v>
@@ -2935,10 +2932,10 @@
         <v>22</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K29" t="s">
         <v>17</v>
@@ -2950,7 +2947,7 @@
         <v>4</v>
       </c>
       <c r="N29">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2964,10 +2961,10 @@
         <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -2976,7 +2973,7 @@
         <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
@@ -3038,7 +3035,7 @@
         <v>4</v>
       </c>
       <c r="N31">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3082,7 +3079,7 @@
         <v>4</v>
       </c>
       <c r="N32">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3126,7 +3123,7 @@
         <v>4</v>
       </c>
       <c r="N33">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3170,7 +3167,7 @@
         <v>4</v>
       </c>
       <c r="N34">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3184,25 +3181,25 @@
         <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G35" t="s">
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I35" t="s">
         <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K35" t="s">
         <v>17</v>
@@ -3246,7 +3243,7 @@
         <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K36" t="s">
         <v>17</v>
@@ -3263,7 +3260,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
         <v>87</v>
@@ -3278,28 +3275,28 @@
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I37" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J37" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="K37" t="s">
         <v>17</v>
       </c>
       <c r="L37" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>3.975</v>
+        <v>4</v>
       </c>
       <c r="N37">
         <v>36</v>
@@ -3310,11 +3307,11 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
         <v>90</v>
       </c>
-      <c r="C38" t="s">
-        <v>91</v>
-      </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
@@ -3331,19 +3328,19 @@
         <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J38" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s">
         <v>17</v>
       </c>
       <c r="L38" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>3.962</v>
+        <v>3.973</v>
       </c>
       <c r="N38">
         <v>37</v>
@@ -3351,7 +3348,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>92</v>
@@ -3363,7 +3360,7 @@
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -3384,18 +3381,18 @@
         <v>17</v>
       </c>
       <c r="L39" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="M39">
-        <v>3.962</v>
+        <v>3.96</v>
       </c>
       <c r="N39">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>94</v>
@@ -3407,7 +3404,7 @@
         <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -3416,7 +3413,7 @@
         <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I40" t="s">
         <v>22</v>
@@ -3428,18 +3425,18 @@
         <v>17</v>
       </c>
       <c r="L40" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>3.962</v>
+        <v>3.96</v>
       </c>
       <c r="N40">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
         <v>96</v>
@@ -3457,25 +3454,25 @@
         <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H41" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
       </c>
       <c r="J41" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K41" t="s">
         <v>17</v>
       </c>
       <c r="L41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M41">
-        <v>3.962</v>
+        <v>3.96</v>
       </c>
       <c r="N41">
         <v>40</v>
@@ -3483,7 +3480,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
         <v>98</v>
@@ -3504,22 +3501,22 @@
         <v>22</v>
       </c>
       <c r="H42" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I42" t="s">
         <v>22</v>
       </c>
       <c r="J42" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K42" t="s">
         <v>17</v>
       </c>
       <c r="L42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M42">
-        <v>3.962</v>
+        <v>3.96</v>
       </c>
       <c r="N42">
         <v>41</v>
@@ -3527,7 +3524,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
         <v>100</v>
@@ -3548,7 +3545,7 @@
         <v>22</v>
       </c>
       <c r="H43" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I43" t="s">
         <v>22</v>
@@ -3563,7 +3560,7 @@
         <v>17</v>
       </c>
       <c r="M43">
-        <v>3.962</v>
+        <v>3.96</v>
       </c>
       <c r="N43">
         <v>41</v>
@@ -3571,7 +3568,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
         <v>102</v>
@@ -3586,7 +3583,7 @@
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G44" t="s">
         <v>22</v>
@@ -3595,19 +3592,19 @@
         <v>22</v>
       </c>
       <c r="I44" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J44" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K44" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M44">
-        <v>3.962</v>
+        <v>3.96</v>
       </c>
       <c r="N44">
         <v>43</v>
@@ -3615,7 +3612,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
         <v>104</v>
@@ -3636,10 +3633,10 @@
         <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I45" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J45" t="s">
         <v>22</v>
@@ -3648,10 +3645,10 @@
         <v>22</v>
       </c>
       <c r="L45" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="M45">
-        <v>3.962</v>
+        <v>3.96</v>
       </c>
       <c r="N45">
         <v>44</v>
@@ -3659,7 +3656,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
         <v>106</v>
@@ -3668,34 +3665,34 @@
         <v>107</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
         <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G46" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="H46" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="I46" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J46" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K46" t="s">
         <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>3.955</v>
+        <v>3.96</v>
       </c>
       <c r="N46">
         <v>45</v>
@@ -3712,7 +3709,7 @@
         <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s">
         <v>22</v>
@@ -3721,7 +3718,7 @@
         <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H47" t="s">
         <v>22</v>
@@ -3733,13 +3730,13 @@
         <v>17</v>
       </c>
       <c r="K47" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>3.949</v>
+        <v>3.955</v>
       </c>
       <c r="N47">
         <v>46</v>
@@ -3747,7 +3744,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>110</v>
@@ -3765,7 +3762,7 @@
         <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s">
         <v>22</v>
@@ -3774,7 +3771,7 @@
         <v>17</v>
       </c>
       <c r="J48" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K48" t="s">
         <v>17</v>
@@ -3783,7 +3780,7 @@
         <v>22</v>
       </c>
       <c r="M48">
-        <v>3.949</v>
+        <v>3.947</v>
       </c>
       <c r="N48">
         <v>47</v>
@@ -3791,7 +3788,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>112</v>
@@ -3809,16 +3806,16 @@
         <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="H49" t="s">
         <v>22</v>
       </c>
       <c r="I49" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="J49" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K49" t="s">
         <v>17</v>
@@ -3827,7 +3824,7 @@
         <v>22</v>
       </c>
       <c r="M49">
-        <v>3.949</v>
+        <v>3.947</v>
       </c>
       <c r="N49">
         <v>48</v>
@@ -3835,7 +3832,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
         <v>114</v>
@@ -3859,7 +3856,7 @@
         <v>22</v>
       </c>
       <c r="I50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J50" t="s">
         <v>17</v>
@@ -3871,15 +3868,15 @@
         <v>22</v>
       </c>
       <c r="M50">
-        <v>3.949</v>
+        <v>3.947</v>
       </c>
       <c r="N50">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
         <v>116</v>
@@ -3894,36 +3891,36 @@
         <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="H51" t="s">
         <v>22</v>
       </c>
       <c r="I51" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="J51" t="s">
         <v>17</v>
       </c>
       <c r="K51" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L51" t="s">
         <v>22</v>
       </c>
       <c r="M51">
-        <v>3.949</v>
+        <v>3.947</v>
       </c>
       <c r="N51">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
         <v>118</v>
@@ -3938,10 +3935,10 @@
         <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G52" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="H52" t="s">
         <v>22</v>
@@ -3950,16 +3947,16 @@
         <v>22</v>
       </c>
       <c r="J52" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="K52" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L52" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M52">
-        <v>3.941</v>
+        <v>3.947</v>
       </c>
       <c r="N52">
         <v>51</v>
@@ -3970,11 +3967,11 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" t="s">
         <v>121</v>
       </c>
-      <c r="C53" t="s">
-        <v>122</v>
-      </c>
       <c r="D53" t="s">
         <v>16</v>
       </c>
@@ -3982,7 +3979,7 @@
         <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="G53" t="s">
         <v>22</v>
@@ -3991,19 +3988,19 @@
         <v>22</v>
       </c>
       <c r="I53" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J53" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="K53" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L53" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="M53">
-        <v>3.937</v>
+        <v>3.939</v>
       </c>
       <c r="N53">
         <v>52</v>
@@ -4011,7 +4008,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>123</v>
@@ -4023,10 +4020,10 @@
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s">
         <v>22</v>
@@ -4038,24 +4035,24 @@
         <v>17</v>
       </c>
       <c r="J54" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K54" t="s">
         <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="M54">
-        <v>3.937</v>
+        <v>3.934</v>
       </c>
       <c r="N54">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>125</v>
@@ -4067,34 +4064,34 @@
         <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H55" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I55" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J55" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M55">
-        <v>3.924</v>
+        <v>3.934</v>
       </c>
       <c r="N55">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -4120,10 +4117,10 @@
         <v>17</v>
       </c>
       <c r="H56" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="I56" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J56" t="s">
         <v>17</v>
@@ -4132,10 +4129,10 @@
         <v>17</v>
       </c>
       <c r="L56" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="M56">
-        <v>3.912</v>
+        <v>3.921</v>
       </c>
       <c r="N56">
         <v>55</v>
@@ -4143,7 +4140,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>129</v>
@@ -4152,34 +4149,34 @@
         <v>130</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E57" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="H57" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I57" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="J57" t="s">
         <v>22</v>
       </c>
       <c r="K57" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L57" t="s">
         <v>22</v>
       </c>
       <c r="M57">
-        <v>3.912</v>
+        <v>3.911</v>
       </c>
       <c r="N57">
         <v>56</v>
@@ -4187,7 +4184,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>131</v>
@@ -4199,19 +4196,19 @@
         <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="I58" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J58" t="s">
         <v>17</v>
@@ -4220,10 +4217,10 @@
         <v>17</v>
       </c>
       <c r="L58" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="M58">
-        <v>3.912</v>
+        <v>3.908</v>
       </c>
       <c r="N58">
         <v>57</v>
@@ -4231,7 +4228,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>133</v>
@@ -4249,25 +4246,25 @@
         <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="H59" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I59" t="s">
         <v>22</v>
       </c>
       <c r="J59" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K59" t="s">
         <v>17</v>
       </c>
       <c r="L59" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M59">
-        <v>3.912</v>
+        <v>3.908</v>
       </c>
       <c r="N59">
         <v>58</v>
@@ -4275,7 +4272,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
         <v>135</v>
@@ -4287,13 +4284,13 @@
         <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="H60" t="s">
         <v>22</v>
@@ -4302,16 +4299,16 @@
         <v>22</v>
       </c>
       <c r="J60" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K60" t="s">
         <v>17</v>
       </c>
       <c r="L60" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="M60">
-        <v>3.912</v>
+        <v>3.908</v>
       </c>
       <c r="N60">
         <v>59</v>
@@ -4319,7 +4316,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
         <v>137</v>
@@ -4337,10 +4334,10 @@
         <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="H61" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I61" t="s">
         <v>22</v>
@@ -4352,18 +4349,18 @@
         <v>17</v>
       </c>
       <c r="L61" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="M61">
-        <v>3.912</v>
+        <v>3.908</v>
       </c>
       <c r="N61">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
         <v>139</v>
@@ -4381,33 +4378,33 @@
         <v>17</v>
       </c>
       <c r="G62" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="H62" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="I62" t="s">
         <v>22</v>
       </c>
       <c r="J62" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K62" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L62" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="M62">
-        <v>3.912</v>
+        <v>3.908</v>
       </c>
       <c r="N62">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
         <v>141</v>
@@ -4431,7 +4428,7 @@
         <v>22</v>
       </c>
       <c r="I63" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="J63" t="s">
         <v>22</v>
@@ -4440,18 +4437,18 @@
         <v>22</v>
       </c>
       <c r="L63" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="M63">
-        <v>3.912</v>
+        <v>3.908</v>
       </c>
       <c r="N63">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
         <v>143</v>
@@ -4475,7 +4472,7 @@
         <v>22</v>
       </c>
       <c r="I64" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J64" t="s">
         <v>22</v>
@@ -4484,18 +4481,18 @@
         <v>22</v>
       </c>
       <c r="L64" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M64">
-        <v>3.912</v>
+        <v>3.908</v>
       </c>
       <c r="N64">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s">
         <v>145</v>
@@ -4504,7 +4501,7 @@
         <v>146</v>
       </c>
       <c r="D65" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E65" t="s">
         <v>22</v>
@@ -4513,13 +4510,13 @@
         <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="H65" t="s">
         <v>22</v>
       </c>
       <c r="I65" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J65" t="s">
         <v>22</v>
@@ -4528,13 +4525,13 @@
         <v>22</v>
       </c>
       <c r="L65" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="M65">
-        <v>3.911</v>
+        <v>3.908</v>
       </c>
       <c r="N65">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -4560,22 +4557,22 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I66" t="s">
         <v>22</v>
       </c>
       <c r="J66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s">
         <v>17</v>
       </c>
       <c r="L66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M66">
-        <v>3.9</v>
+        <v>3.895</v>
       </c>
       <c r="N66">
         <v>65</v>
@@ -4604,7 +4601,7 @@
         <v>22</v>
       </c>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I67" t="s">
         <v>22</v>
@@ -4616,7 +4613,7 @@
         <v>17</v>
       </c>
       <c r="L67" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M67">
         <v>3.888</v>
@@ -4654,16 +4651,16 @@
         <v>22</v>
       </c>
       <c r="J68" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K68" t="s">
         <v>17</v>
       </c>
       <c r="L68" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M68">
-        <v>3.887</v>
+        <v>3.882</v>
       </c>
       <c r="N68">
         <v>67</v>
@@ -4695,7 +4692,7 @@
         <v>22</v>
       </c>
       <c r="I69" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J69" t="s">
         <v>17</v>
@@ -4704,7 +4701,7 @@
         <v>22</v>
       </c>
       <c r="L69" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M69">
         <v>3.877</v>
@@ -4736,7 +4733,7 @@
         <v>22</v>
       </c>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I70" t="s">
         <v>17</v>
@@ -4748,10 +4745,10 @@
         <v>22</v>
       </c>
       <c r="L70" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M70">
-        <v>3.875</v>
+        <v>3.869</v>
       </c>
       <c r="N70">
         <v>69</v>
@@ -4795,10 +4792,10 @@
         <v>159</v>
       </c>
       <c r="M71">
-        <v>3.875</v>
+        <v>3.869</v>
       </c>
       <c r="N71">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4824,7 +4821,7 @@
         <v>22</v>
       </c>
       <c r="H72" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I72" t="s">
         <v>22</v>
@@ -4836,10 +4833,10 @@
         <v>17</v>
       </c>
       <c r="L72" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M72">
-        <v>3.875</v>
+        <v>3.869</v>
       </c>
       <c r="N72">
         <v>71</v>
@@ -4865,25 +4862,25 @@
         <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="H73" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="I73" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J73" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K73" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L73" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M73">
-        <v>3.875</v>
+        <v>3.869</v>
       </c>
       <c r="N73">
         <v>72</v>
@@ -4891,7 +4888,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B74" t="s">
         <v>164</v>
@@ -4909,28 +4906,28 @@
         <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H74" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I74" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="J74" t="s">
         <v>17</v>
       </c>
       <c r="K74" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L74" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="M74">
-        <v>3.862</v>
+        <v>3.869</v>
       </c>
       <c r="N74">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4950,28 +4947,28 @@
         <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G75" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="H75" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="I75" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="J75" t="s">
         <v>17</v>
       </c>
       <c r="K75" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L75" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M75">
-        <v>3.845</v>
+        <v>3.856</v>
       </c>
       <c r="N75">
         <v>74</v>
@@ -4997,10 +4994,10 @@
         <v>17</v>
       </c>
       <c r="G76" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H76" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I76" t="s">
         <v>22</v>
@@ -5012,7 +5009,7 @@
         <v>22</v>
       </c>
       <c r="L76" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M76">
         <v>3.844</v>
@@ -5038,13 +5035,13 @@
         <v>22</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G77" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="H77" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I77" t="s">
         <v>22</v>
@@ -5056,10 +5053,10 @@
         <v>17</v>
       </c>
       <c r="L77" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="M77">
-        <v>3.837</v>
+        <v>3.839</v>
       </c>
       <c r="N77">
         <v>76</v>
@@ -5067,7 +5064,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>172</v>
@@ -5088,7 +5085,7 @@
         <v>22</v>
       </c>
       <c r="H78" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I78" t="s">
         <v>22</v>
@@ -5103,15 +5100,15 @@
         <v>159</v>
       </c>
       <c r="M78">
-        <v>3.837</v>
+        <v>3.83</v>
       </c>
       <c r="N78">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>174</v>
@@ -5123,7 +5120,7 @@
         <v>16</v>
       </c>
       <c r="E79" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F79" t="s">
         <v>17</v>
@@ -5132,25 +5129,25 @@
         <v>22</v>
       </c>
       <c r="H79" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="I79" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J79" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K79" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L79" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="M79">
-        <v>3.837</v>
+        <v>3.83</v>
       </c>
       <c r="N79">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -5167,7 +5164,7 @@
         <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
@@ -5188,10 +5185,10 @@
         <v>22</v>
       </c>
       <c r="L80" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M80">
-        <v>3.825</v>
+        <v>3.817</v>
       </c>
       <c r="N80">
         <v>79</v>
@@ -5217,10 +5214,10 @@
         <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H81" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I81" t="s">
         <v>22</v>
@@ -5232,10 +5229,10 @@
         <v>17</v>
       </c>
       <c r="L81" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M81">
-        <v>3.825</v>
+        <v>3.817</v>
       </c>
       <c r="N81">
         <v>80</v>
@@ -5255,16 +5252,16 @@
         <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
       </c>
       <c r="G82" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H82" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I82" t="s">
         <v>22</v>
@@ -5279,7 +5276,7 @@
         <v>22</v>
       </c>
       <c r="M82">
-        <v>3.825</v>
+        <v>3.817</v>
       </c>
       <c r="N82">
         <v>81</v>
@@ -5296,19 +5293,19 @@
         <v>183</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E83" t="s">
         <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="G83" t="s">
         <v>22</v>
       </c>
       <c r="H83" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
@@ -5317,13 +5314,13 @@
         <v>17</v>
       </c>
       <c r="K83" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L83" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="M83">
-        <v>3.816</v>
+        <v>3.811</v>
       </c>
       <c r="N83">
         <v>82</v>
@@ -5340,19 +5337,19 @@
         <v>185</v>
       </c>
       <c r="D84" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E84" t="s">
         <v>22</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="G84" t="s">
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="I84" t="s">
         <v>22</v>
@@ -5361,13 +5358,13 @@
         <v>17</v>
       </c>
       <c r="K84" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L84" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="M84">
-        <v>3.811</v>
+        <v>3.808</v>
       </c>
       <c r="N84">
         <v>83</v>
@@ -5387,22 +5384,22 @@
         <v>16</v>
       </c>
       <c r="E85" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F85" t="s">
         <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H85" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I85" t="s">
         <v>22</v>
       </c>
       <c r="J85" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K85" t="s">
         <v>22</v>
@@ -5411,7 +5408,7 @@
         <v>22</v>
       </c>
       <c r="M85">
-        <v>3.8</v>
+        <v>3.791</v>
       </c>
       <c r="N85">
         <v>84</v>
@@ -5437,13 +5434,13 @@
         <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H86" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I86" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J86" t="s">
         <v>17</v>
@@ -5455,7 +5452,7 @@
         <v>22</v>
       </c>
       <c r="M86">
-        <v>3.795</v>
+        <v>3.786</v>
       </c>
       <c r="N86">
         <v>85</v>
@@ -5496,10 +5493,10 @@
         <v>22</v>
       </c>
       <c r="L87" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M87">
-        <v>3.787</v>
+        <v>3.778</v>
       </c>
       <c r="N87">
         <v>86</v>
@@ -5525,10 +5522,10 @@
         <v>17</v>
       </c>
       <c r="G88" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H88" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I88" t="s">
         <v>22</v>
@@ -5540,10 +5537,10 @@
         <v>17</v>
       </c>
       <c r="L88" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M88">
-        <v>3.775</v>
+        <v>3.765</v>
       </c>
       <c r="N88">
         <v>87</v>
@@ -5575,10 +5572,10 @@
         <v>22</v>
       </c>
       <c r="I89" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J89" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K89" t="s">
         <v>17</v>
@@ -5587,7 +5584,7 @@
         <v>159</v>
       </c>
       <c r="M89">
-        <v>3.766</v>
+        <v>3.756</v>
       </c>
       <c r="N89">
         <v>88</v>
@@ -5613,10 +5610,10 @@
         <v>17</v>
       </c>
       <c r="G90" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H90" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I90" t="s">
         <v>22</v>
@@ -5628,10 +5625,10 @@
         <v>22</v>
       </c>
       <c r="L90" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M90">
-        <v>3.758</v>
+        <v>3.747</v>
       </c>
       <c r="N90">
         <v>89</v>
@@ -5648,19 +5645,19 @@
         <v>199</v>
       </c>
       <c r="D91" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E91" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
       </c>
       <c r="G91" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H91" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I91" t="s">
         <v>22</v>
@@ -5675,7 +5672,7 @@
         <v>159</v>
       </c>
       <c r="M91">
-        <v>3.744</v>
+        <v>3.733</v>
       </c>
       <c r="N91">
         <v>90</v>
@@ -5701,10 +5698,10 @@
         <v>17</v>
       </c>
       <c r="G92" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I92" t="s">
         <v>22</v>
@@ -5719,7 +5716,7 @@
         <v>159</v>
       </c>
       <c r="M92">
-        <v>3.737</v>
+        <v>3.726</v>
       </c>
       <c r="N92">
         <v>91</v>
@@ -5745,7 +5742,7 @@
         <v>17</v>
       </c>
       <c r="G93" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H93" t="s">
         <v>159</v>
@@ -5760,10 +5757,10 @@
         <v>17</v>
       </c>
       <c r="L93" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M93">
-        <v>3.737</v>
+        <v>3.726</v>
       </c>
       <c r="N93">
         <v>91</v>
@@ -5789,13 +5786,13 @@
         <v>17</v>
       </c>
       <c r="G94" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H94" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I94" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J94" t="s">
         <v>22</v>
@@ -5804,10 +5801,10 @@
         <v>22</v>
       </c>
       <c r="L94" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M94">
-        <v>3.725</v>
+        <v>3.713</v>
       </c>
       <c r="N94">
         <v>93</v>
@@ -5827,19 +5824,19 @@
         <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
       </c>
       <c r="G95" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H95" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I95" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J95" t="s">
         <v>22</v>
@@ -5848,10 +5845,10 @@
         <v>17</v>
       </c>
       <c r="L95" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M95">
-        <v>3.72</v>
+        <v>3.708</v>
       </c>
       <c r="N95">
         <v>94</v>
@@ -5877,25 +5874,25 @@
         <v>17</v>
       </c>
       <c r="G96" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="I96" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J96" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="K96" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L96" t="s">
-        <v>210</v>
+        <v>91</v>
       </c>
       <c r="M96">
-        <v>3.7</v>
+        <v>3.695</v>
       </c>
       <c r="N96">
         <v>95</v>
@@ -5906,40 +5903,40 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>210</v>
+      </c>
+      <c r="C97" t="s">
         <v>211</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" t="s">
+        <v>122</v>
+      </c>
+      <c r="I97" t="s">
+        <v>91</v>
+      </c>
+      <c r="J97" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97" t="s">
+        <v>17</v>
+      </c>
+      <c r="L97" t="s">
         <v>212</v>
       </c>
-      <c r="D97" t="s">
-        <v>16</v>
-      </c>
-      <c r="E97" t="s">
-        <v>22</v>
-      </c>
-      <c r="F97" t="s">
-        <v>17</v>
-      </c>
-      <c r="G97" t="s">
-        <v>120</v>
-      </c>
-      <c r="H97" t="s">
-        <v>89</v>
-      </c>
-      <c r="I97" t="s">
-        <v>89</v>
-      </c>
-      <c r="J97" t="s">
-        <v>89</v>
-      </c>
-      <c r="K97" t="s">
-        <v>89</v>
-      </c>
-      <c r="L97" t="s">
-        <v>89</v>
-      </c>
       <c r="M97">
-        <v>3.695</v>
+        <v>3.686</v>
       </c>
       <c r="N97">
         <v>96</v>
@@ -5965,13 +5962,13 @@
         <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H98" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I98" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J98" t="s">
         <v>17</v>
@@ -5983,7 +5980,7 @@
         <v>159</v>
       </c>
       <c r="M98">
-        <v>3.67</v>
+        <v>3.656</v>
       </c>
       <c r="N98">
         <v>97</v>
@@ -6003,16 +6000,16 @@
         <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F99" t="s">
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H99" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I99" t="s">
         <v>22</v>
@@ -6024,10 +6021,10 @@
         <v>22</v>
       </c>
       <c r="L99" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M99">
-        <v>3.67</v>
+        <v>3.656</v>
       </c>
       <c r="N99">
         <v>98</v>
@@ -6047,16 +6044,16 @@
         <v>16</v>
       </c>
       <c r="E100" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F100" t="s">
         <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H100" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I100" t="s">
         <v>22</v>
@@ -6071,7 +6068,7 @@
         <v>159</v>
       </c>
       <c r="M100">
-        <v>3.65</v>
+        <v>3.634</v>
       </c>
       <c r="N100">
         <v>99</v>
@@ -6088,34 +6085,34 @@
         <v>220</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E101" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F101" t="s">
         <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="H101" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="I101" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="J101" t="s">
         <v>17</v>
       </c>
       <c r="K101" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L101" t="s">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="M101">
-        <v>3.641</v>
+        <v>3.629</v>
       </c>
       <c r="N101">
         <v>100</v>
@@ -6135,7 +6132,7 @@
         <v>16</v>
       </c>
       <c r="E102" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="F102" t="s">
         <v>17</v>
@@ -6144,10 +6141,10 @@
         <v>159</v>
       </c>
       <c r="H102" t="s">
-        <v>210</v>
+        <v>91</v>
       </c>
       <c r="I102" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="J102" t="s">
         <v>17</v>
@@ -6156,10 +6153,10 @@
         <v>17</v>
       </c>
       <c r="L102" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M102">
-        <v>3.633</v>
+        <v>3.626</v>
       </c>
       <c r="N102">
         <v>101</v>
@@ -6167,7 +6164,7 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>223</v>
@@ -6182,28 +6179,28 @@
         <v>22</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G103" t="s">
         <v>159</v>
       </c>
       <c r="H103" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="I103" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="J103" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K103" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L103" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="M103">
-        <v>3.633</v>
+        <v>3.617</v>
       </c>
       <c r="N103">
         <v>102</v>
@@ -6211,7 +6208,7 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>225</v>
@@ -6220,34 +6217,34 @@
         <v>226</v>
       </c>
       <c r="D104" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E104" t="s">
         <v>22</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G104" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="H104" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="I104" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J104" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="K104" t="s">
         <v>22</v>
       </c>
       <c r="L104" t="s">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="M104">
-        <v>3.629</v>
+        <v>3.617</v>
       </c>
       <c r="N104">
         <v>103</v>
@@ -6264,34 +6261,34 @@
         <v>228</v>
       </c>
       <c r="D105" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="E105" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G105" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H105" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I105" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="J105" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="K105" t="s">
         <v>22</v>
       </c>
       <c r="L105" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="M105">
-        <v>3.622</v>
+        <v>3.604</v>
       </c>
       <c r="N105">
         <v>104</v>
@@ -6308,34 +6305,34 @@
         <v>230</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="E106" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G106" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H106" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I106" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="J106" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="K106" t="s">
         <v>22</v>
       </c>
       <c r="L106" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="M106">
-        <v>3.62</v>
+        <v>3.596</v>
       </c>
       <c r="N106">
         <v>105</v>
@@ -6355,19 +6352,19 @@
         <v>16</v>
       </c>
       <c r="E107" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F107" t="s">
         <v>17</v>
       </c>
       <c r="G107" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H107" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I107" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J107" t="s">
         <v>17</v>
@@ -6376,10 +6373,10 @@
         <v>17</v>
       </c>
       <c r="L107" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M107">
-        <v>3.604</v>
+        <v>3.586</v>
       </c>
       <c r="N107">
         <v>106</v>
@@ -6399,16 +6396,16 @@
         <v>16</v>
       </c>
       <c r="E108" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F108" t="s">
         <v>17</v>
       </c>
       <c r="G108" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H108" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I108" t="s">
         <v>22</v>
@@ -6420,10 +6417,10 @@
         <v>17</v>
       </c>
       <c r="L108" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M108">
-        <v>3.595</v>
+        <v>3.578</v>
       </c>
       <c r="N108">
         <v>107</v>
@@ -6449,13 +6446,13 @@
         <v>17</v>
       </c>
       <c r="G109" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H109" t="s">
         <v>159</v>
       </c>
       <c r="I109" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J109" t="s">
         <v>17</v>
@@ -6487,31 +6484,31 @@
         <v>16</v>
       </c>
       <c r="E110" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F110" t="s">
         <v>17</v>
       </c>
       <c r="G110" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H110" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I110" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J110" t="s">
         <v>17</v>
       </c>
       <c r="K110" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L110" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M110">
-        <v>3.516</v>
+        <v>3.508</v>
       </c>
       <c r="N110">
         <v>109</v>
@@ -6537,10 +6534,10 @@
         <v>17</v>
       </c>
       <c r="G111" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H111" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I111" t="s">
         <v>22</v>
@@ -6555,7 +6552,7 @@
         <v>237</v>
       </c>
       <c r="M111">
-        <v>3.508</v>
+        <v>3.486</v>
       </c>
       <c r="N111">
         <v>110</v>
@@ -6572,34 +6569,34 @@
         <v>243</v>
       </c>
       <c r="D112" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E112" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G112" t="s">
         <v>159</v>
       </c>
       <c r="H112" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="I112" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J112" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="K112" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L112" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="M112">
-        <v>3.479</v>
+        <v>3.459</v>
       </c>
       <c r="N112">
         <v>111</v>
@@ -6616,34 +6613,34 @@
         <v>245</v>
       </c>
       <c r="D113" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E113" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G113" t="s">
         <v>159</v>
       </c>
       <c r="H113" t="s">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="I113" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J113" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="K113" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L113" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="M113">
-        <v>3.459</v>
+        <v>3.456</v>
       </c>
       <c r="N113">
         <v>112</v>
@@ -6669,13 +6666,13 @@
         <v>17</v>
       </c>
       <c r="G114" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H114" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I114" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J114" t="s">
         <v>22</v>
@@ -6687,7 +6684,7 @@
         <v>159</v>
       </c>
       <c r="M114">
-        <v>3.445</v>
+        <v>3.421</v>
       </c>
       <c r="N114">
         <v>113</v>
@@ -6704,22 +6701,22 @@
         <v>249</v>
       </c>
       <c r="D115" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E115" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F115" t="s">
         <v>22</v>
       </c>
       <c r="G115" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H115" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I115" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J115" t="s">
         <v>17</v>
@@ -6731,7 +6728,7 @@
         <v>159</v>
       </c>
       <c r="M115">
-        <v>3.292</v>
+        <v>3.266</v>
       </c>
       <c r="N115">
         <v>114</v>
@@ -6751,31 +6748,31 @@
         <v>16</v>
       </c>
       <c r="E116" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F116" t="s">
         <v>22</v>
       </c>
       <c r="G116" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H116" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I116" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J116" t="s">
         <v>17</v>
       </c>
       <c r="K116" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L116" t="s">
         <v>252</v>
       </c>
       <c r="M116">
-        <v>3.095</v>
+        <v>3.069</v>
       </c>
       <c r="N116">
         <v>115</v>
